--- a/tests/integration_tests/mock_pf_returns/PF_Round_1_Cross_Table_Validation_Failures.xlsx
+++ b/tests/integration_tests/mock_pf_returns/PF_Round_1_Cross_Table_Validation_Failures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mhclg-my.sharepoint.com/personal/william_may_communities_gov_uk/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{D950AD9E-B26D-45B5-B579-8634D14D4A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAB0C725-CC35-4A26-A3BE-830836C48D92}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{D950AD9E-B26D-45B5-B579-8634D14D4A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E69F1CE-5E0D-4D87-A692-DC581AC46572}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="661" firstSheet="1" activeTab="9" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="661" firstSheet="1" activeTab="7" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="13" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -6147,6 +6147,12 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6165,14 +6171,20 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6182,36 +6194,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6243,16 +6225,127 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6276,12 +6369,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6291,119 +6378,11 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6435,22 +6414,83 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6462,6 +6502,105 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6470,9 +6609,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6536,142 +6672,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -7666,8 +7666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4900FD31-0FF6-42C6-B0C3-8DC7EA5A0CD1}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7679,10 +7679,10 @@
     <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="215"/>
+      <c r="C2" s="217"/>
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
@@ -16346,7 +16346,7 @@
   <dimension ref="B2:I42"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16360,10 +16360,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="215"/>
+      <c r="C2" s="217"/>
     </row>
     <row r="3" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="205" t="s">
@@ -16373,16 +16373,16 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="211"/>
+      <c r="C4" s="213"/>
     </row>
     <row r="5" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="213" t="s">
+      <c r="C5" s="215" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="6"/>
@@ -16394,138 +16394,138 @@
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="214" t="s">
+      <c r="B7" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="215"/>
+      <c r="C7" s="217"/>
       <c r="I7" s="112"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I8" s="112"/>
     </row>
     <row r="9" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="210" t="s">
+      <c r="B9" s="212" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="211"/>
+      <c r="C9" s="213"/>
     </row>
     <row r="10" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="212" t="s">
+      <c r="B10" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="213"/>
+      <c r="C10" s="215"/>
     </row>
     <row r="11" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="19"/>
     </row>
     <row r="12" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="210" t="s">
+      <c r="B12" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="211"/>
+      <c r="C12" s="213"/>
     </row>
     <row r="13" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="216" t="s">
+      <c r="B13" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="217"/>
+      <c r="C13" s="211"/>
     </row>
     <row r="14" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="25"/>
       <c r="C14" s="19"/>
     </row>
     <row r="15" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="210" t="s">
+      <c r="B15" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="211"/>
+      <c r="C15" s="213"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="216" t="s">
+      <c r="B16" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="217"/>
+      <c r="C16" s="211"/>
     </row>
     <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="25"/>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="2:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="210" t="s">
+      <c r="B18" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="211"/>
+      <c r="C18" s="213"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="216" t="s">
+      <c r="B19" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="217"/>
+      <c r="C19" s="211"/>
     </row>
     <row r="20" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B20" s="25"/>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="210" t="s">
+      <c r="B21" s="212" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="211"/>
+      <c r="C21" s="213"/>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="216" t="s">
+      <c r="B22" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="217"/>
+      <c r="C22" s="211"/>
     </row>
     <row r="23" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B23" s="25"/>
       <c r="C23" s="19"/>
     </row>
     <row r="24" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="210" t="s">
+      <c r="B24" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="211"/>
+      <c r="C24" s="213"/>
     </row>
     <row r="25" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="216" t="s">
+      <c r="B25" s="210" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="217"/>
+      <c r="C25" s="211"/>
     </row>
     <row r="26" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="25"/>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="210" t="s">
+      <c r="B27" s="212" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="211"/>
+      <c r="C27" s="213"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="216" t="s">
+      <c r="B28" s="210" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="217"/>
+      <c r="C28" s="211"/>
     </row>
     <row r="29" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" s="25"/>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="210" t="s">
+      <c r="B30" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="211"/>
+      <c r="C30" s="213"/>
     </row>
     <row r="31" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="216" t="s">
+      <c r="B31" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="217"/>
+      <c r="C31" s="211"/>
     </row>
     <row r="34" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16572,6 +16572,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B27:C27"/>
@@ -16582,16 +16592,6 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
@@ -17647,12 +17647,12 @@
   <sheetData>
     <row r="2" spans="1:12" s="12" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="217"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -17667,34 +17667,34 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="223" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="221"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="225"/>
     </row>
     <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="222" t="s">
+      <c r="B5" s="236" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="223"/>
-      <c r="D5" s="223"/>
-      <c r="E5" s="224"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="238"/>
     </row>
     <row r="6" spans="1:12" ht="364" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="225" t="s">
+      <c r="B6" s="218" t="s">
         <v>1070</v>
       </c>
-      <c r="C6" s="226"/>
-      <c r="D6" s="226"/>
-      <c r="E6" s="227"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="220"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="218" t="s">
+      <c r="B7" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="218"/>
+      <c r="C7" s="221"/>
       <c r="E7" s="59" t="s">
         <v>79</v>
       </c>
@@ -17704,37 +17704,37 @@
       <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="236" t="s">
+      <c r="B9" s="230" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="237"/>
-      <c r="D9" s="237"/>
-      <c r="E9" s="238"/>
+      <c r="C9" s="231"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="232"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="233" t="s">
+      <c r="B10" s="227" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="234"/>
-      <c r="D10" s="235"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="229"/>
       <c r="E10" s="93" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="239" t="s">
+      <c r="B11" s="233" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="240"/>
-      <c r="D11" s="240"/>
-      <c r="E11" s="241"/>
+      <c r="C11" s="234"/>
+      <c r="D11" s="234"/>
+      <c r="E11" s="235"/>
     </row>
     <row r="12" spans="1:12" ht="349" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="225" t="s">
+      <c r="B12" s="218" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="226"/>
-      <c r="D12" s="231"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="222"/>
       <c r="E12" s="146" t="s">
         <v>85</v>
       </c>
@@ -18170,34 +18170,34 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="219" t="s">
+      <c r="B53" s="223" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="220"/>
-      <c r="D53" s="220"/>
-      <c r="E53" s="221"/>
+      <c r="C53" s="224"/>
+      <c r="D53" s="224"/>
+      <c r="E53" s="225"/>
     </row>
     <row r="54" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="222" t="s">
+      <c r="B54" s="236" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="223"/>
-      <c r="D54" s="223"/>
-      <c r="E54" s="224"/>
+      <c r="C54" s="237"/>
+      <c r="D54" s="237"/>
+      <c r="E54" s="238"/>
     </row>
     <row r="55" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="225" t="s">
+      <c r="B55" s="218" t="s">
         <v>1080</v>
       </c>
-      <c r="C55" s="226"/>
-      <c r="D55" s="226"/>
-      <c r="E55" s="227"/>
+      <c r="C55" s="219"/>
+      <c r="D55" s="219"/>
+      <c r="E55" s="220"/>
     </row>
     <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="218" t="s">
+      <c r="B56" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="218"/>
+      <c r="C56" s="221"/>
       <c r="E56" s="59" t="s">
         <v>96</v>
       </c>
@@ -18209,34 +18209,34 @@
       </c>
     </row>
     <row r="59" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="219" t="s">
+      <c r="B59" s="223" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="220"/>
-      <c r="D59" s="220"/>
-      <c r="E59" s="221"/>
+      <c r="C59" s="224"/>
+      <c r="D59" s="224"/>
+      <c r="E59" s="225"/>
     </row>
     <row r="60" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="228" t="s">
+      <c r="B60" s="239" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="229"/>
-      <c r="D60" s="229"/>
-      <c r="E60" s="230"/>
+      <c r="C60" s="240"/>
+      <c r="D60" s="240"/>
+      <c r="E60" s="241"/>
     </row>
     <row r="61" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="225" t="s">
+      <c r="B61" s="218" t="s">
         <v>1081</v>
       </c>
-      <c r="C61" s="226"/>
-      <c r="D61" s="226"/>
-      <c r="E61" s="227"/>
+      <c r="C61" s="219"/>
+      <c r="D61" s="219"/>
+      <c r="E61" s="220"/>
     </row>
     <row r="62" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="218" t="s">
+      <c r="B62" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="218"/>
+      <c r="C62" s="221"/>
       <c r="E62" s="59" t="s">
         <v>100</v>
       </c>
@@ -18261,6 +18261,14 @@
     <row r="78" spans="2:4" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B12:D12"/>
@@ -18270,14 +18278,6 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:E50">
     <cfRule type="expression" dxfId="47" priority="1">
@@ -18324,7 +18324,7 @@
   <dimension ref="B1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18667,14 +18667,14 @@
     </row>
     <row r="2" spans="1:60" s="12" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="217"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -18793,14 +18793,14 @@
     </row>
     <row r="4" spans="1:60" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="246" t="s">
+      <c r="B4" s="277" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="247"/>
-      <c r="F4" s="247"/>
-      <c r="G4" s="248"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="279"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -18857,14 +18857,14 @@
     </row>
     <row r="5" spans="1:60" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="280" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="250"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="252"/>
+      <c r="C5" s="281"/>
+      <c r="D5" s="282"/>
+      <c r="E5" s="282"/>
+      <c r="F5" s="282"/>
+      <c r="G5" s="283"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -18921,14 +18921,14 @@
     </row>
     <row r="6" spans="1:60" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="283" t="s">
+      <c r="B6" s="258" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="284"/>
-      <c r="D6" s="284"/>
-      <c r="E6" s="285"/>
-      <c r="F6" s="285"/>
-      <c r="G6" s="286"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="260"/>
+      <c r="G6" s="261"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -18988,13 +18988,13 @@
       <c r="B7" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="284" t="s">
+      <c r="C7" s="259" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="284"/>
-      <c r="E7" s="285"/>
-      <c r="F7" s="285"/>
-      <c r="G7" s="286"/>
+      <c r="D7" s="259"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="260"/>
+      <c r="G7" s="261"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -19054,13 +19054,13 @@
       <c r="B8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="268" t="s">
+      <c r="C8" s="262" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="268"/>
-      <c r="E8" s="269"/>
-      <c r="F8" s="269"/>
-      <c r="G8" s="270"/>
+      <c r="D8" s="262"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
+      <c r="G8" s="264"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
@@ -19120,13 +19120,13 @@
       <c r="B9" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="268" t="s">
+      <c r="C9" s="262" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="268"/>
-      <c r="E9" s="269"/>
-      <c r="F9" s="269"/>
-      <c r="G9" s="270"/>
+      <c r="D9" s="262"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="263"/>
+      <c r="G9" s="264"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -19186,13 +19186,13 @@
       <c r="B10" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="268" t="s">
+      <c r="C10" s="262" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="268"/>
-      <c r="E10" s="269"/>
-      <c r="F10" s="269"/>
-      <c r="G10" s="270"/>
+      <c r="D10" s="262"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="264"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
@@ -19252,13 +19252,13 @@
       <c r="B11" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="268" t="s">
+      <c r="C11" s="262" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="268"/>
-      <c r="E11" s="269"/>
-      <c r="F11" s="269"/>
-      <c r="G11" s="270"/>
+      <c r="D11" s="262"/>
+      <c r="E11" s="263"/>
+      <c r="F11" s="263"/>
+      <c r="G11" s="264"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
@@ -19318,13 +19318,13 @@
       <c r="B12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="271" t="s">
+      <c r="C12" s="267" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="271"/>
-      <c r="E12" s="272"/>
-      <c r="F12" s="272"/>
-      <c r="G12" s="273"/>
+      <c r="D12" s="267"/>
+      <c r="E12" s="268"/>
+      <c r="F12" s="268"/>
+      <c r="G12" s="269"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -19528,60 +19528,60 @@
     </row>
     <row r="16" spans="1:60" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="253" t="s">
+      <c r="B16" s="251" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="274" t="s">
+      <c r="C16" s="253" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="255" t="s">
+      <c r="D16" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="279" t="s">
+      <c r="E16" s="273" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="280"/>
-      <c r="G16" s="277" t="s">
+      <c r="F16" s="274"/>
+      <c r="G16" s="271" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="277"/>
-      <c r="I16" s="277"/>
-      <c r="J16" s="277"/>
-      <c r="K16" s="278"/>
-      <c r="L16" s="265" t="s">
+      <c r="H16" s="271"/>
+      <c r="I16" s="271"/>
+      <c r="J16" s="271"/>
+      <c r="K16" s="272"/>
+      <c r="L16" s="255" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="266"/>
-      <c r="N16" s="266"/>
-      <c r="O16" s="266"/>
-      <c r="P16" s="267"/>
+      <c r="M16" s="256"/>
+      <c r="N16" s="256"/>
+      <c r="O16" s="256"/>
+      <c r="P16" s="257"/>
       <c r="Q16" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="258" t="s">
+      <c r="R16" s="244" t="s">
         <v>130</v>
       </c>
       <c r="S16" s="112"/>
       <c r="T16" s="52"/>
       <c r="U16" s="52"/>
       <c r="V16" s="52"/>
-      <c r="W16" s="244"/>
-      <c r="X16" s="244"/>
-      <c r="Y16" s="244"/>
-      <c r="Z16" s="244"/>
-      <c r="AA16" s="244"/>
-      <c r="AB16" s="244"/>
-      <c r="AC16" s="244"/>
-      <c r="AD16" s="244"/>
-      <c r="AE16" s="244"/>
-      <c r="AF16" s="244"/>
-      <c r="AG16" s="244"/>
-      <c r="AH16" s="244"/>
-      <c r="AI16" s="244"/>
-      <c r="AJ16" s="244"/>
-      <c r="AK16" s="244"/>
+      <c r="W16" s="265"/>
+      <c r="X16" s="265"/>
+      <c r="Y16" s="265"/>
+      <c r="Z16" s="265"/>
+      <c r="AA16" s="265"/>
+      <c r="AB16" s="265"/>
+      <c r="AC16" s="265"/>
+      <c r="AD16" s="265"/>
+      <c r="AE16" s="265"/>
+      <c r="AF16" s="265"/>
+      <c r="AG16" s="265"/>
+      <c r="AH16" s="265"/>
+      <c r="AI16" s="265"/>
+      <c r="AJ16" s="265"/>
+      <c r="AK16" s="265"/>
       <c r="AL16" s="52"/>
-      <c r="AM16" s="244"/>
+      <c r="AM16" s="265"/>
       <c r="AN16" s="112"/>
       <c r="AO16" s="112"/>
       <c r="AP16" s="112"/>
@@ -19606,13 +19606,13 @@
     </row>
     <row r="17" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="254"/>
-      <c r="C17" s="275"/>
-      <c r="D17" s="256"/>
+      <c r="B17" s="252"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="285"/>
       <c r="E17" s="185" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="281" t="s">
+      <c r="F17" s="275" t="s">
         <v>132</v>
       </c>
       <c r="G17" s="85" t="s">
@@ -19627,7 +19627,7 @@
       <c r="J17" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="K17" s="260" t="s">
+      <c r="K17" s="246" t="s">
         <v>132</v>
       </c>
       <c r="L17" s="84" t="s">
@@ -19642,13 +19642,13 @@
       <c r="O17" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="P17" s="262" t="s">
+      <c r="P17" s="248" t="s">
         <v>132</v>
       </c>
-      <c r="Q17" s="263" t="s">
+      <c r="Q17" s="249" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="259"/>
+      <c r="R17" s="245"/>
       <c r="S17" s="112"/>
       <c r="T17" s="54"/>
       <c r="U17" s="54"/>
@@ -19657,19 +19657,19 @@
       <c r="X17" s="52"/>
       <c r="Y17" s="52"/>
       <c r="Z17" s="52"/>
-      <c r="AA17" s="245"/>
+      <c r="AA17" s="266"/>
       <c r="AB17" s="52"/>
       <c r="AC17" s="52"/>
       <c r="AD17" s="52"/>
       <c r="AE17" s="52"/>
-      <c r="AF17" s="245"/>
+      <c r="AF17" s="266"/>
       <c r="AG17" s="52"/>
       <c r="AH17" s="52"/>
       <c r="AI17" s="52"/>
       <c r="AJ17" s="52"/>
-      <c r="AK17" s="245"/>
-      <c r="AL17" s="245"/>
-      <c r="AM17" s="244"/>
+      <c r="AK17" s="266"/>
+      <c r="AL17" s="266"/>
+      <c r="AM17" s="265"/>
       <c r="AN17" s="112"/>
       <c r="AO17" s="112"/>
       <c r="AP17" s="112"/>
@@ -19694,13 +19694,13 @@
     </row>
     <row r="18" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="254"/>
-      <c r="C18" s="276"/>
-      <c r="D18" s="257"/>
+      <c r="B18" s="252"/>
+      <c r="C18" s="270"/>
+      <c r="D18" s="286"/>
       <c r="E18" s="183" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="282"/>
+      <c r="F18" s="276"/>
       <c r="G18" s="179" t="s">
         <v>137</v>
       </c>
@@ -19713,7 +19713,7 @@
       <c r="J18" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="K18" s="261"/>
+      <c r="K18" s="247"/>
       <c r="L18" s="68" t="s">
         <v>137</v>
       </c>
@@ -19726,9 +19726,9 @@
       <c r="O18" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="P18" s="261"/>
-      <c r="Q18" s="264"/>
-      <c r="R18" s="259"/>
+      <c r="P18" s="247"/>
+      <c r="Q18" s="250"/>
+      <c r="R18" s="245"/>
       <c r="S18" s="112"/>
       <c r="T18" s="53"/>
       <c r="U18" s="53"/>
@@ -19737,19 +19737,19 @@
       <c r="X18" s="55"/>
       <c r="Y18" s="55"/>
       <c r="Z18" s="55"/>
-      <c r="AA18" s="245"/>
+      <c r="AA18" s="266"/>
       <c r="AB18" s="55"/>
       <c r="AC18" s="55"/>
       <c r="AD18" s="55"/>
       <c r="AE18" s="55"/>
-      <c r="AF18" s="245"/>
+      <c r="AF18" s="266"/>
       <c r="AG18" s="55"/>
       <c r="AH18" s="55"/>
       <c r="AI18" s="55"/>
       <c r="AJ18" s="55"/>
-      <c r="AK18" s="245"/>
-      <c r="AL18" s="245"/>
-      <c r="AM18" s="244"/>
+      <c r="AK18" s="266"/>
+      <c r="AL18" s="266"/>
+      <c r="AM18" s="265"/>
       <c r="AN18" s="112"/>
       <c r="AO18" s="112"/>
       <c r="AP18" s="112"/>
@@ -21561,37 +21561,37 @@
     </row>
     <row r="42" spans="1:60" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="253" t="s">
+      <c r="B42" s="251" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="253" t="s">
+      <c r="C42" s="251" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="274" t="s">
+      <c r="D42" s="253" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="265" t="s">
+      <c r="E42" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="266"/>
-      <c r="G42" s="265" t="s">
+      <c r="F42" s="256"/>
+      <c r="G42" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="266"/>
-      <c r="I42" s="266"/>
-      <c r="J42" s="266"/>
-      <c r="K42" s="267"/>
-      <c r="L42" s="265" t="s">
+      <c r="H42" s="256"/>
+      <c r="I42" s="256"/>
+      <c r="J42" s="256"/>
+      <c r="K42" s="257"/>
+      <c r="L42" s="255" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="266"/>
-      <c r="N42" s="266"/>
-      <c r="O42" s="266"/>
-      <c r="P42" s="267"/>
+      <c r="M42" s="256"/>
+      <c r="N42" s="256"/>
+      <c r="O42" s="256"/>
+      <c r="P42" s="257"/>
       <c r="Q42" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R42" s="258" t="s">
+      <c r="R42" s="244" t="s">
         <v>130</v>
       </c>
       <c r="S42" s="112"/>
@@ -21603,18 +21603,18 @@
       <c r="Y42" s="112"/>
       <c r="Z42" s="112"/>
       <c r="AA42" s="112"/>
-      <c r="AB42" s="244"/>
-      <c r="AC42" s="244"/>
-      <c r="AD42" s="244"/>
-      <c r="AE42" s="244"/>
-      <c r="AF42" s="244"/>
-      <c r="AG42" s="244"/>
-      <c r="AH42" s="244"/>
-      <c r="AI42" s="244"/>
-      <c r="AJ42" s="244"/>
-      <c r="AK42" s="244"/>
+      <c r="AB42" s="265"/>
+      <c r="AC42" s="265"/>
+      <c r="AD42" s="265"/>
+      <c r="AE42" s="265"/>
+      <c r="AF42" s="265"/>
+      <c r="AG42" s="265"/>
+      <c r="AH42" s="265"/>
+      <c r="AI42" s="265"/>
+      <c r="AJ42" s="265"/>
+      <c r="AK42" s="265"/>
       <c r="AL42" s="52"/>
-      <c r="AM42" s="244"/>
+      <c r="AM42" s="265"/>
       <c r="AN42" s="112"/>
       <c r="AO42" s="112"/>
       <c r="AP42" s="112"/>
@@ -21639,13 +21639,13 @@
     </row>
     <row r="43" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="254"/>
-      <c r="C43" s="254"/>
-      <c r="D43" s="275"/>
+      <c r="B43" s="252"/>
+      <c r="C43" s="252"/>
+      <c r="D43" s="254"/>
       <c r="E43" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="260" t="s">
+      <c r="F43" s="246" t="s">
         <v>132</v>
       </c>
       <c r="G43" s="84" t="s">
@@ -21660,7 +21660,7 @@
       <c r="J43" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="K43" s="260" t="s">
+      <c r="K43" s="246" t="s">
         <v>132</v>
       </c>
       <c r="L43" s="84" t="s">
@@ -21675,13 +21675,13 @@
       <c r="O43" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="P43" s="262" t="s">
+      <c r="P43" s="248" t="s">
         <v>132</v>
       </c>
-      <c r="Q43" s="263" t="s">
+      <c r="Q43" s="249" t="s">
         <v>132</v>
       </c>
-      <c r="R43" s="259"/>
+      <c r="R43" s="245"/>
       <c r="S43" s="112"/>
       <c r="T43" s="54"/>
       <c r="U43" s="54"/>
@@ -21690,19 +21690,19 @@
       <c r="X43" s="52"/>
       <c r="Y43" s="52"/>
       <c r="Z43" s="52"/>
-      <c r="AA43" s="245"/>
+      <c r="AA43" s="266"/>
       <c r="AB43" s="52"/>
       <c r="AC43" s="52"/>
       <c r="AD43" s="52"/>
       <c r="AE43" s="52"/>
-      <c r="AF43" s="245"/>
+      <c r="AF43" s="266"/>
       <c r="AG43" s="52"/>
       <c r="AH43" s="52"/>
       <c r="AI43" s="52"/>
       <c r="AJ43" s="52"/>
-      <c r="AK43" s="245"/>
-      <c r="AL43" s="245"/>
-      <c r="AM43" s="244"/>
+      <c r="AK43" s="266"/>
+      <c r="AL43" s="266"/>
+      <c r="AM43" s="265"/>
       <c r="AN43" s="112"/>
       <c r="AO43" s="112"/>
       <c r="AP43" s="112"/>
@@ -21727,13 +21727,13 @@
     </row>
     <row r="44" spans="1:60" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="254"/>
-      <c r="C44" s="254"/>
-      <c r="D44" s="254"/>
+      <c r="B44" s="252"/>
+      <c r="C44" s="252"/>
+      <c r="D44" s="252"/>
       <c r="E44" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="261"/>
+      <c r="F44" s="247"/>
       <c r="G44" s="67" t="s">
         <v>137</v>
       </c>
@@ -21746,7 +21746,7 @@
       <c r="J44" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="261"/>
+      <c r="K44" s="247"/>
       <c r="L44" s="68" t="s">
         <v>137</v>
       </c>
@@ -21759,9 +21759,9 @@
       <c r="O44" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="P44" s="261"/>
-      <c r="Q44" s="264"/>
-      <c r="R44" s="259"/>
+      <c r="P44" s="247"/>
+      <c r="Q44" s="250"/>
+      <c r="R44" s="245"/>
       <c r="S44" s="112"/>
       <c r="T44" s="53"/>
       <c r="U44" s="53"/>
@@ -21770,19 +21770,19 @@
       <c r="X44" s="55"/>
       <c r="Y44" s="55"/>
       <c r="Z44" s="55"/>
-      <c r="AA44" s="245"/>
+      <c r="AA44" s="266"/>
       <c r="AB44" s="55"/>
       <c r="AC44" s="55"/>
       <c r="AD44" s="55"/>
       <c r="AE44" s="55"/>
-      <c r="AF44" s="245"/>
+      <c r="AF44" s="266"/>
       <c r="AG44" s="55"/>
       <c r="AH44" s="55"/>
       <c r="AI44" s="55"/>
       <c r="AJ44" s="55"/>
-      <c r="AK44" s="245"/>
-      <c r="AL44" s="245"/>
-      <c r="AM44" s="244"/>
+      <c r="AK44" s="266"/>
+      <c r="AL44" s="266"/>
+      <c r="AM44" s="265"/>
       <c r="AN44" s="112"/>
       <c r="AO44" s="112"/>
       <c r="AP44" s="112"/>
@@ -29436,37 +29436,6 @@
     <protectedRange sqref="L45:O45" name="Section_B_1_5"/>
   </protectedRanges>
   <mergeCells count="47">
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AK17:AK18"/>
-    <mergeCell ref="AL17:AL18"/>
-    <mergeCell ref="W16:AA16"/>
-    <mergeCell ref="AB16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="AB42:AF42"/>
     <mergeCell ref="AG42:AK42"/>
@@ -29483,6 +29452,37 @@
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AK17:AK18"/>
+    <mergeCell ref="AL17:AL18"/>
+    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E18 G18:J18">
@@ -29697,14 +29697,14 @@
     </row>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="217"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -29785,14 +29785,14 @@
     </row>
     <row r="4" spans="1:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="297" t="s">
+      <c r="B4" s="290" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="298"/>
-      <c r="D4" s="298"/>
-      <c r="E4" s="298"/>
-      <c r="F4" s="298"/>
-      <c r="G4" s="299"/>
+      <c r="C4" s="291"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="292"/>
       <c r="H4" s="112"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -29830,14 +29830,14 @@
     </row>
     <row r="5" spans="1:41" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="300" t="s">
+      <c r="B5" s="293" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="301"/>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="301"/>
-      <c r="G5" s="302"/>
+      <c r="C5" s="294"/>
+      <c r="D5" s="294"/>
+      <c r="E5" s="294"/>
+      <c r="F5" s="294"/>
+      <c r="G5" s="295"/>
       <c r="H5" s="112"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -29875,14 +29875,14 @@
     </row>
     <row r="6" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="303" t="s">
+      <c r="B6" s="296" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="304"/>
-      <c r="D6" s="304"/>
-      <c r="E6" s="304"/>
-      <c r="F6" s="304"/>
-      <c r="G6" s="305"/>
+      <c r="C6" s="297"/>
+      <c r="D6" s="297"/>
+      <c r="E6" s="297"/>
+      <c r="F6" s="297"/>
+      <c r="G6" s="298"/>
       <c r="H6" s="112"/>
       <c r="I6"/>
       <c r="J6"/>
@@ -29923,13 +29923,13 @@
       <c r="B7" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="285" t="s">
+      <c r="C7" s="260" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="305"/>
+      <c r="D7" s="297"/>
+      <c r="E7" s="297"/>
+      <c r="F7" s="297"/>
+      <c r="G7" s="298"/>
       <c r="H7" s="112"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -29970,13 +29970,13 @@
       <c r="B8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="269" t="s">
+      <c r="C8" s="263" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="292"/>
-      <c r="E8" s="292"/>
-      <c r="F8" s="292"/>
-      <c r="G8" s="293"/>
+      <c r="D8" s="299"/>
+      <c r="E8" s="299"/>
+      <c r="F8" s="299"/>
+      <c r="G8" s="300"/>
       <c r="H8" s="112"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -30017,13 +30017,13 @@
       <c r="B9" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="269" t="s">
+      <c r="C9" s="263" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="293"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="300"/>
       <c r="H9" s="112"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -30064,13 +30064,13 @@
       <c r="B10" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="269" t="s">
+      <c r="C10" s="263" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="292"/>
-      <c r="E10" s="292"/>
-      <c r="F10" s="292"/>
-      <c r="G10" s="293"/>
+      <c r="D10" s="299"/>
+      <c r="E10" s="299"/>
+      <c r="F10" s="299"/>
+      <c r="G10" s="300"/>
       <c r="H10" s="112"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -30111,13 +30111,13 @@
       <c r="B11" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="269" t="s">
+      <c r="C11" s="263" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="292"/>
-      <c r="E11" s="292"/>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
+      <c r="D11" s="299"/>
+      <c r="E11" s="299"/>
+      <c r="F11" s="299"/>
+      <c r="G11" s="300"/>
       <c r="H11" s="112"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -30158,13 +30158,13 @@
       <c r="B12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="272" t="s">
+      <c r="C12" s="268" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="294"/>
-      <c r="E12" s="294"/>
-      <c r="F12" s="294"/>
-      <c r="G12" s="295"/>
+      <c r="D12" s="301"/>
+      <c r="E12" s="301"/>
+      <c r="F12" s="301"/>
+      <c r="G12" s="302"/>
       <c r="H12" s="112"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -30311,37 +30311,37 @@
     </row>
     <row r="16" spans="1:41" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="253" t="s">
+      <c r="B16" s="251" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="253" t="s">
+      <c r="C16" s="251" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="274" t="s">
+      <c r="D16" s="253" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="265" t="s">
+      <c r="E16" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="266"/>
-      <c r="G16" s="265" t="s">
+      <c r="F16" s="256"/>
+      <c r="G16" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="266"/>
-      <c r="I16" s="266"/>
-      <c r="J16" s="266"/>
-      <c r="K16" s="267"/>
-      <c r="L16" s="265" t="s">
+      <c r="H16" s="256"/>
+      <c r="I16" s="256"/>
+      <c r="J16" s="256"/>
+      <c r="K16" s="257"/>
+      <c r="L16" s="255" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="266"/>
-      <c r="N16" s="266"/>
-      <c r="O16" s="266"/>
-      <c r="P16" s="267"/>
+      <c r="M16" s="256"/>
+      <c r="N16" s="256"/>
+      <c r="O16" s="256"/>
+      <c r="P16" s="257"/>
       <c r="Q16" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="258" t="s">
+      <c r="R16" s="244" t="s">
         <v>130</v>
       </c>
       <c r="S16" s="112"/>
@@ -30370,9 +30370,9 @@
     </row>
     <row r="17" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="254"/>
-      <c r="C17" s="254"/>
-      <c r="D17" s="275"/>
+      <c r="B17" s="252"/>
+      <c r="C17" s="252"/>
+      <c r="D17" s="254"/>
       <c r="E17" s="84" t="s">
         <v>131</v>
       </c>
@@ -30409,10 +30409,10 @@
       <c r="P17" s="287" t="s">
         <v>132</v>
       </c>
-      <c r="Q17" s="263" t="s">
+      <c r="Q17" s="249" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="259"/>
+      <c r="R17" s="245"/>
       <c r="S17" s="112"/>
       <c r="T17" s="112"/>
       <c r="U17" s="112"/>
@@ -30439,9 +30439,9 @@
     </row>
     <row r="18" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="296"/>
-      <c r="C18" s="296"/>
-      <c r="D18" s="254"/>
+      <c r="B18" s="289"/>
+      <c r="C18" s="289"/>
+      <c r="D18" s="252"/>
       <c r="E18" s="22" t="s">
         <v>136</v>
       </c>
@@ -30472,8 +30472,8 @@
         <v>137</v>
       </c>
       <c r="P18" s="288"/>
-      <c r="Q18" s="289"/>
-      <c r="R18" s="291"/>
+      <c r="Q18" s="303"/>
+      <c r="R18" s="305"/>
       <c r="S18" s="112"/>
       <c r="T18" s="112"/>
       <c r="U18" s="112"/>
@@ -31574,9 +31574,9 @@
       <c r="W36"/>
       <c r="X36"/>
       <c r="Y36" s="112"/>
-      <c r="Z36" s="290"/>
-      <c r="AA36" s="290"/>
-      <c r="AB36" s="290"/>
+      <c r="Z36" s="304"/>
+      <c r="AA36" s="304"/>
+      <c r="AB36" s="304"/>
       <c r="AC36" s="112"/>
       <c r="AD36" s="112"/>
       <c r="AE36" s="112"/>
@@ -31829,37 +31829,37 @@
     </row>
     <row r="42" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="253" t="s">
+      <c r="B42" s="251" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="253" t="s">
+      <c r="C42" s="251" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="274" t="s">
+      <c r="D42" s="253" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="265" t="s">
+      <c r="E42" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="266"/>
-      <c r="G42" s="265" t="s">
+      <c r="F42" s="256"/>
+      <c r="G42" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="266"/>
-      <c r="I42" s="266"/>
-      <c r="J42" s="266"/>
-      <c r="K42" s="267"/>
-      <c r="L42" s="265" t="s">
+      <c r="H42" s="256"/>
+      <c r="I42" s="256"/>
+      <c r="J42" s="256"/>
+      <c r="K42" s="257"/>
+      <c r="L42" s="255" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="266"/>
-      <c r="N42" s="266"/>
-      <c r="O42" s="266"/>
-      <c r="P42" s="267"/>
+      <c r="M42" s="256"/>
+      <c r="N42" s="256"/>
+      <c r="O42" s="256"/>
+      <c r="P42" s="257"/>
       <c r="Q42" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R42" s="258" t="s">
+      <c r="R42" s="244" t="s">
         <v>130</v>
       </c>
       <c r="S42" s="112"/>
@@ -31888,9 +31888,9 @@
     </row>
     <row r="43" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="254"/>
-      <c r="C43" s="254"/>
-      <c r="D43" s="275"/>
+      <c r="B43" s="252"/>
+      <c r="C43" s="252"/>
+      <c r="D43" s="254"/>
       <c r="E43" s="84" t="s">
         <v>131</v>
       </c>
@@ -31927,10 +31927,10 @@
       <c r="P43" s="287" t="s">
         <v>132</v>
       </c>
-      <c r="Q43" s="263" t="s">
+      <c r="Q43" s="249" t="s">
         <v>132</v>
       </c>
-      <c r="R43" s="259"/>
+      <c r="R43" s="245"/>
       <c r="S43" s="112"/>
       <c r="T43" s="112"/>
       <c r="U43" s="112"/>
@@ -31957,9 +31957,9 @@
     </row>
     <row r="44" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="254"/>
-      <c r="C44" s="254"/>
-      <c r="D44" s="254"/>
+      <c r="B44" s="252"/>
+      <c r="C44" s="252"/>
+      <c r="D44" s="252"/>
       <c r="E44" s="22" t="s">
         <v>136</v>
       </c>
@@ -31976,7 +31976,7 @@
       <c r="J44" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="261"/>
+      <c r="K44" s="247"/>
       <c r="L44" s="141" t="s">
         <v>137</v>
       </c>
@@ -31989,9 +31989,9 @@
       <c r="O44" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="P44" s="261"/>
-      <c r="Q44" s="264"/>
-      <c r="R44" s="259"/>
+      <c r="P44" s="247"/>
+      <c r="Q44" s="250"/>
+      <c r="R44" s="245"/>
       <c r="S44" s="112"/>
       <c r="T44" s="112"/>
       <c r="U44" s="112"/>
@@ -37578,11 +37578,25 @@
     <protectedRange sqref="Q19" name="Section_B_1_3"/>
   </protectedRanges>
   <mergeCells count="33">
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="D16:D18"/>
@@ -37592,25 +37606,11 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
   </mergeCells>
   <conditionalFormatting sqref="G18:J18">
     <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
@@ -37702,8 +37702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD05DD0-7124-4A36-99BE-80113683F5E3}">
   <dimension ref="A2:AF90"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="G63" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P74" sqref="P74:Q74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -37728,15 +37728,15 @@
   <sheetData>
     <row r="2" spans="1:32" s="97" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="112"/>
-      <c r="B2" s="306" t="s">
+      <c r="B2" s="359" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
-      <c r="F2" s="307"/>
-      <c r="G2" s="307"/>
-      <c r="H2" s="308"/>
+      <c r="C2" s="360"/>
+      <c r="D2" s="360"/>
+      <c r="E2" s="360"/>
+      <c r="F2" s="360"/>
+      <c r="G2" s="360"/>
+      <c r="H2" s="361"/>
       <c r="I2" s="18"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -37764,15 +37764,15 @@
     </row>
     <row r="4" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="223" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="221"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="225"/>
       <c r="I4" s="112"/>
       <c r="J4" s="112"/>
       <c r="K4" s="112"/>
@@ -37800,15 +37800,15 @@
     </row>
     <row r="5" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="329" t="s">
+      <c r="B5" s="375" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="330"/>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="331"/>
+      <c r="C5" s="376"/>
+      <c r="D5" s="376"/>
+      <c r="E5" s="376"/>
+      <c r="F5" s="376"/>
+      <c r="G5" s="376"/>
+      <c r="H5" s="377"/>
       <c r="I5" s="112"/>
       <c r="J5" s="112"/>
       <c r="K5" s="112"/>
@@ -37871,18 +37871,18 @@
       <c r="AF6" s="112"/>
     </row>
     <row r="7" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="322" t="s">
+      <c r="A7" s="368" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="332" t="s">
+      <c r="B7" s="378" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="333"/>
-      <c r="D7" s="333"/>
-      <c r="E7" s="333"/>
-      <c r="F7" s="333"/>
-      <c r="G7" s="333"/>
-      <c r="H7" s="334"/>
+      <c r="C7" s="379"/>
+      <c r="D7" s="379"/>
+      <c r="E7" s="379"/>
+      <c r="F7" s="379"/>
+      <c r="G7" s="379"/>
+      <c r="H7" s="380"/>
       <c r="I7" s="112"/>
       <c r="J7" s="112"/>
       <c r="K7" s="112"/>
@@ -37909,16 +37909,16 @@
       <c r="AF7" s="112"/>
     </row>
     <row r="8" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="322"/>
-      <c r="B8" s="323" t="s">
+      <c r="A8" s="368"/>
+      <c r="B8" s="369" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="324"/>
-      <c r="D8" s="324"/>
-      <c r="E8" s="324"/>
-      <c r="F8" s="324"/>
-      <c r="G8" s="324"/>
-      <c r="H8" s="325"/>
+      <c r="C8" s="370"/>
+      <c r="D8" s="370"/>
+      <c r="E8" s="370"/>
+      <c r="F8" s="370"/>
+      <c r="G8" s="370"/>
+      <c r="H8" s="371"/>
       <c r="I8" s="112"/>
       <c r="J8" s="112"/>
       <c r="K8" s="112"/>
@@ -37945,16 +37945,16 @@
       <c r="AF8" s="112"/>
     </row>
     <row r="9" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="322"/>
-      <c r="B9" s="335" t="s">
+      <c r="A9" s="368"/>
+      <c r="B9" s="381" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="336"/>
-      <c r="D9" s="336"/>
-      <c r="E9" s="336"/>
-      <c r="F9" s="336"/>
-      <c r="G9" s="336"/>
-      <c r="H9" s="337"/>
+      <c r="C9" s="382"/>
+      <c r="D9" s="382"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="382"/>
+      <c r="G9" s="382"/>
+      <c r="H9" s="383"/>
       <c r="I9" s="112"/>
       <c r="J9" s="112"/>
       <c r="K9" s="112"/>
@@ -37981,7 +37981,7 @@
       <c r="AF9" s="112"/>
     </row>
     <row r="10" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="322"/>
+      <c r="A10" s="368"/>
       <c r="B10" s="112"/>
       <c r="C10" s="112"/>
       <c r="D10" s="112"/>
@@ -38015,7 +38015,7 @@
       <c r="AF10" s="112"/>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="322"/>
+      <c r="A11" s="368"/>
       <c r="B11" s="169" t="s">
         <v>260</v>
       </c>
@@ -38123,18 +38123,18 @@
       <c r="AF13" s="112"/>
     </row>
     <row r="14" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="338" t="s">
+      <c r="A14" s="384" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="319" t="s">
+      <c r="B14" s="365" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="320"/>
-      <c r="D14" s="320"/>
-      <c r="E14" s="320"/>
-      <c r="F14" s="320"/>
-      <c r="G14" s="320"/>
-      <c r="H14" s="321"/>
+      <c r="C14" s="366"/>
+      <c r="D14" s="366"/>
+      <c r="E14" s="366"/>
+      <c r="F14" s="366"/>
+      <c r="G14" s="366"/>
+      <c r="H14" s="367"/>
       <c r="I14" s="112"/>
       <c r="J14" s="112"/>
       <c r="K14" s="112"/>
@@ -38161,16 +38161,16 @@
       <c r="AF14" s="112"/>
     </row>
     <row r="15" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="338"/>
-      <c r="B15" s="326" t="s">
+      <c r="A15" s="384"/>
+      <c r="B15" s="372" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="327"/>
-      <c r="D15" s="327"/>
-      <c r="E15" s="327"/>
-      <c r="F15" s="327"/>
-      <c r="G15" s="327"/>
-      <c r="H15" s="328"/>
+      <c r="C15" s="373"/>
+      <c r="D15" s="373"/>
+      <c r="E15" s="373"/>
+      <c r="F15" s="373"/>
+      <c r="G15" s="373"/>
+      <c r="H15" s="374"/>
       <c r="I15" s="112"/>
       <c r="J15" s="112"/>
       <c r="K15" s="112"/>
@@ -38197,7 +38197,7 @@
       <c r="AF15" s="112"/>
     </row>
     <row r="16" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="338"/>
+      <c r="A16" s="384"/>
       <c r="B16" s="340" t="s">
         <v>162</v>
       </c>
@@ -38233,7 +38233,7 @@
       <c r="AF16" s="112"/>
     </row>
     <row r="17" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="338"/>
+      <c r="A17" s="384"/>
       <c r="B17" s="171" t="s">
         <v>163</v>
       </c>
@@ -38269,7 +38269,7 @@
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="338"/>
+      <c r="A18" s="384"/>
       <c r="B18" s="128"/>
       <c r="C18" s="182"/>
       <c r="D18" s="182"/>
@@ -38375,18 +38375,18 @@
       <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32" s="97" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="338" t="s">
+      <c r="A21" s="384" t="s">
         <v>166</v>
       </c>
-      <c r="B21" s="319" t="s">
+      <c r="B21" s="365" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="320"/>
-      <c r="D21" s="320"/>
-      <c r="E21" s="320"/>
-      <c r="F21" s="320"/>
-      <c r="G21" s="320"/>
-      <c r="H21" s="321"/>
+      <c r="C21" s="366"/>
+      <c r="D21" s="366"/>
+      <c r="E21" s="366"/>
+      <c r="F21" s="366"/>
+      <c r="G21" s="366"/>
+      <c r="H21" s="367"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -38413,16 +38413,16 @@
       <c r="AF21" s="3"/>
     </row>
     <row r="22" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="338"/>
-      <c r="B22" s="326" t="s">
+      <c r="A22" s="384"/>
+      <c r="B22" s="372" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="327"/>
-      <c r="D22" s="327"/>
-      <c r="E22" s="327"/>
-      <c r="F22" s="327"/>
-      <c r="G22" s="327"/>
-      <c r="H22" s="328"/>
+      <c r="C22" s="373"/>
+      <c r="D22" s="373"/>
+      <c r="E22" s="373"/>
+      <c r="F22" s="373"/>
+      <c r="G22" s="373"/>
+      <c r="H22" s="374"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -38449,16 +38449,16 @@
       <c r="AF22" s="3"/>
     </row>
     <row r="23" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="338"/>
-      <c r="B23" s="309" t="s">
+      <c r="A23" s="384"/>
+      <c r="B23" s="343" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="310"/>
-      <c r="D23" s="310"/>
-      <c r="E23" s="310"/>
-      <c r="F23" s="310"/>
-      <c r="G23" s="310"/>
-      <c r="H23" s="311"/>
+      <c r="C23" s="344"/>
+      <c r="D23" s="344"/>
+      <c r="E23" s="344"/>
+      <c r="F23" s="344"/>
+      <c r="G23" s="344"/>
+      <c r="H23" s="345"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -38485,7 +38485,7 @@
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="338"/>
+      <c r="A24" s="384"/>
       <c r="B24" s="171" t="s">
         <v>163</v>
       </c>
@@ -38521,7 +38521,7 @@
       <c r="AF24" s="3"/>
     </row>
     <row r="25" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="338"/>
+      <c r="A25" s="384"/>
       <c r="B25" s="128">
         <v>119</v>
       </c>
@@ -38629,18 +38629,18 @@
       <c r="AF27" s="3"/>
     </row>
     <row r="28" spans="1:32" s="97" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="339" t="s">
+      <c r="A28" s="385" t="s">
         <v>171</v>
       </c>
-      <c r="B28" s="319" t="s">
+      <c r="B28" s="365" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="320"/>
-      <c r="D28" s="320"/>
-      <c r="E28" s="320"/>
-      <c r="F28" s="320"/>
-      <c r="G28" s="320"/>
-      <c r="H28" s="321"/>
+      <c r="C28" s="366"/>
+      <c r="D28" s="366"/>
+      <c r="E28" s="366"/>
+      <c r="F28" s="366"/>
+      <c r="G28" s="366"/>
+      <c r="H28" s="367"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -38667,16 +38667,16 @@
       <c r="AF28" s="3"/>
     </row>
     <row r="29" spans="1:32" s="97" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="339"/>
-      <c r="B29" s="326" t="s">
+      <c r="A29" s="385"/>
+      <c r="B29" s="372" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="327"/>
-      <c r="D29" s="327"/>
-      <c r="E29" s="327"/>
-      <c r="F29" s="327"/>
-      <c r="G29" s="327"/>
-      <c r="H29" s="328"/>
+      <c r="C29" s="373"/>
+      <c r="D29" s="373"/>
+      <c r="E29" s="373"/>
+      <c r="F29" s="373"/>
+      <c r="G29" s="373"/>
+      <c r="H29" s="374"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -38703,16 +38703,16 @@
       <c r="AF29" s="3"/>
     </row>
     <row r="30" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="339"/>
-      <c r="B30" s="309" t="s">
+      <c r="A30" s="385"/>
+      <c r="B30" s="343" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="310"/>
-      <c r="D30" s="310"/>
-      <c r="E30" s="310"/>
-      <c r="F30" s="310"/>
-      <c r="G30" s="310"/>
-      <c r="H30" s="311"/>
+      <c r="C30" s="344"/>
+      <c r="D30" s="344"/>
+      <c r="E30" s="344"/>
+      <c r="F30" s="344"/>
+      <c r="G30" s="344"/>
+      <c r="H30" s="345"/>
       <c r="I30" s="112"/>
       <c r="J30" s="112"/>
       <c r="K30" s="112"/>
@@ -38739,16 +38739,16 @@
       <c r="AF30" s="112"/>
     </row>
     <row r="31" spans="1:32" ht="239.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="339"/>
-      <c r="B31" s="312" t="s">
+      <c r="A31" s="385"/>
+      <c r="B31" s="326" t="s">
         <v>1091</v>
       </c>
-      <c r="C31" s="231"/>
-      <c r="D31" s="231"/>
-      <c r="E31" s="313"/>
-      <c r="F31" s="313"/>
-      <c r="G31" s="313"/>
-      <c r="H31" s="314"/>
+      <c r="C31" s="222"/>
+      <c r="D31" s="222"/>
+      <c r="E31" s="327"/>
+      <c r="F31" s="327"/>
+      <c r="G31" s="327"/>
+      <c r="H31" s="328"/>
       <c r="I31" s="112"/>
       <c r="J31" s="112"/>
       <c r="K31" s="112"/>
@@ -38775,13 +38775,13 @@
       <c r="AF31" s="112"/>
     </row>
     <row r="32" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="339"/>
-      <c r="B32" s="218" t="s">
+      <c r="A32" s="385"/>
+      <c r="B32" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="218"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="218"/>
+      <c r="C32" s="221"/>
+      <c r="D32" s="221"/>
+      <c r="E32" s="221"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="59" t="s">
@@ -38849,18 +38849,18 @@
       <c r="AF33" s="112"/>
     </row>
     <row r="34" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="322" t="s">
+      <c r="A34" s="368" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="319" t="s">
+      <c r="B34" s="365" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="320"/>
-      <c r="D34" s="320"/>
-      <c r="E34" s="320"/>
-      <c r="F34" s="320"/>
-      <c r="G34" s="320"/>
-      <c r="H34" s="321"/>
+      <c r="C34" s="366"/>
+      <c r="D34" s="366"/>
+      <c r="E34" s="366"/>
+      <c r="F34" s="366"/>
+      <c r="G34" s="366"/>
+      <c r="H34" s="367"/>
       <c r="I34" s="112"/>
       <c r="J34" s="112"/>
       <c r="K34" s="112"/>
@@ -38887,16 +38887,16 @@
       <c r="AF34" s="112"/>
     </row>
     <row r="35" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="322"/>
-      <c r="B35" s="326" t="s">
+      <c r="A35" s="368"/>
+      <c r="B35" s="372" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="327"/>
-      <c r="D35" s="327"/>
-      <c r="E35" s="327"/>
-      <c r="F35" s="327"/>
-      <c r="G35" s="327"/>
-      <c r="H35" s="328"/>
+      <c r="C35" s="373"/>
+      <c r="D35" s="373"/>
+      <c r="E35" s="373"/>
+      <c r="F35" s="373"/>
+      <c r="G35" s="373"/>
+      <c r="H35" s="374"/>
       <c r="I35" s="112"/>
       <c r="J35" s="112"/>
       <c r="K35" s="112"/>
@@ -38923,16 +38923,16 @@
       <c r="AF35" s="112"/>
     </row>
     <row r="36" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="322"/>
+      <c r="A36" s="368"/>
       <c r="B36" s="356" t="s">
         <v>179</v>
       </c>
       <c r="C36" s="357"/>
       <c r="D36" s="357"/>
-      <c r="E36" s="310"/>
-      <c r="F36" s="310"/>
-      <c r="G36" s="310"/>
-      <c r="H36" s="311"/>
+      <c r="E36" s="344"/>
+      <c r="F36" s="344"/>
+      <c r="G36" s="344"/>
+      <c r="H36" s="345"/>
       <c r="I36" s="112"/>
       <c r="J36" s="112"/>
       <c r="K36" s="112"/>
@@ -38959,7 +38959,7 @@
       <c r="AF36" s="112"/>
     </row>
     <row r="37" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="322"/>
+      <c r="A37" s="368"/>
       <c r="B37" s="171" t="s">
         <v>163</v>
       </c>
@@ -38995,7 +38995,7 @@
       <c r="AF37" s="3"/>
     </row>
     <row r="38" spans="1:32" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="322"/>
+      <c r="A38" s="368"/>
       <c r="B38" s="128">
         <v>120</v>
       </c>
@@ -39068,22 +39068,22 @@
     </row>
     <row r="40" spans="1:32" s="107" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A40" s="105"/>
-      <c r="B40" s="343" t="s">
+      <c r="B40" s="346" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="344"/>
-      <c r="D40" s="344"/>
-      <c r="E40" s="344"/>
-      <c r="F40" s="344"/>
-      <c r="G40" s="344"/>
-      <c r="H40" s="344"/>
-      <c r="I40" s="344"/>
-      <c r="J40" s="344"/>
-      <c r="K40" s="344"/>
-      <c r="L40" s="344"/>
-      <c r="M40" s="344"/>
-      <c r="N40" s="344"/>
-      <c r="O40" s="345"/>
+      <c r="C40" s="347"/>
+      <c r="D40" s="347"/>
+      <c r="E40" s="347"/>
+      <c r="F40" s="347"/>
+      <c r="G40" s="347"/>
+      <c r="H40" s="347"/>
+      <c r="I40" s="347"/>
+      <c r="J40" s="347"/>
+      <c r="K40" s="347"/>
+      <c r="L40" s="347"/>
+      <c r="M40" s="347"/>
+      <c r="N40" s="347"/>
+      <c r="O40" s="348"/>
       <c r="P40" s="112"/>
       <c r="Q40" s="105"/>
       <c r="R40" s="105"/>
@@ -39140,28 +39140,28 @@
     </row>
     <row r="42" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="364" t="s">
+      <c r="B42" s="329" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="265" t="s">
+      <c r="C42" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="266"/>
-      <c r="E42" s="265" t="s">
+      <c r="D42" s="256"/>
+      <c r="E42" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="266"/>
-      <c r="G42" s="266"/>
-      <c r="H42" s="266"/>
+      <c r="F42" s="256"/>
+      <c r="G42" s="256"/>
+      <c r="H42" s="256"/>
       <c r="I42" s="358"/>
-      <c r="J42" s="266" t="s">
+      <c r="J42" s="256" t="s">
         <v>128</v>
       </c>
-      <c r="K42" s="266"/>
-      <c r="L42" s="266"/>
-      <c r="M42" s="266"/>
-      <c r="N42" s="267"/>
-      <c r="O42" s="352" t="s">
+      <c r="K42" s="256"/>
+      <c r="L42" s="256"/>
+      <c r="M42" s="256"/>
+      <c r="N42" s="257"/>
+      <c r="O42" s="353" t="s">
         <v>130</v>
       </c>
       <c r="P42" s="112"/>
@@ -39184,11 +39184,11 @@
     </row>
     <row r="43" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="365"/>
+      <c r="B43" s="330"/>
       <c r="C43" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="318" t="s">
+      <c r="D43" s="355" t="s">
         <v>132</v>
       </c>
       <c r="E43" s="173" t="s">
@@ -39203,7 +39203,7 @@
       <c r="H43" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="I43" s="318" t="s">
+      <c r="I43" s="355" t="s">
         <v>132</v>
       </c>
       <c r="J43" s="173" t="s">
@@ -39218,10 +39218,10 @@
       <c r="M43" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="N43" s="318" t="s">
+      <c r="N43" s="355" t="s">
         <v>132</v>
       </c>
-      <c r="O43" s="353"/>
+      <c r="O43" s="354"/>
       <c r="P43" s="112"/>
       <c r="Q43" s="112"/>
       <c r="R43" s="112"/>
@@ -39242,11 +39242,11 @@
     </row>
     <row r="44" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="112"/>
-      <c r="B44" s="365"/>
+      <c r="B44" s="330"/>
       <c r="C44" s="175" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="281"/>
+      <c r="D44" s="275"/>
       <c r="E44" s="176" t="s">
         <v>137</v>
       </c>
@@ -39259,7 +39259,7 @@
       <c r="H44" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="I44" s="281"/>
+      <c r="I44" s="275"/>
       <c r="J44" s="175" t="s">
         <v>137</v>
       </c>
@@ -39272,8 +39272,8 @@
       <c r="M44" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="N44" s="281"/>
-      <c r="O44" s="353"/>
+      <c r="N44" s="275"/>
+      <c r="O44" s="354"/>
       <c r="P44" s="112"/>
       <c r="Q44" s="112"/>
       <c r="R44" s="112"/>
@@ -39869,15 +39869,15 @@
     </row>
     <row r="54" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A54" s="112"/>
-      <c r="B54" s="372" t="s">
+      <c r="B54" s="337" t="s">
         <v>193</v>
       </c>
-      <c r="C54" s="373"/>
-      <c r="D54" s="373"/>
-      <c r="E54" s="373"/>
-      <c r="F54" s="373"/>
-      <c r="G54" s="373"/>
-      <c r="H54" s="374"/>
+      <c r="C54" s="338"/>
+      <c r="D54" s="338"/>
+      <c r="E54" s="338"/>
+      <c r="F54" s="338"/>
+      <c r="G54" s="338"/>
+      <c r="H54" s="339"/>
       <c r="I54" s="112"/>
       <c r="J54" s="112"/>
       <c r="K54" s="112"/>
@@ -39905,15 +39905,15 @@
     </row>
     <row r="55" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="112"/>
-      <c r="B55" s="366" t="s">
+      <c r="B55" s="331" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="367"/>
-      <c r="D55" s="367"/>
-      <c r="E55" s="367"/>
-      <c r="F55" s="367"/>
-      <c r="G55" s="367"/>
-      <c r="H55" s="368"/>
+      <c r="C55" s="332"/>
+      <c r="D55" s="332"/>
+      <c r="E55" s="332"/>
+      <c r="F55" s="332"/>
+      <c r="G55" s="332"/>
+      <c r="H55" s="333"/>
       <c r="I55" s="112"/>
       <c r="J55" s="112"/>
       <c r="K55" s="112"/>
@@ -39941,15 +39941,15 @@
     </row>
     <row r="56" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="112"/>
-      <c r="B56" s="348" t="s">
+      <c r="B56" s="350" t="s">
         <v>195</v>
       </c>
-      <c r="C56" s="349"/>
-      <c r="D56" s="349"/>
-      <c r="E56" s="349"/>
-      <c r="F56" s="349"/>
-      <c r="G56" s="349"/>
-      <c r="H56" s="350"/>
+      <c r="C56" s="351"/>
+      <c r="D56" s="351"/>
+      <c r="E56" s="351"/>
+      <c r="F56" s="351"/>
+      <c r="G56" s="351"/>
+      <c r="H56" s="352"/>
       <c r="I56" s="112"/>
       <c r="J56" s="112"/>
       <c r="K56" s="112"/>
@@ -39977,15 +39977,15 @@
     </row>
     <row r="57" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="112"/>
-      <c r="B57" s="312" t="s">
+      <c r="B57" s="326" t="s">
         <v>1092</v>
       </c>
-      <c r="C57" s="231"/>
-      <c r="D57" s="231"/>
-      <c r="E57" s="313"/>
-      <c r="F57" s="313"/>
-      <c r="G57" s="313"/>
-      <c r="H57" s="314"/>
+      <c r="C57" s="222"/>
+      <c r="D57" s="222"/>
+      <c r="E57" s="327"/>
+      <c r="F57" s="327"/>
+      <c r="G57" s="327"/>
+      <c r="H57" s="328"/>
       <c r="I57" s="112"/>
       <c r="J57" s="112"/>
       <c r="K57" s="112"/>
@@ -40013,12 +40013,12 @@
     </row>
     <row r="58" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="112"/>
-      <c r="B58" s="218" t="s">
+      <c r="B58" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="218"/>
-      <c r="D58" s="218"/>
-      <c r="E58" s="218"/>
+      <c r="C58" s="221"/>
+      <c r="D58" s="221"/>
+      <c r="E58" s="221"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="H58" s="59" t="s">
@@ -40087,15 +40087,15 @@
     </row>
     <row r="60" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A60" s="112"/>
-      <c r="B60" s="315" t="s">
+      <c r="B60" s="362" t="s">
         <v>198</v>
       </c>
-      <c r="C60" s="316"/>
-      <c r="D60" s="316"/>
-      <c r="E60" s="316"/>
-      <c r="F60" s="316"/>
-      <c r="G60" s="316"/>
-      <c r="H60" s="317"/>
+      <c r="C60" s="363"/>
+      <c r="D60" s="363"/>
+      <c r="E60" s="363"/>
+      <c r="F60" s="363"/>
+      <c r="G60" s="363"/>
+      <c r="H60" s="364"/>
       <c r="I60" s="112"/>
       <c r="J60" s="112"/>
       <c r="K60" s="112"/>
@@ -40123,15 +40123,15 @@
     </row>
     <row r="61" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="112"/>
-      <c r="B61" s="369" t="s">
+      <c r="B61" s="334" t="s">
         <v>199</v>
       </c>
-      <c r="C61" s="370"/>
-      <c r="D61" s="370"/>
-      <c r="E61" s="370"/>
-      <c r="F61" s="370"/>
-      <c r="G61" s="370"/>
-      <c r="H61" s="371"/>
+      <c r="C61" s="335"/>
+      <c r="D61" s="335"/>
+      <c r="E61" s="335"/>
+      <c r="F61" s="335"/>
+      <c r="G61" s="335"/>
+      <c r="H61" s="336"/>
       <c r="I61" s="112"/>
       <c r="J61" s="112"/>
       <c r="K61" s="112"/>
@@ -40159,15 +40159,15 @@
     </row>
     <row r="62" spans="1:32" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="112"/>
-      <c r="B62" s="361" t="s">
+      <c r="B62" s="323" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="362"/>
-      <c r="D62" s="362"/>
-      <c r="E62" s="362"/>
-      <c r="F62" s="362"/>
-      <c r="G62" s="362"/>
-      <c r="H62" s="363"/>
+      <c r="C62" s="324"/>
+      <c r="D62" s="324"/>
+      <c r="E62" s="324"/>
+      <c r="F62" s="324"/>
+      <c r="G62" s="324"/>
+      <c r="H62" s="325"/>
       <c r="I62" s="112"/>
       <c r="J62" s="112"/>
       <c r="K62" s="112"/>
@@ -40195,15 +40195,15 @@
     </row>
     <row r="63" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="112"/>
-      <c r="B63" s="312" t="s">
+      <c r="B63" s="326" t="s">
         <v>1093</v>
       </c>
-      <c r="C63" s="231"/>
-      <c r="D63" s="231"/>
-      <c r="E63" s="313"/>
-      <c r="F63" s="313"/>
-      <c r="G63" s="313"/>
-      <c r="H63" s="314"/>
+      <c r="C63" s="222"/>
+      <c r="D63" s="222"/>
+      <c r="E63" s="327"/>
+      <c r="F63" s="327"/>
+      <c r="G63" s="327"/>
+      <c r="H63" s="328"/>
       <c r="I63" s="112"/>
       <c r="J63" s="112"/>
       <c r="K63" s="112"/>
@@ -40414,41 +40414,41 @@
       <c r="B69" s="178" t="s">
         <v>206</v>
       </c>
-      <c r="C69" s="354" t="s">
+      <c r="C69" s="314" t="s">
         <v>207</v>
       </c>
-      <c r="D69" s="355"/>
-      <c r="E69" s="354" t="s">
+      <c r="D69" s="315"/>
+      <c r="E69" s="314" t="s">
         <v>208</v>
       </c>
-      <c r="F69" s="355"/>
-      <c r="G69" s="346" t="s">
+      <c r="F69" s="315"/>
+      <c r="G69" s="316" t="s">
         <v>209</v>
       </c>
-      <c r="H69" s="351"/>
-      <c r="I69" s="354" t="s">
+      <c r="H69" s="317"/>
+      <c r="I69" s="314" t="s">
         <v>210</v>
       </c>
-      <c r="J69" s="355"/>
+      <c r="J69" s="315"/>
       <c r="K69" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="L69" s="383" t="s">
+      <c r="L69" s="312" t="s">
         <v>212</v>
       </c>
-      <c r="M69" s="384"/>
-      <c r="N69" s="346" t="s">
+      <c r="M69" s="313"/>
+      <c r="N69" s="316" t="s">
         <v>213</v>
       </c>
-      <c r="O69" s="351"/>
-      <c r="P69" s="354" t="s">
+      <c r="O69" s="317"/>
+      <c r="P69" s="314" t="s">
         <v>214</v>
       </c>
-      <c r="Q69" s="355"/>
-      <c r="R69" s="346" t="s">
+      <c r="Q69" s="315"/>
+      <c r="R69" s="316" t="s">
         <v>215</v>
       </c>
-      <c r="S69" s="347"/>
+      <c r="S69" s="349"/>
       <c r="T69" s="112"/>
       <c r="U69" s="112"/>
       <c r="V69" s="112"/>
@@ -40468,41 +40468,41 @@
       <c r="B70" s="123">
         <v>1</v>
       </c>
-      <c r="C70" s="379" t="s">
+      <c r="C70" s="310" t="s">
         <v>424</v>
       </c>
-      <c r="D70" s="379"/>
-      <c r="E70" s="359" t="s">
+      <c r="D70" s="310"/>
+      <c r="E70" s="311" t="s">
         <v>302</v>
       </c>
-      <c r="F70" s="359"/>
-      <c r="G70" s="379" t="s">
+      <c r="F70" s="311"/>
+      <c r="G70" s="310" t="s">
         <v>421</v>
       </c>
-      <c r="H70" s="379"/>
-      <c r="I70" s="359" t="s">
+      <c r="H70" s="310"/>
+      <c r="I70" s="311" t="s">
         <v>305</v>
       </c>
-      <c r="J70" s="359"/>
+      <c r="J70" s="311"/>
       <c r="K70" s="114">
         <v>20</v>
       </c>
-      <c r="L70" s="385" t="s">
+      <c r="L70" s="318" t="s">
         <v>1094</v>
       </c>
-      <c r="M70" s="385"/>
-      <c r="N70" s="376" t="s">
+      <c r="M70" s="318"/>
+      <c r="N70" s="321" t="s">
         <v>1095</v>
       </c>
-      <c r="O70" s="376"/>
-      <c r="P70" s="379" t="s">
+      <c r="O70" s="321"/>
+      <c r="P70" s="310" t="s">
         <v>137</v>
       </c>
-      <c r="Q70" s="379"/>
-      <c r="R70" s="359" t="s">
+      <c r="Q70" s="310"/>
+      <c r="R70" s="311" t="s">
         <v>7</v>
       </c>
-      <c r="S70" s="378"/>
+      <c r="S70" s="322"/>
       <c r="T70" s="112"/>
       <c r="U70" s="112"/>
       <c r="V70" s="112"/>
@@ -40520,45 +40520,45 @@
     <row r="71" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="112"/>
       <c r="B71" s="194"/>
-      <c r="C71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F71" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I71" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J71" s="360" t="s">
+      <c r="C71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I71" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J71" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K71" s="193"/>
-      <c r="L71" s="375"/>
-      <c r="M71" s="375"/>
-      <c r="N71" s="360"/>
-      <c r="O71" s="360"/>
-      <c r="P71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R71" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S71" s="377" t="s">
+      <c r="L71" s="307"/>
+      <c r="M71" s="307"/>
+      <c r="N71" s="308"/>
+      <c r="O71" s="308"/>
+      <c r="P71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R71" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S71" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T71" s="112"/>
@@ -40578,45 +40578,45 @@
     <row r="72" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="112"/>
       <c r="B72" s="194"/>
-      <c r="C72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F72" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I72" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J72" s="360" t="s">
+      <c r="C72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I72" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J72" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K72" s="193"/>
-      <c r="L72" s="375"/>
-      <c r="M72" s="375"/>
-      <c r="N72" s="360"/>
-      <c r="O72" s="360"/>
-      <c r="P72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R72" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S72" s="377" t="s">
+      <c r="L72" s="307"/>
+      <c r="M72" s="307"/>
+      <c r="N72" s="308"/>
+      <c r="O72" s="308"/>
+      <c r="P72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R72" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S72" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T72" s="112"/>
@@ -40636,45 +40636,45 @@
     <row r="73" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="112"/>
       <c r="B73" s="194"/>
-      <c r="C73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E73" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F73" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I73" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J73" s="360" t="s">
+      <c r="C73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I73" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J73" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K73" s="193"/>
-      <c r="L73" s="375"/>
-      <c r="M73" s="375"/>
-      <c r="N73" s="360"/>
-      <c r="O73" s="360"/>
-      <c r="P73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R73" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S73" s="377" t="s">
+      <c r="L73" s="307"/>
+      <c r="M73" s="307"/>
+      <c r="N73" s="308"/>
+      <c r="O73" s="308"/>
+      <c r="P73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R73" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S73" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T73" s="112"/>
@@ -40694,45 +40694,45 @@
     <row r="74" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="112"/>
       <c r="B74" s="194"/>
-      <c r="C74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E74" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F74" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I74" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J74" s="360" t="s">
+      <c r="C74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I74" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J74" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K74" s="193"/>
-      <c r="L74" s="375"/>
-      <c r="M74" s="375"/>
-      <c r="N74" s="360"/>
-      <c r="O74" s="360"/>
-      <c r="P74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R74" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S74" s="377" t="s">
+      <c r="L74" s="307"/>
+      <c r="M74" s="307"/>
+      <c r="N74" s="308"/>
+      <c r="O74" s="308"/>
+      <c r="P74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R74" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S74" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T74" s="112"/>
@@ -40752,45 +40752,45 @@
     <row r="75" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="112"/>
       <c r="B75" s="194"/>
-      <c r="C75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E75" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F75" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I75" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J75" s="360" t="s">
+      <c r="C75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F75" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I75" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J75" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K75" s="193"/>
-      <c r="L75" s="375"/>
-      <c r="M75" s="375"/>
-      <c r="N75" s="360"/>
-      <c r="O75" s="360"/>
-      <c r="P75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R75" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S75" s="377" t="s">
+      <c r="L75" s="307"/>
+      <c r="M75" s="307"/>
+      <c r="N75" s="308"/>
+      <c r="O75" s="308"/>
+      <c r="P75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R75" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S75" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T75" s="112"/>
@@ -40810,45 +40810,45 @@
     <row r="76" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="112"/>
       <c r="B76" s="194"/>
-      <c r="C76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E76" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F76" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I76" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J76" s="360" t="s">
+      <c r="C76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I76" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J76" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K76" s="193"/>
-      <c r="L76" s="375"/>
-      <c r="M76" s="375"/>
-      <c r="N76" s="360"/>
-      <c r="O76" s="360"/>
-      <c r="P76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R76" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S76" s="377" t="s">
+      <c r="L76" s="307"/>
+      <c r="M76" s="307"/>
+      <c r="N76" s="308"/>
+      <c r="O76" s="308"/>
+      <c r="P76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R76" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S76" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T76" s="112"/>
@@ -40868,45 +40868,45 @@
     <row r="77" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="112"/>
       <c r="B77" s="194"/>
-      <c r="C77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F77" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I77" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J77" s="360" t="s">
+      <c r="C77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I77" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J77" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K77" s="193"/>
-      <c r="L77" s="375"/>
-      <c r="M77" s="375"/>
-      <c r="N77" s="360"/>
-      <c r="O77" s="360"/>
-      <c r="P77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R77" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S77" s="377" t="s">
+      <c r="L77" s="307"/>
+      <c r="M77" s="307"/>
+      <c r="N77" s="308"/>
+      <c r="O77" s="308"/>
+      <c r="P77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R77" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S77" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T77" s="112"/>
@@ -40926,45 +40926,45 @@
     <row r="78" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="112"/>
       <c r="B78" s="194"/>
-      <c r="C78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E78" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I78" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J78" s="360" t="s">
+      <c r="C78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I78" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J78" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K78" s="193"/>
-      <c r="L78" s="375"/>
-      <c r="M78" s="375"/>
-      <c r="N78" s="360"/>
-      <c r="O78" s="360"/>
-      <c r="P78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R78" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S78" s="377" t="s">
+      <c r="L78" s="307"/>
+      <c r="M78" s="307"/>
+      <c r="N78" s="308"/>
+      <c r="O78" s="308"/>
+      <c r="P78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R78" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S78" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T78" s="112"/>
@@ -40984,45 +40984,45 @@
     <row r="79" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="112"/>
       <c r="B79" s="194"/>
-      <c r="C79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E79" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F79" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I79" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J79" s="360" t="s">
+      <c r="C79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I79" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J79" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K79" s="193"/>
-      <c r="L79" s="375"/>
-      <c r="M79" s="375"/>
-      <c r="N79" s="360"/>
-      <c r="O79" s="360"/>
-      <c r="P79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R79" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S79" s="377" t="s">
+      <c r="L79" s="307"/>
+      <c r="M79" s="307"/>
+      <c r="N79" s="308"/>
+      <c r="O79" s="308"/>
+      <c r="P79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R79" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S79" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T79" s="112"/>
@@ -41042,45 +41042,45 @@
     <row r="80" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="112"/>
       <c r="B80" s="194"/>
-      <c r="C80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E80" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F80" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I80" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J80" s="360" t="s">
+      <c r="C80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F80" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I80" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J80" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K80" s="193"/>
-      <c r="L80" s="375"/>
-      <c r="M80" s="375"/>
-      <c r="N80" s="360"/>
-      <c r="O80" s="360"/>
-      <c r="P80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R80" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S80" s="377" t="s">
+      <c r="L80" s="307"/>
+      <c r="M80" s="307"/>
+      <c r="N80" s="308"/>
+      <c r="O80" s="308"/>
+      <c r="P80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R80" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S80" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T80" s="112"/>
@@ -41100,45 +41100,45 @@
     <row r="81" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="112"/>
       <c r="B81" s="194"/>
-      <c r="C81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E81" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F81" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I81" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J81" s="360" t="s">
+      <c r="C81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I81" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J81" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K81" s="193"/>
-      <c r="L81" s="375"/>
-      <c r="M81" s="375"/>
-      <c r="N81" s="360"/>
-      <c r="O81" s="360"/>
-      <c r="P81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R81" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S81" s="377" t="s">
+      <c r="L81" s="307"/>
+      <c r="M81" s="307"/>
+      <c r="N81" s="308"/>
+      <c r="O81" s="308"/>
+      <c r="P81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R81" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S81" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T81" s="112"/>
@@ -41158,45 +41158,45 @@
     <row r="82" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="112"/>
       <c r="B82" s="194"/>
-      <c r="C82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E82" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F82" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I82" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J82" s="360" t="s">
+      <c r="C82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I82" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J82" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K82" s="193"/>
-      <c r="L82" s="375"/>
-      <c r="M82" s="375"/>
-      <c r="N82" s="360"/>
-      <c r="O82" s="360"/>
-      <c r="P82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R82" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S82" s="377" t="s">
+      <c r="L82" s="307"/>
+      <c r="M82" s="307"/>
+      <c r="N82" s="308"/>
+      <c r="O82" s="308"/>
+      <c r="P82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R82" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S82" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T82" s="112"/>
@@ -41216,45 +41216,45 @@
     <row r="83" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="112"/>
       <c r="B83" s="194"/>
-      <c r="C83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F83" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I83" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J83" s="360" t="s">
+      <c r="C83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I83" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J83" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K83" s="193"/>
-      <c r="L83" s="375"/>
-      <c r="M83" s="375"/>
-      <c r="N83" s="360"/>
-      <c r="O83" s="360"/>
-      <c r="P83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R83" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S83" s="377" t="s">
+      <c r="L83" s="307"/>
+      <c r="M83" s="307"/>
+      <c r="N83" s="308"/>
+      <c r="O83" s="308"/>
+      <c r="P83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R83" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S83" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T83" s="112"/>
@@ -41274,45 +41274,45 @@
     <row r="84" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="112"/>
       <c r="B84" s="194"/>
-      <c r="C84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E84" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F84" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I84" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J84" s="360" t="s">
+      <c r="C84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F84" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I84" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J84" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K84" s="193"/>
-      <c r="L84" s="375"/>
-      <c r="M84" s="375"/>
-      <c r="N84" s="360"/>
-      <c r="O84" s="360"/>
-      <c r="P84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R84" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S84" s="377" t="s">
+      <c r="L84" s="307"/>
+      <c r="M84" s="307"/>
+      <c r="N84" s="308"/>
+      <c r="O84" s="308"/>
+      <c r="P84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R84" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S84" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T84" s="112"/>
@@ -41332,45 +41332,45 @@
     <row r="85" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="112"/>
       <c r="B85" s="194"/>
-      <c r="C85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E85" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F85" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I85" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J85" s="360" t="s">
+      <c r="C85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I85" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J85" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K85" s="193"/>
-      <c r="L85" s="375"/>
-      <c r="M85" s="375"/>
-      <c r="N85" s="360"/>
-      <c r="O85" s="360"/>
-      <c r="P85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R85" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S85" s="377" t="s">
+      <c r="L85" s="307"/>
+      <c r="M85" s="307"/>
+      <c r="N85" s="308"/>
+      <c r="O85" s="308"/>
+      <c r="P85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R85" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S85" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T85" s="112"/>
@@ -41390,45 +41390,45 @@
     <row r="86" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="112"/>
       <c r="B86" s="194"/>
-      <c r="C86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E86" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F86" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I86" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J86" s="360" t="s">
+      <c r="C86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F86" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I86" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J86" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K86" s="193"/>
-      <c r="L86" s="375"/>
-      <c r="M86" s="375"/>
-      <c r="N86" s="360"/>
-      <c r="O86" s="360"/>
-      <c r="P86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R86" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S86" s="377" t="s">
+      <c r="L86" s="307"/>
+      <c r="M86" s="307"/>
+      <c r="N86" s="308"/>
+      <c r="O86" s="308"/>
+      <c r="P86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R86" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S86" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T86" s="112"/>
@@ -41448,45 +41448,45 @@
     <row r="87" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="112"/>
       <c r="B87" s="195"/>
-      <c r="C87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="E87" s="380" t="s">
-        <v>91</v>
-      </c>
-      <c r="F87" s="380" t="s">
-        <v>91</v>
-      </c>
-      <c r="G87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="H87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="I87" s="380" t="s">
-        <v>91</v>
-      </c>
-      <c r="J87" s="380" t="s">
+      <c r="C87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="319" t="s">
+        <v>91</v>
+      </c>
+      <c r="F87" s="319" t="s">
+        <v>91</v>
+      </c>
+      <c r="G87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="H87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="I87" s="319" t="s">
+        <v>91</v>
+      </c>
+      <c r="J87" s="319" t="s">
         <v>91</v>
       </c>
       <c r="K87" s="196"/>
-      <c r="L87" s="382"/>
-      <c r="M87" s="382"/>
-      <c r="N87" s="380"/>
-      <c r="O87" s="380"/>
-      <c r="P87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="R87" s="380" t="s">
-        <v>91</v>
-      </c>
-      <c r="S87" s="381" t="s">
+      <c r="L87" s="306"/>
+      <c r="M87" s="306"/>
+      <c r="N87" s="319"/>
+      <c r="O87" s="319"/>
+      <c r="P87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="R87" s="319" t="s">
+        <v>91</v>
+      </c>
+      <c r="S87" s="320" t="s">
         <v>91</v>
       </c>
       <c r="T87" s="112"/>
@@ -41609,6 +41609,177 @@
     </row>
   </sheetData>
   <mergeCells count="195">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B40:O40"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I79:J79"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="C82:D82"/>
@@ -41633,177 +41804,6 @@
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="G86:H86"/>
     <mergeCell ref="I86:J86"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B40:O40"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="O42:O44"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B35:H35"/>
   </mergeCells>
   <conditionalFormatting sqref="C44 E44:H44">
     <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
@@ -41895,12 +41895,12 @@
     <row r="1" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="217"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -41941,12 +41941,12 @@
     <row r="3" spans="1:41" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:41" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="223" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="221"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="225"/>
       <c r="F4" s="112"/>
       <c r="G4" s="112"/>
       <c r="H4" s="112"/>
@@ -41986,12 +41986,12 @@
     </row>
     <row r="5" spans="1:41" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="309" t="s">
+      <c r="B5" s="343" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="310"/>
-      <c r="D5" s="310"/>
-      <c r="E5" s="311"/>
+      <c r="C5" s="344"/>
+      <c r="D5" s="344"/>
+      <c r="E5" s="345"/>
       <c r="F5" s="112"/>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
@@ -42385,12 +42385,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
+    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42665,29 +42676,23 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
-    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
+    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
+    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -42714,14 +42719,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
-    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
-    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_tests/mock_pf_returns/PF_Round_1_Cross_Table_Validation_Failures.xlsx
+++ b/tests/integration_tests/mock_pf_returns/PF_Round_1_Cross_Table_Validation_Failures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mhclg-my.sharepoint.com/personal/william_may_communities_gov_uk/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{D950AD9E-B26D-45B5-B579-8634D14D4A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAB0C725-CC35-4A26-A3BE-830836C48D92}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{D950AD9E-B26D-45B5-B579-8634D14D4A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5D0EC41-E0DE-4AB7-9DDD-809C448FE024}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="661" firstSheet="1" activeTab="9" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="661" firstSheet="1" activeTab="10" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="13" r:id="rId1"/>
@@ -23,11 +23,11 @@
     <sheet name="Finances" sheetId="6" r:id="rId8"/>
     <sheet name="Risks" sheetId="7" r:id="rId9"/>
     <sheet name="Sign off" sheetId="8" r:id="rId10"/>
-    <sheet name="Dropdown Values" sheetId="19" state="hidden" r:id="rId11"/>
-    <sheet name="Project Details" sheetId="10" state="hidden" r:id="rId12"/>
-    <sheet name="ITValues" sheetId="20" state="hidden" r:id="rId13"/>
-    <sheet name="Bespoke Outputs" sheetId="14" state="hidden" r:id="rId14"/>
-    <sheet name="Bespoke Outcomes" sheetId="15" state="hidden" r:id="rId15"/>
+    <sheet name="Dropdown Values" sheetId="19" r:id="rId11"/>
+    <sheet name="Project Details" sheetId="10" r:id="rId12"/>
+    <sheet name="ITValues" sheetId="20" r:id="rId13"/>
+    <sheet name="Bespoke Outputs" sheetId="14" r:id="rId14"/>
+    <sheet name="Bespoke Outcomes" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Project Details'!$A$2:$E$997</definedName>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="1123">
   <si>
     <t>Reporting Round</t>
   </si>
@@ -1334,9 +1334,6 @@
   </si>
   <si>
     <t xml:space="preserve">Amount of land made wheelchair accessible/step free </t>
-  </si>
-  <si>
-    <t>Enhancing sub-regional and regional connectivity</t>
   </si>
   <si>
     <t>Amount of new educational space created</t>
@@ -7666,8 +7663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4900FD31-0FF6-42C6-B0C3-8DC7EA5A0CD1}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7724,7 +7721,7 @@
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="39" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7744,7 +7741,7 @@
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="29" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7934,8 +7931,8 @@
   </sheetPr>
   <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8226,12 +8223,12 @@
         <v>299</v>
       </c>
       <c r="C48" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B49" t="s">
         <v>299</v>
@@ -8242,7 +8239,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B50" t="s">
         <v>299</v>
@@ -8253,7 +8250,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B51" t="s">
         <v>299</v>
@@ -8264,7 +8261,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B52" t="s">
         <v>299</v>
@@ -8275,7 +8272,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B53" t="s">
         <v>299</v>
@@ -8286,7 +8283,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s">
         <v>299</v>
@@ -8297,7 +8294,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B55" t="s">
         <v>139</v>
@@ -8308,7 +8305,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B56" t="s">
         <v>139</v>
@@ -8319,7 +8316,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B57" t="s">
         <v>139</v>
@@ -8331,7 +8328,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s">
         <v>139</v>
@@ -8342,18 +8339,18 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B59" t="s">
         <v>139</v>
       </c>
       <c r="C59" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B60" t="s">
         <v>139</v>
@@ -8364,7 +8361,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B61" t="s">
         <v>139</v>
@@ -8375,7 +8372,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B62" t="s">
         <v>139</v>
@@ -8386,7 +8383,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B63" t="s">
         <v>139</v>
@@ -8397,7 +8394,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B64" t="s">
         <v>139</v>
@@ -8408,7 +8405,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B65" t="s">
         <v>139</v>
@@ -8419,7 +8416,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B66" t="s">
         <v>139</v>
@@ -8430,7 +8427,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B67" t="s">
         <v>139</v>
@@ -8442,7 +8439,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B68" t="s">
         <v>139</v>
@@ -8453,7 +8450,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B69" t="s">
         <v>139</v>
@@ -8464,7 +8461,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B70" t="s">
         <v>139</v>
@@ -8475,7 +8472,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B71" t="s">
         <v>139</v>
@@ -8486,83 +8483,83 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>330</v>
+      </c>
+      <c r="B72" t="s">
         <v>331</v>
       </c>
-      <c r="B72" t="s">
-        <v>332</v>
-      </c>
       <c r="C72" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B73" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C73" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B74" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C74" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B75" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C75" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B76" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C76" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B77" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C77" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C78" s="60" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>297</v>
@@ -8587,7 +8584,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B82" t="s">
         <v>139</v>
@@ -8598,10 +8595,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>341</v>
+      </c>
+      <c r="B83" t="s">
         <v>342</v>
-      </c>
-      <c r="B83" t="s">
-        <v>343</v>
       </c>
       <c r="C83" s="125" t="s">
         <v>302</v>
@@ -8609,40 +8606,40 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B84" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C84" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B85" t="s">
         <v>139</v>
       </c>
       <c r="C85" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B86" t="s">
         <v>139</v>
       </c>
       <c r="C86" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B87" t="s">
         <v>139</v>
@@ -8653,7 +8650,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B88" t="s">
         <v>139</v>
@@ -8664,7 +8661,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B89" t="s">
         <v>139</v>
@@ -8675,7 +8672,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B90" t="s">
         <v>139</v>
@@ -8686,7 +8683,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B91" t="s">
         <v>139</v>
@@ -8697,7 +8694,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B92" t="s">
         <v>139</v>
@@ -8708,7 +8705,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B93" t="s">
         <v>139</v>
@@ -8719,7 +8716,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B94" t="s">
         <v>139</v>
@@ -8730,7 +8727,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B95" t="s">
         <v>139</v>
@@ -8741,7 +8738,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B96" t="s">
         <v>139</v>
@@ -8752,21 +8749,21 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B97" t="s">
         <v>139</v>
       </c>
       <c r="C97" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B98" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C98" s="125" t="s">
         <v>305</v>
@@ -8774,10 +8771,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B99" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C99" s="125" t="s">
         <v>300</v>
@@ -8785,10 +8782,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B100" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C100" s="125" t="s">
         <v>302</v>
@@ -8796,21 +8793,21 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B101" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C101" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>358</v>
+      </c>
+      <c r="B102" t="s">
         <v>359</v>
-      </c>
-      <c r="B102" t="s">
-        <v>360</v>
       </c>
       <c r="C102" s="125" t="s">
         <v>300</v>
@@ -8818,10 +8815,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B103" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C103" s="125" t="s">
         <v>300</v>
@@ -8829,23 +8826,23 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B104" t="s">
         <v>139</v>
       </c>
       <c r="C104" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C105" s="60" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="60" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -8861,7 +8858,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
@@ -8876,22 +8873,22 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="60" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
@@ -8912,7 +8909,7 @@
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
@@ -8932,17 +8929,17 @@
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="60" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
@@ -8953,22 +8950,22 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="60" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="60" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
@@ -8989,12 +8986,12 @@
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="60" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
@@ -9020,22 +9017,22 @@
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
@@ -9046,132 +9043,132 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" s="23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" s="60" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" s="60" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
@@ -9182,32 +9179,32 @@
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" s="60" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -9243,24 +9240,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B2" t="s">
         <v>414</v>
-      </c>
-      <c r="B2" t="s">
-        <v>415</v>
       </c>
       <c r="C2" t="s">
         <v>87</v>
       </c>
       <c r="D2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E2" t="s">
         <v>416</v>
-      </c>
-      <c r="E2" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -9268,16 +9265,16 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C3" t="s">
         <v>418</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>419</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>420</v>
-      </c>
-      <c r="E3" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -9285,16 +9282,16 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4" t="s">
         <v>422</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E4" t="s">
         <v>423</v>
-      </c>
-      <c r="D4" t="s">
-        <v>420</v>
-      </c>
-      <c r="E4" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -9302,16 +9299,16 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C5" t="s">
         <v>425</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E5" t="s">
         <v>426</v>
-      </c>
-      <c r="D5" t="s">
-        <v>420</v>
-      </c>
-      <c r="E5" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -9319,16 +9316,16 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C6" t="s">
         <v>428</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>419</v>
+      </c>
+      <c r="E6" t="s">
         <v>429</v>
-      </c>
-      <c r="D6" t="s">
-        <v>420</v>
-      </c>
-      <c r="E6" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -9336,16 +9333,16 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C7" t="s">
         <v>431</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E7" t="s">
         <v>432</v>
-      </c>
-      <c r="D7" t="s">
-        <v>420</v>
-      </c>
-      <c r="E7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -9353,16 +9350,16 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C8" t="s">
         <v>434</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>419</v>
+      </c>
+      <c r="E8" t="s">
         <v>435</v>
-      </c>
-      <c r="D8" t="s">
-        <v>420</v>
-      </c>
-      <c r="E8" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -9370,16 +9367,16 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C9" t="s">
         <v>437</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>419</v>
+      </c>
+      <c r="E9" t="s">
         <v>438</v>
-      </c>
-      <c r="D9" t="s">
-        <v>420</v>
-      </c>
-      <c r="E9" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -9387,16 +9384,16 @@
         <v>45</v>
       </c>
       <c r="B10" t="s">
+        <v>439</v>
+      </c>
+      <c r="C10" t="s">
         <v>440</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>419</v>
+      </c>
+      <c r="E10" t="s">
         <v>441</v>
-      </c>
-      <c r="D10" t="s">
-        <v>420</v>
-      </c>
-      <c r="E10" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -9404,16 +9401,16 @@
         <v>45</v>
       </c>
       <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
         <v>443</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>419</v>
+      </c>
+      <c r="E11" t="s">
         <v>444</v>
-      </c>
-      <c r="D11" t="s">
-        <v>420</v>
-      </c>
-      <c r="E11" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -9421,16 +9418,16 @@
         <v>277</v>
       </c>
       <c r="B12" t="s">
+        <v>445</v>
+      </c>
+      <c r="C12" t="s">
         <v>446</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>419</v>
+      </c>
+      <c r="E12" t="s">
         <v>447</v>
-      </c>
-      <c r="D12" t="s">
-        <v>420</v>
-      </c>
-      <c r="E12" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -9438,16 +9435,16 @@
         <v>277</v>
       </c>
       <c r="B13" t="s">
+        <v>448</v>
+      </c>
+      <c r="C13" t="s">
         <v>449</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>419</v>
+      </c>
+      <c r="E13" t="s">
         <v>450</v>
-      </c>
-      <c r="D13" t="s">
-        <v>420</v>
-      </c>
-      <c r="E13" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -9455,16 +9452,16 @@
         <v>277</v>
       </c>
       <c r="B14" t="s">
+        <v>451</v>
+      </c>
+      <c r="C14" t="s">
         <v>452</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E14" t="s">
         <v>453</v>
-      </c>
-      <c r="D14" t="s">
-        <v>420</v>
-      </c>
-      <c r="E14" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -9472,16 +9469,16 @@
         <v>277</v>
       </c>
       <c r="B15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C15" t="s">
         <v>455</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>419</v>
+      </c>
+      <c r="E15" t="s">
         <v>456</v>
-      </c>
-      <c r="D15" t="s">
-        <v>420</v>
-      </c>
-      <c r="E15" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -9489,16 +9486,16 @@
         <v>277</v>
       </c>
       <c r="B16" t="s">
+        <v>457</v>
+      </c>
+      <c r="C16" t="s">
         <v>458</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>419</v>
+      </c>
+      <c r="E16" t="s">
         <v>459</v>
-      </c>
-      <c r="D16" t="s">
-        <v>420</v>
-      </c>
-      <c r="E16" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -9506,16 +9503,16 @@
         <v>277</v>
       </c>
       <c r="B17" t="s">
+        <v>460</v>
+      </c>
+      <c r="C17" t="s">
         <v>461</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>419</v>
+      </c>
+      <c r="E17" t="s">
         <v>462</v>
-      </c>
-      <c r="D17" t="s">
-        <v>420</v>
-      </c>
-      <c r="E17" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -9523,16 +9520,16 @@
         <v>277</v>
       </c>
       <c r="B18" t="s">
+        <v>463</v>
+      </c>
+      <c r="C18" t="s">
         <v>464</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>419</v>
+      </c>
+      <c r="E18" t="s">
         <v>465</v>
-      </c>
-      <c r="D18" t="s">
-        <v>420</v>
-      </c>
-      <c r="E18" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -9540,16 +9537,16 @@
         <v>277</v>
       </c>
       <c r="B19" t="s">
+        <v>466</v>
+      </c>
+      <c r="C19" t="s">
         <v>467</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>419</v>
+      </c>
+      <c r="E19" t="s">
         <v>468</v>
-      </c>
-      <c r="D19" t="s">
-        <v>420</v>
-      </c>
-      <c r="E19" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -9557,16 +9554,16 @@
         <v>277</v>
       </c>
       <c r="B20" t="s">
+        <v>469</v>
+      </c>
+      <c r="C20" t="s">
         <v>470</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>419</v>
+      </c>
+      <c r="E20" t="s">
         <v>471</v>
-      </c>
-      <c r="D20" t="s">
-        <v>420</v>
-      </c>
-      <c r="E20" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -9574,16 +9571,16 @@
         <v>277</v>
       </c>
       <c r="B21" t="s">
+        <v>472</v>
+      </c>
+      <c r="C21" t="s">
         <v>473</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>419</v>
+      </c>
+      <c r="E21" t="s">
         <v>474</v>
-      </c>
-      <c r="D21" t="s">
-        <v>420</v>
-      </c>
-      <c r="E21" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -9591,16 +9588,16 @@
         <v>277</v>
       </c>
       <c r="B22" t="s">
+        <v>475</v>
+      </c>
+      <c r="C22" t="s">
         <v>476</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>419</v>
+      </c>
+      <c r="E22" t="s">
         <v>477</v>
-      </c>
-      <c r="D22" t="s">
-        <v>420</v>
-      </c>
-      <c r="E22" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -9608,16 +9605,16 @@
         <v>277</v>
       </c>
       <c r="B23" t="s">
+        <v>478</v>
+      </c>
+      <c r="C23" t="s">
         <v>479</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>419</v>
+      </c>
+      <c r="E23" t="s">
         <v>480</v>
-      </c>
-      <c r="D23" t="s">
-        <v>420</v>
-      </c>
-      <c r="E23" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -9625,16 +9622,16 @@
         <v>277</v>
       </c>
       <c r="B24" t="s">
+        <v>481</v>
+      </c>
+      <c r="C24" t="s">
         <v>482</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>419</v>
+      </c>
+      <c r="E24" t="s">
         <v>483</v>
-      </c>
-      <c r="D24" t="s">
-        <v>420</v>
-      </c>
-      <c r="E24" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -9642,16 +9639,16 @@
         <v>277</v>
       </c>
       <c r="B25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C25" t="s">
         <v>485</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>419</v>
+      </c>
+      <c r="E25" t="s">
         <v>486</v>
-      </c>
-      <c r="D25" t="s">
-        <v>420</v>
-      </c>
-      <c r="E25" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -9659,16 +9656,16 @@
         <v>277</v>
       </c>
       <c r="B26" t="s">
+        <v>487</v>
+      </c>
+      <c r="C26" t="s">
         <v>488</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>419</v>
+      </c>
+      <c r="E26" t="s">
         <v>489</v>
-      </c>
-      <c r="D26" t="s">
-        <v>420</v>
-      </c>
-      <c r="E26" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -9676,16 +9673,16 @@
         <v>277</v>
       </c>
       <c r="B27" t="s">
+        <v>490</v>
+      </c>
+      <c r="C27" t="s">
         <v>491</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>419</v>
+      </c>
+      <c r="E27" t="s">
         <v>492</v>
-      </c>
-      <c r="D27" t="s">
-        <v>420</v>
-      </c>
-      <c r="E27" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -9693,16 +9690,16 @@
         <v>277</v>
       </c>
       <c r="B28" t="s">
+        <v>493</v>
+      </c>
+      <c r="C28" t="s">
         <v>494</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>419</v>
+      </c>
+      <c r="E28" t="s">
         <v>495</v>
-      </c>
-      <c r="D28" t="s">
-        <v>420</v>
-      </c>
-      <c r="E28" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -9710,16 +9707,16 @@
         <v>277</v>
       </c>
       <c r="B29" t="s">
+        <v>496</v>
+      </c>
+      <c r="C29" t="s">
         <v>497</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>419</v>
+      </c>
+      <c r="E29" t="s">
         <v>498</v>
-      </c>
-      <c r="D29" t="s">
-        <v>420</v>
-      </c>
-      <c r="E29" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -9727,16 +9724,16 @@
         <v>277</v>
       </c>
       <c r="B30" t="s">
+        <v>499</v>
+      </c>
+      <c r="C30" t="s">
         <v>500</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>419</v>
+      </c>
+      <c r="E30" t="s">
         <v>501</v>
-      </c>
-      <c r="D30" t="s">
-        <v>420</v>
-      </c>
-      <c r="E30" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -9744,16 +9741,16 @@
         <v>277</v>
       </c>
       <c r="B31" t="s">
+        <v>502</v>
+      </c>
+      <c r="C31" t="s">
         <v>503</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>419</v>
+      </c>
+      <c r="E31" t="s">
         <v>504</v>
-      </c>
-      <c r="D31" t="s">
-        <v>420</v>
-      </c>
-      <c r="E31" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -9761,16 +9758,16 @@
         <v>277</v>
       </c>
       <c r="B32" t="s">
+        <v>505</v>
+      </c>
+      <c r="C32" t="s">
         <v>506</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>419</v>
+      </c>
+      <c r="E32" t="s">
         <v>507</v>
-      </c>
-      <c r="D32" t="s">
-        <v>420</v>
-      </c>
-      <c r="E32" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -9778,16 +9775,16 @@
         <v>277</v>
       </c>
       <c r="B33" t="s">
+        <v>508</v>
+      </c>
+      <c r="C33" t="s">
         <v>509</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>419</v>
+      </c>
+      <c r="E33" t="s">
         <v>510</v>
-      </c>
-      <c r="D33" t="s">
-        <v>420</v>
-      </c>
-      <c r="E33" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -9795,16 +9792,16 @@
         <v>277</v>
       </c>
       <c r="B34" t="s">
+        <v>511</v>
+      </c>
+      <c r="C34" t="s">
         <v>512</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>419</v>
+      </c>
+      <c r="E34" t="s">
         <v>513</v>
-      </c>
-      <c r="D34" t="s">
-        <v>420</v>
-      </c>
-      <c r="E34" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -9812,16 +9809,16 @@
         <v>277</v>
       </c>
       <c r="B35" t="s">
+        <v>514</v>
+      </c>
+      <c r="C35" t="s">
         <v>515</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>419</v>
+      </c>
+      <c r="E35" t="s">
         <v>516</v>
-      </c>
-      <c r="D35" t="s">
-        <v>420</v>
-      </c>
-      <c r="E35" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -9829,16 +9826,16 @@
         <v>277</v>
       </c>
       <c r="B36" t="s">
+        <v>517</v>
+      </c>
+      <c r="C36" t="s">
         <v>518</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>419</v>
+      </c>
+      <c r="E36" t="s">
         <v>519</v>
-      </c>
-      <c r="D36" t="s">
-        <v>420</v>
-      </c>
-      <c r="E36" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -9846,16 +9843,16 @@
         <v>277</v>
       </c>
       <c r="B37" t="s">
+        <v>520</v>
+      </c>
+      <c r="C37" t="s">
         <v>521</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>419</v>
+      </c>
+      <c r="E37" t="s">
         <v>522</v>
-      </c>
-      <c r="D37" t="s">
-        <v>420</v>
-      </c>
-      <c r="E37" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -9863,16 +9860,16 @@
         <v>277</v>
       </c>
       <c r="B38" t="s">
+        <v>523</v>
+      </c>
+      <c r="C38" t="s">
         <v>524</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>419</v>
+      </c>
+      <c r="E38" t="s">
         <v>525</v>
-      </c>
-      <c r="D38" t="s">
-        <v>420</v>
-      </c>
-      <c r="E38" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -9880,16 +9877,16 @@
         <v>277</v>
       </c>
       <c r="B39" t="s">
+        <v>526</v>
+      </c>
+      <c r="C39" t="s">
         <v>527</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>419</v>
+      </c>
+      <c r="E39" t="s">
         <v>528</v>
-      </c>
-      <c r="D39" t="s">
-        <v>420</v>
-      </c>
-      <c r="E39" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -9897,16 +9894,16 @@
         <v>277</v>
       </c>
       <c r="B40" t="s">
+        <v>529</v>
+      </c>
+      <c r="C40" t="s">
         <v>530</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>419</v>
+      </c>
+      <c r="E40" t="s">
         <v>531</v>
-      </c>
-      <c r="D40" t="s">
-        <v>420</v>
-      </c>
-      <c r="E40" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -9914,16 +9911,16 @@
         <v>278</v>
       </c>
       <c r="B41" t="s">
+        <v>532</v>
+      </c>
+      <c r="C41" t="s">
         <v>533</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>419</v>
+      </c>
+      <c r="E41" t="s">
         <v>534</v>
-      </c>
-      <c r="D41" t="s">
-        <v>420</v>
-      </c>
-      <c r="E41" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -9931,16 +9928,16 @@
         <v>278</v>
       </c>
       <c r="B42" t="s">
+        <v>535</v>
+      </c>
+      <c r="C42" t="s">
         <v>536</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>419</v>
+      </c>
+      <c r="E42" t="s">
         <v>537</v>
-      </c>
-      <c r="D42" t="s">
-        <v>420</v>
-      </c>
-      <c r="E42" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -9948,16 +9945,16 @@
         <v>278</v>
       </c>
       <c r="B43" t="s">
+        <v>538</v>
+      </c>
+      <c r="C43" t="s">
         <v>539</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>419</v>
+      </c>
+      <c r="E43" t="s">
         <v>540</v>
-      </c>
-      <c r="D43" t="s">
-        <v>420</v>
-      </c>
-      <c r="E43" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -9965,16 +9962,16 @@
         <v>278</v>
       </c>
       <c r="B44" t="s">
+        <v>541</v>
+      </c>
+      <c r="C44" t="s">
         <v>542</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>419</v>
+      </c>
+      <c r="E44" t="s">
         <v>543</v>
-      </c>
-      <c r="D44" t="s">
-        <v>420</v>
-      </c>
-      <c r="E44" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -9982,16 +9979,16 @@
         <v>278</v>
       </c>
       <c r="B45" t="s">
+        <v>544</v>
+      </c>
+      <c r="C45" t="s">
         <v>545</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>419</v>
+      </c>
+      <c r="E45" t="s">
         <v>546</v>
-      </c>
-      <c r="D45" t="s">
-        <v>420</v>
-      </c>
-      <c r="E45" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -9999,16 +9996,16 @@
         <v>278</v>
       </c>
       <c r="B46" t="s">
+        <v>547</v>
+      </c>
+      <c r="C46" t="s">
         <v>548</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>419</v>
+      </c>
+      <c r="E46" t="s">
         <v>549</v>
-      </c>
-      <c r="D46" t="s">
-        <v>420</v>
-      </c>
-      <c r="E46" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -10016,16 +10013,16 @@
         <v>278</v>
       </c>
       <c r="B47" t="s">
+        <v>550</v>
+      </c>
+      <c r="C47" t="s">
         <v>551</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>419</v>
+      </c>
+      <c r="E47" t="s">
         <v>552</v>
-      </c>
-      <c r="D47" t="s">
-        <v>420</v>
-      </c>
-      <c r="E47" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -10033,16 +10030,16 @@
         <v>278</v>
       </c>
       <c r="B48" t="s">
+        <v>553</v>
+      </c>
+      <c r="C48" t="s">
         <v>554</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>419</v>
+      </c>
+      <c r="E48" t="s">
         <v>555</v>
-      </c>
-      <c r="D48" t="s">
-        <v>420</v>
-      </c>
-      <c r="E48" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -10050,16 +10047,16 @@
         <v>278</v>
       </c>
       <c r="B49" t="s">
+        <v>556</v>
+      </c>
+      <c r="C49" t="s">
         <v>557</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>419</v>
+      </c>
+      <c r="E49" t="s">
         <v>558</v>
-      </c>
-      <c r="D49" t="s">
-        <v>420</v>
-      </c>
-      <c r="E49" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -10067,16 +10064,16 @@
         <v>278</v>
       </c>
       <c r="B50" t="s">
+        <v>559</v>
+      </c>
+      <c r="C50" t="s">
         <v>560</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>419</v>
+      </c>
+      <c r="E50" t="s">
         <v>561</v>
-      </c>
-      <c r="D50" t="s">
-        <v>420</v>
-      </c>
-      <c r="E50" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -10084,16 +10081,16 @@
         <v>278</v>
       </c>
       <c r="B51" t="s">
+        <v>562</v>
+      </c>
+      <c r="C51" t="s">
         <v>563</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>419</v>
+      </c>
+      <c r="E51" t="s">
         <v>564</v>
-      </c>
-      <c r="D51" t="s">
-        <v>420</v>
-      </c>
-      <c r="E51" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -10101,16 +10098,16 @@
         <v>278</v>
       </c>
       <c r="B52" t="s">
+        <v>565</v>
+      </c>
+      <c r="C52" t="s">
         <v>566</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>419</v>
+      </c>
+      <c r="E52" t="s">
         <v>567</v>
-      </c>
-      <c r="D52" t="s">
-        <v>420</v>
-      </c>
-      <c r="E52" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -10118,16 +10115,16 @@
         <v>279</v>
       </c>
       <c r="B53" t="s">
+        <v>568</v>
+      </c>
+      <c r="C53" t="s">
         <v>569</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>419</v>
+      </c>
+      <c r="E53" t="s">
         <v>570</v>
-      </c>
-      <c r="D53" t="s">
-        <v>420</v>
-      </c>
-      <c r="E53" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -10135,16 +10132,16 @@
         <v>279</v>
       </c>
       <c r="B54" t="s">
+        <v>571</v>
+      </c>
+      <c r="C54" t="s">
         <v>572</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>419</v>
+      </c>
+      <c r="E54" t="s">
         <v>573</v>
-      </c>
-      <c r="D54" t="s">
-        <v>420</v>
-      </c>
-      <c r="E54" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -10152,16 +10149,16 @@
         <v>279</v>
       </c>
       <c r="B55" t="s">
+        <v>574</v>
+      </c>
+      <c r="C55" t="s">
         <v>575</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>419</v>
+      </c>
+      <c r="E55" t="s">
         <v>576</v>
-      </c>
-      <c r="D55" t="s">
-        <v>420</v>
-      </c>
-      <c r="E55" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -10169,16 +10166,16 @@
         <v>279</v>
       </c>
       <c r="B56" t="s">
+        <v>577</v>
+      </c>
+      <c r="C56" t="s">
         <v>578</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>419</v>
+      </c>
+      <c r="E56" t="s">
         <v>579</v>
-      </c>
-      <c r="D56" t="s">
-        <v>420</v>
-      </c>
-      <c r="E56" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -10186,16 +10183,16 @@
         <v>279</v>
       </c>
       <c r="B57" t="s">
+        <v>580</v>
+      </c>
+      <c r="C57" t="s">
         <v>581</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>419</v>
+      </c>
+      <c r="E57" t="s">
         <v>582</v>
-      </c>
-      <c r="D57" t="s">
-        <v>420</v>
-      </c>
-      <c r="E57" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -10203,16 +10200,16 @@
         <v>279</v>
       </c>
       <c r="B58" t="s">
+        <v>583</v>
+      </c>
+      <c r="C58" t="s">
         <v>584</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>419</v>
+      </c>
+      <c r="E58" t="s">
         <v>585</v>
-      </c>
-      <c r="D58" t="s">
-        <v>420</v>
-      </c>
-      <c r="E58" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -10220,16 +10217,16 @@
         <v>279</v>
       </c>
       <c r="B59" t="s">
+        <v>586</v>
+      </c>
+      <c r="C59" t="s">
         <v>587</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
+        <v>419</v>
+      </c>
+      <c r="E59" t="s">
         <v>588</v>
-      </c>
-      <c r="D59" t="s">
-        <v>420</v>
-      </c>
-      <c r="E59" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -10237,16 +10234,16 @@
         <v>279</v>
       </c>
       <c r="B60" t="s">
+        <v>589</v>
+      </c>
+      <c r="C60" t="s">
         <v>590</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>419</v>
+      </c>
+      <c r="E60" t="s">
         <v>591</v>
-      </c>
-      <c r="D60" t="s">
-        <v>420</v>
-      </c>
-      <c r="E60" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -10254,16 +10251,16 @@
         <v>279</v>
       </c>
       <c r="B61" t="s">
+        <v>592</v>
+      </c>
+      <c r="C61" t="s">
         <v>593</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>419</v>
+      </c>
+      <c r="E61" t="s">
         <v>594</v>
-      </c>
-      <c r="D61" t="s">
-        <v>420</v>
-      </c>
-      <c r="E61" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -10271,16 +10268,16 @@
         <v>279</v>
       </c>
       <c r="B62" t="s">
+        <v>595</v>
+      </c>
+      <c r="C62" t="s">
         <v>596</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>419</v>
+      </c>
+      <c r="E62" t="s">
         <v>597</v>
-      </c>
-      <c r="D62" t="s">
-        <v>420</v>
-      </c>
-      <c r="E62" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -10288,16 +10285,16 @@
         <v>279</v>
       </c>
       <c r="B63" t="s">
+        <v>598</v>
+      </c>
+      <c r="C63" t="s">
         <v>599</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
+        <v>419</v>
+      </c>
+      <c r="E63" t="s">
         <v>600</v>
-      </c>
-      <c r="D63" t="s">
-        <v>420</v>
-      </c>
-      <c r="E63" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -10305,16 +10302,16 @@
         <v>279</v>
       </c>
       <c r="B64" t="s">
+        <v>601</v>
+      </c>
+      <c r="C64" t="s">
         <v>602</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
+        <v>419</v>
+      </c>
+      <c r="E64" t="s">
         <v>603</v>
-      </c>
-      <c r="D64" t="s">
-        <v>420</v>
-      </c>
-      <c r="E64" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -10322,16 +10319,16 @@
         <v>279</v>
       </c>
       <c r="B65" t="s">
+        <v>604</v>
+      </c>
+      <c r="C65" t="s">
         <v>605</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>419</v>
+      </c>
+      <c r="E65" t="s">
         <v>606</v>
-      </c>
-      <c r="D65" t="s">
-        <v>420</v>
-      </c>
-      <c r="E65" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -10339,16 +10336,16 @@
         <v>280</v>
       </c>
       <c r="B66" t="s">
+        <v>607</v>
+      </c>
+      <c r="C66" t="s">
         <v>608</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>419</v>
+      </c>
+      <c r="E66" t="s">
         <v>609</v>
-      </c>
-      <c r="D66" t="s">
-        <v>420</v>
-      </c>
-      <c r="E66" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -10356,16 +10353,16 @@
         <v>280</v>
       </c>
       <c r="B67" t="s">
+        <v>610</v>
+      </c>
+      <c r="C67" t="s">
         <v>611</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>419</v>
+      </c>
+      <c r="E67" t="s">
         <v>612</v>
-      </c>
-      <c r="D67" t="s">
-        <v>420</v>
-      </c>
-      <c r="E67" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -10373,16 +10370,16 @@
         <v>280</v>
       </c>
       <c r="B68" t="s">
+        <v>613</v>
+      </c>
+      <c r="C68" t="s">
         <v>614</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>419</v>
+      </c>
+      <c r="E68" t="s">
         <v>615</v>
-      </c>
-      <c r="D68" t="s">
-        <v>420</v>
-      </c>
-      <c r="E68" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -10390,16 +10387,16 @@
         <v>280</v>
       </c>
       <c r="B69" t="s">
+        <v>616</v>
+      </c>
+      <c r="C69" t="s">
         <v>617</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
+        <v>419</v>
+      </c>
+      <c r="E69" t="s">
         <v>618</v>
-      </c>
-      <c r="D69" t="s">
-        <v>420</v>
-      </c>
-      <c r="E69" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -10407,16 +10404,16 @@
         <v>280</v>
       </c>
       <c r="B70" t="s">
+        <v>619</v>
+      </c>
+      <c r="C70" t="s">
         <v>620</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
+        <v>419</v>
+      </c>
+      <c r="E70" t="s">
         <v>621</v>
-      </c>
-      <c r="D70" t="s">
-        <v>420</v>
-      </c>
-      <c r="E70" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -10424,16 +10421,16 @@
         <v>280</v>
       </c>
       <c r="B71" t="s">
+        <v>622</v>
+      </c>
+      <c r="C71" t="s">
         <v>623</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>419</v>
+      </c>
+      <c r="E71" t="s">
         <v>624</v>
-      </c>
-      <c r="D71" t="s">
-        <v>420</v>
-      </c>
-      <c r="E71" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -10441,16 +10438,16 @@
         <v>280</v>
       </c>
       <c r="B72" t="s">
+        <v>625</v>
+      </c>
+      <c r="C72" t="s">
         <v>626</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
+        <v>419</v>
+      </c>
+      <c r="E72" t="s">
         <v>627</v>
-      </c>
-      <c r="D72" t="s">
-        <v>420</v>
-      </c>
-      <c r="E72" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -10458,16 +10455,16 @@
         <v>280</v>
       </c>
       <c r="B73" t="s">
+        <v>628</v>
+      </c>
+      <c r="C73" t="s">
         <v>629</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>419</v>
+      </c>
+      <c r="E73" t="s">
         <v>630</v>
-      </c>
-      <c r="D73" t="s">
-        <v>420</v>
-      </c>
-      <c r="E73" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -10475,16 +10472,16 @@
         <v>280</v>
       </c>
       <c r="B74" t="s">
+        <v>631</v>
+      </c>
+      <c r="C74" t="s">
         <v>632</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
+        <v>419</v>
+      </c>
+      <c r="E74" t="s">
         <v>633</v>
-      </c>
-      <c r="D74" t="s">
-        <v>420</v>
-      </c>
-      <c r="E74" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -10492,16 +10489,16 @@
         <v>280</v>
       </c>
       <c r="B75" t="s">
+        <v>634</v>
+      </c>
+      <c r="C75" t="s">
         <v>635</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
+        <v>419</v>
+      </c>
+      <c r="E75" t="s">
         <v>636</v>
-      </c>
-      <c r="D75" t="s">
-        <v>420</v>
-      </c>
-      <c r="E75" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -10509,16 +10506,16 @@
         <v>280</v>
       </c>
       <c r="B76" t="s">
+        <v>637</v>
+      </c>
+      <c r="C76" t="s">
         <v>638</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>419</v>
+      </c>
+      <c r="E76" t="s">
         <v>639</v>
-      </c>
-      <c r="D76" t="s">
-        <v>420</v>
-      </c>
-      <c r="E76" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -10526,16 +10523,16 @@
         <v>280</v>
       </c>
       <c r="B77" t="s">
+        <v>640</v>
+      </c>
+      <c r="C77" t="s">
         <v>641</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>419</v>
+      </c>
+      <c r="E77" t="s">
         <v>642</v>
-      </c>
-      <c r="D77" t="s">
-        <v>420</v>
-      </c>
-      <c r="E77" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -10543,16 +10540,16 @@
         <v>281</v>
       </c>
       <c r="B78" t="s">
+        <v>643</v>
+      </c>
+      <c r="C78" t="s">
         <v>644</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
+        <v>419</v>
+      </c>
+      <c r="E78" t="s">
         <v>645</v>
-      </c>
-      <c r="D78" t="s">
-        <v>420</v>
-      </c>
-      <c r="E78" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
@@ -10560,16 +10557,16 @@
         <v>281</v>
       </c>
       <c r="B79" t="s">
+        <v>646</v>
+      </c>
+      <c r="C79" t="s">
         <v>647</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>419</v>
+      </c>
+      <c r="E79" t="s">
         <v>648</v>
-      </c>
-      <c r="D79" t="s">
-        <v>420</v>
-      </c>
-      <c r="E79" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -10577,16 +10574,16 @@
         <v>281</v>
       </c>
       <c r="B80" t="s">
+        <v>649</v>
+      </c>
+      <c r="C80" t="s">
         <v>650</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>419</v>
+      </c>
+      <c r="E80" t="s">
         <v>651</v>
-      </c>
-      <c r="D80" t="s">
-        <v>420</v>
-      </c>
-      <c r="E80" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -10594,16 +10591,16 @@
         <v>281</v>
       </c>
       <c r="B81" t="s">
+        <v>652</v>
+      </c>
+      <c r="C81" t="s">
         <v>653</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
+        <v>419</v>
+      </c>
+      <c r="E81" t="s">
         <v>654</v>
-      </c>
-      <c r="D81" t="s">
-        <v>420</v>
-      </c>
-      <c r="E81" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -10611,16 +10608,16 @@
         <v>281</v>
       </c>
       <c r="B82" t="s">
+        <v>655</v>
+      </c>
+      <c r="C82" t="s">
         <v>656</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>419</v>
+      </c>
+      <c r="E82" t="s">
         <v>657</v>
-      </c>
-      <c r="D82" t="s">
-        <v>420</v>
-      </c>
-      <c r="E82" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -10628,16 +10625,16 @@
         <v>281</v>
       </c>
       <c r="B83" t="s">
+        <v>658</v>
+      </c>
+      <c r="C83" t="s">
         <v>659</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>419</v>
+      </c>
+      <c r="E83" t="s">
         <v>660</v>
-      </c>
-      <c r="D83" t="s">
-        <v>420</v>
-      </c>
-      <c r="E83" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
@@ -10645,16 +10642,16 @@
         <v>281</v>
       </c>
       <c r="B84" t="s">
+        <v>661</v>
+      </c>
+      <c r="C84" t="s">
         <v>662</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>419</v>
+      </c>
+      <c r="E84" t="s">
         <v>663</v>
-      </c>
-      <c r="D84" t="s">
-        <v>420</v>
-      </c>
-      <c r="E84" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
@@ -10662,16 +10659,16 @@
         <v>281</v>
       </c>
       <c r="B85" t="s">
+        <v>664</v>
+      </c>
+      <c r="C85" t="s">
         <v>665</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>419</v>
+      </c>
+      <c r="E85" t="s">
         <v>666</v>
-      </c>
-      <c r="D85" t="s">
-        <v>420</v>
-      </c>
-      <c r="E85" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
@@ -10679,16 +10676,16 @@
         <v>281</v>
       </c>
       <c r="B86" t="s">
+        <v>667</v>
+      </c>
+      <c r="C86" t="s">
         <v>668</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>419</v>
+      </c>
+      <c r="E86" t="s">
         <v>669</v>
-      </c>
-      <c r="D86" t="s">
-        <v>420</v>
-      </c>
-      <c r="E86" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
@@ -10696,16 +10693,16 @@
         <v>281</v>
       </c>
       <c r="B87" t="s">
+        <v>670</v>
+      </c>
+      <c r="C87" t="s">
         <v>671</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>419</v>
+      </c>
+      <c r="E87" t="s">
         <v>672</v>
-      </c>
-      <c r="D87" t="s">
-        <v>420</v>
-      </c>
-      <c r="E87" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
@@ -10713,16 +10710,16 @@
         <v>281</v>
       </c>
       <c r="B88" t="s">
+        <v>673</v>
+      </c>
+      <c r="C88" t="s">
         <v>674</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
+        <v>419</v>
+      </c>
+      <c r="E88" t="s">
         <v>675</v>
-      </c>
-      <c r="D88" t="s">
-        <v>420</v>
-      </c>
-      <c r="E88" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
@@ -10730,16 +10727,16 @@
         <v>281</v>
       </c>
       <c r="B89" t="s">
+        <v>676</v>
+      </c>
+      <c r="C89" t="s">
         <v>677</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
+        <v>419</v>
+      </c>
+      <c r="E89" t="s">
         <v>678</v>
-      </c>
-      <c r="D89" t="s">
-        <v>420</v>
-      </c>
-      <c r="E89" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
@@ -10747,16 +10744,16 @@
         <v>281</v>
       </c>
       <c r="B90" t="s">
+        <v>679</v>
+      </c>
+      <c r="C90" t="s">
         <v>680</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
+        <v>419</v>
+      </c>
+      <c r="E90" t="s">
         <v>681</v>
-      </c>
-      <c r="D90" t="s">
-        <v>420</v>
-      </c>
-      <c r="E90" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
@@ -10764,16 +10761,16 @@
         <v>282</v>
       </c>
       <c r="B91" t="s">
+        <v>682</v>
+      </c>
+      <c r="C91" t="s">
         <v>683</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
+        <v>419</v>
+      </c>
+      <c r="E91" t="s">
         <v>684</v>
-      </c>
-      <c r="D91" t="s">
-        <v>420</v>
-      </c>
-      <c r="E91" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
@@ -10781,16 +10778,16 @@
         <v>282</v>
       </c>
       <c r="B92" t="s">
+        <v>685</v>
+      </c>
+      <c r="C92" t="s">
         <v>686</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>419</v>
+      </c>
+      <c r="E92" t="s">
         <v>687</v>
-      </c>
-      <c r="D92" t="s">
-        <v>420</v>
-      </c>
-      <c r="E92" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
@@ -10798,16 +10795,16 @@
         <v>282</v>
       </c>
       <c r="B93" t="s">
+        <v>688</v>
+      </c>
+      <c r="C93" t="s">
         <v>689</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
+        <v>419</v>
+      </c>
+      <c r="E93" t="s">
         <v>690</v>
-      </c>
-      <c r="D93" t="s">
-        <v>420</v>
-      </c>
-      <c r="E93" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
@@ -10815,16 +10812,16 @@
         <v>282</v>
       </c>
       <c r="B94" t="s">
+        <v>691</v>
+      </c>
+      <c r="C94" t="s">
         <v>692</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
+        <v>419</v>
+      </c>
+      <c r="E94" t="s">
         <v>693</v>
-      </c>
-      <c r="D94" t="s">
-        <v>420</v>
-      </c>
-      <c r="E94" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
@@ -10832,16 +10829,16 @@
         <v>282</v>
       </c>
       <c r="B95" t="s">
+        <v>694</v>
+      </c>
+      <c r="C95" t="s">
         <v>695</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
+        <v>419</v>
+      </c>
+      <c r="E95" t="s">
         <v>696</v>
-      </c>
-      <c r="D95" t="s">
-        <v>420</v>
-      </c>
-      <c r="E95" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
@@ -10849,16 +10846,16 @@
         <v>282</v>
       </c>
       <c r="B96" t="s">
+        <v>697</v>
+      </c>
+      <c r="C96" t="s">
         <v>698</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
+        <v>419</v>
+      </c>
+      <c r="E96" t="s">
         <v>699</v>
-      </c>
-      <c r="D96" t="s">
-        <v>420</v>
-      </c>
-      <c r="E96" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
@@ -10866,16 +10863,16 @@
         <v>282</v>
       </c>
       <c r="B97" t="s">
+        <v>700</v>
+      </c>
+      <c r="C97" t="s">
         <v>701</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>419</v>
+      </c>
+      <c r="E97" t="s">
         <v>702</v>
-      </c>
-      <c r="D97" t="s">
-        <v>420</v>
-      </c>
-      <c r="E97" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
@@ -10883,16 +10880,16 @@
         <v>282</v>
       </c>
       <c r="B98" t="s">
+        <v>703</v>
+      </c>
+      <c r="C98" t="s">
         <v>704</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
+        <v>419</v>
+      </c>
+      <c r="E98" t="s">
         <v>705</v>
-      </c>
-      <c r="D98" t="s">
-        <v>420</v>
-      </c>
-      <c r="E98" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
@@ -10900,16 +10897,16 @@
         <v>282</v>
       </c>
       <c r="B99" t="s">
+        <v>706</v>
+      </c>
+      <c r="C99" t="s">
         <v>707</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
+        <v>419</v>
+      </c>
+      <c r="E99" t="s">
         <v>708</v>
-      </c>
-      <c r="D99" t="s">
-        <v>420</v>
-      </c>
-      <c r="E99" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
@@ -10917,16 +10914,16 @@
         <v>282</v>
       </c>
       <c r="B100" t="s">
+        <v>709</v>
+      </c>
+      <c r="C100" t="s">
         <v>710</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
+        <v>419</v>
+      </c>
+      <c r="E100" t="s">
         <v>711</v>
-      </c>
-      <c r="D100" t="s">
-        <v>420</v>
-      </c>
-      <c r="E100" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
@@ -10934,16 +10931,16 @@
         <v>282</v>
       </c>
       <c r="B101" t="s">
+        <v>712</v>
+      </c>
+      <c r="C101" t="s">
         <v>713</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
+        <v>419</v>
+      </c>
+      <c r="E101" t="s">
         <v>714</v>
-      </c>
-      <c r="D101" t="s">
-        <v>420</v>
-      </c>
-      <c r="E101" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
@@ -10951,16 +10948,16 @@
         <v>282</v>
       </c>
       <c r="B102" t="s">
+        <v>715</v>
+      </c>
+      <c r="C102" t="s">
         <v>716</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
+        <v>419</v>
+      </c>
+      <c r="E102" t="s">
         <v>717</v>
-      </c>
-      <c r="D102" t="s">
-        <v>420</v>
-      </c>
-      <c r="E102" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
@@ -10968,16 +10965,16 @@
         <v>282</v>
       </c>
       <c r="B103" t="s">
+        <v>718</v>
+      </c>
+      <c r="C103" t="s">
         <v>719</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
+        <v>419</v>
+      </c>
+      <c r="E103" t="s">
         <v>720</v>
-      </c>
-      <c r="D103" t="s">
-        <v>420</v>
-      </c>
-      <c r="E103" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
@@ -10985,16 +10982,16 @@
         <v>282</v>
       </c>
       <c r="B104" t="s">
+        <v>721</v>
+      </c>
+      <c r="C104" t="s">
         <v>722</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
+        <v>419</v>
+      </c>
+      <c r="E104" t="s">
         <v>723</v>
-      </c>
-      <c r="D104" t="s">
-        <v>420</v>
-      </c>
-      <c r="E104" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
@@ -11002,16 +10999,16 @@
         <v>282</v>
       </c>
       <c r="B105" t="s">
+        <v>724</v>
+      </c>
+      <c r="C105" t="s">
         <v>725</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>419</v>
+      </c>
+      <c r="E105" t="s">
         <v>726</v>
-      </c>
-      <c r="D105" t="s">
-        <v>420</v>
-      </c>
-      <c r="E105" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
@@ -11019,16 +11016,16 @@
         <v>282</v>
       </c>
       <c r="B106" t="s">
+        <v>727</v>
+      </c>
+      <c r="C106" t="s">
         <v>728</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
+        <v>419</v>
+      </c>
+      <c r="E106" t="s">
         <v>729</v>
-      </c>
-      <c r="D106" t="s">
-        <v>420</v>
-      </c>
-      <c r="E106" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
@@ -11036,16 +11033,16 @@
         <v>282</v>
       </c>
       <c r="B107" t="s">
+        <v>730</v>
+      </c>
+      <c r="C107" t="s">
         <v>731</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
+        <v>419</v>
+      </c>
+      <c r="E107" t="s">
         <v>732</v>
-      </c>
-      <c r="D107" t="s">
-        <v>420</v>
-      </c>
-      <c r="E107" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
@@ -11053,16 +11050,16 @@
         <v>282</v>
       </c>
       <c r="B108" t="s">
+        <v>733</v>
+      </c>
+      <c r="C108" t="s">
         <v>734</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
+        <v>419</v>
+      </c>
+      <c r="E108" t="s">
         <v>735</v>
-      </c>
-      <c r="D108" t="s">
-        <v>420</v>
-      </c>
-      <c r="E108" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
@@ -11070,16 +11067,16 @@
         <v>282</v>
       </c>
       <c r="B109" t="s">
+        <v>736</v>
+      </c>
+      <c r="C109" t="s">
         <v>737</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
+        <v>419</v>
+      </c>
+      <c r="E109" t="s">
         <v>738</v>
-      </c>
-      <c r="D109" t="s">
-        <v>420</v>
-      </c>
-      <c r="E109" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
@@ -11087,16 +11084,16 @@
         <v>283</v>
       </c>
       <c r="B110" t="s">
+        <v>739</v>
+      </c>
+      <c r="C110" t="s">
         <v>740</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
+        <v>419</v>
+      </c>
+      <c r="E110" t="s">
         <v>741</v>
-      </c>
-      <c r="D110" t="s">
-        <v>420</v>
-      </c>
-      <c r="E110" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
@@ -11104,16 +11101,16 @@
         <v>283</v>
       </c>
       <c r="B111" t="s">
+        <v>742</v>
+      </c>
+      <c r="C111" t="s">
         <v>743</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
+        <v>419</v>
+      </c>
+      <c r="E111" t="s">
         <v>744</v>
-      </c>
-      <c r="D111" t="s">
-        <v>420</v>
-      </c>
-      <c r="E111" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
@@ -11121,16 +11118,16 @@
         <v>283</v>
       </c>
       <c r="B112" t="s">
+        <v>745</v>
+      </c>
+      <c r="C112" t="s">
         <v>746</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
+        <v>419</v>
+      </c>
+      <c r="E112" t="s">
         <v>747</v>
-      </c>
-      <c r="D112" t="s">
-        <v>420</v>
-      </c>
-      <c r="E112" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
@@ -11138,16 +11135,16 @@
         <v>283</v>
       </c>
       <c r="B113" t="s">
+        <v>748</v>
+      </c>
+      <c r="C113" t="s">
         <v>749</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
+        <v>419</v>
+      </c>
+      <c r="E113" t="s">
         <v>750</v>
-      </c>
-      <c r="D113" t="s">
-        <v>420</v>
-      </c>
-      <c r="E113" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
@@ -11155,16 +11152,16 @@
         <v>283</v>
       </c>
       <c r="B114" t="s">
+        <v>751</v>
+      </c>
+      <c r="C114" t="s">
         <v>752</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
+        <v>419</v>
+      </c>
+      <c r="E114" t="s">
         <v>753</v>
-      </c>
-      <c r="D114" t="s">
-        <v>420</v>
-      </c>
-      <c r="E114" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
@@ -11172,16 +11169,16 @@
         <v>283</v>
       </c>
       <c r="B115" t="s">
+        <v>754</v>
+      </c>
+      <c r="C115" t="s">
         <v>755</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
+        <v>419</v>
+      </c>
+      <c r="E115" t="s">
         <v>756</v>
-      </c>
-      <c r="D115" t="s">
-        <v>420</v>
-      </c>
-      <c r="E115" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
@@ -11189,16 +11186,16 @@
         <v>283</v>
       </c>
       <c r="B116" t="s">
+        <v>757</v>
+      </c>
+      <c r="C116" t="s">
         <v>758</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
+        <v>419</v>
+      </c>
+      <c r="E116" t="s">
         <v>759</v>
-      </c>
-      <c r="D116" t="s">
-        <v>420</v>
-      </c>
-      <c r="E116" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
@@ -11206,16 +11203,16 @@
         <v>283</v>
       </c>
       <c r="B117" t="s">
+        <v>760</v>
+      </c>
+      <c r="C117" t="s">
         <v>761</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
+        <v>419</v>
+      </c>
+      <c r="E117" t="s">
         <v>762</v>
-      </c>
-      <c r="D117" t="s">
-        <v>420</v>
-      </c>
-      <c r="E117" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
@@ -11223,16 +11220,16 @@
         <v>283</v>
       </c>
       <c r="B118" t="s">
+        <v>763</v>
+      </c>
+      <c r="C118" t="s">
         <v>764</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
+        <v>419</v>
+      </c>
+      <c r="E118" t="s">
         <v>765</v>
-      </c>
-      <c r="D118" t="s">
-        <v>420</v>
-      </c>
-      <c r="E118" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
@@ -11240,16 +11237,16 @@
         <v>284</v>
       </c>
       <c r="B119" t="s">
+        <v>766</v>
+      </c>
+      <c r="C119" t="s">
         <v>767</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
+        <v>419</v>
+      </c>
+      <c r="E119" t="s">
         <v>768</v>
-      </c>
-      <c r="D119" t="s">
-        <v>420</v>
-      </c>
-      <c r="E119" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
@@ -11257,16 +11254,16 @@
         <v>284</v>
       </c>
       <c r="B120" t="s">
+        <v>769</v>
+      </c>
+      <c r="C120" t="s">
         <v>770</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
+        <v>419</v>
+      </c>
+      <c r="E120" t="s">
         <v>771</v>
-      </c>
-      <c r="D120" t="s">
-        <v>420</v>
-      </c>
-      <c r="E120" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
@@ -11274,16 +11271,16 @@
         <v>284</v>
       </c>
       <c r="B121" t="s">
+        <v>772</v>
+      </c>
+      <c r="C121" t="s">
         <v>773</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
+        <v>419</v>
+      </c>
+      <c r="E121" t="s">
         <v>774</v>
-      </c>
-      <c r="D121" t="s">
-        <v>420</v>
-      </c>
-      <c r="E121" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
@@ -11291,16 +11288,16 @@
         <v>284</v>
       </c>
       <c r="B122" t="s">
+        <v>775</v>
+      </c>
+      <c r="C122" t="s">
         <v>776</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
+        <v>419</v>
+      </c>
+      <c r="E122" t="s">
         <v>777</v>
-      </c>
-      <c r="D122" t="s">
-        <v>420</v>
-      </c>
-      <c r="E122" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
@@ -11308,16 +11305,16 @@
         <v>284</v>
       </c>
       <c r="B123" t="s">
+        <v>778</v>
+      </c>
+      <c r="C123" t="s">
         <v>779</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
+        <v>419</v>
+      </c>
+      <c r="E123" t="s">
         <v>780</v>
-      </c>
-      <c r="D123" t="s">
-        <v>420</v>
-      </c>
-      <c r="E123" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
@@ -11325,16 +11322,16 @@
         <v>284</v>
       </c>
       <c r="B124" t="s">
+        <v>781</v>
+      </c>
+      <c r="C124" t="s">
         <v>782</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
+        <v>419</v>
+      </c>
+      <c r="E124" t="s">
         <v>783</v>
-      </c>
-      <c r="D124" t="s">
-        <v>420</v>
-      </c>
-      <c r="E124" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
@@ -11342,16 +11339,16 @@
         <v>284</v>
       </c>
       <c r="B125" t="s">
+        <v>784</v>
+      </c>
+      <c r="C125" t="s">
         <v>785</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
+        <v>419</v>
+      </c>
+      <c r="E125" t="s">
         <v>786</v>
-      </c>
-      <c r="D125" t="s">
-        <v>420</v>
-      </c>
-      <c r="E125" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
@@ -11359,16 +11356,16 @@
         <v>284</v>
       </c>
       <c r="B126" t="s">
+        <v>787</v>
+      </c>
+      <c r="C126" t="s">
         <v>788</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
+        <v>419</v>
+      </c>
+      <c r="E126" t="s">
         <v>789</v>
-      </c>
-      <c r="D126" t="s">
-        <v>420</v>
-      </c>
-      <c r="E126" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
@@ -11376,16 +11373,16 @@
         <v>284</v>
       </c>
       <c r="B127" t="s">
+        <v>790</v>
+      </c>
+      <c r="C127" t="s">
         <v>791</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
+        <v>419</v>
+      </c>
+      <c r="E127" t="s">
         <v>792</v>
-      </c>
-      <c r="D127" t="s">
-        <v>420</v>
-      </c>
-      <c r="E127" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
@@ -11393,16 +11390,16 @@
         <v>284</v>
       </c>
       <c r="B128" t="s">
+        <v>793</v>
+      </c>
+      <c r="C128" t="s">
         <v>794</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
+        <v>419</v>
+      </c>
+      <c r="E128" t="s">
         <v>795</v>
-      </c>
-      <c r="D128" t="s">
-        <v>420</v>
-      </c>
-      <c r="E128" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
@@ -11410,16 +11407,16 @@
         <v>284</v>
       </c>
       <c r="B129" t="s">
+        <v>796</v>
+      </c>
+      <c r="C129" t="s">
         <v>797</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
+        <v>419</v>
+      </c>
+      <c r="E129" t="s">
         <v>798</v>
-      </c>
-      <c r="D129" t="s">
-        <v>420</v>
-      </c>
-      <c r="E129" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
@@ -11427,16 +11424,16 @@
         <v>284</v>
       </c>
       <c r="B130" t="s">
+        <v>799</v>
+      </c>
+      <c r="C130" t="s">
         <v>800</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
+        <v>419</v>
+      </c>
+      <c r="E130" t="s">
         <v>801</v>
-      </c>
-      <c r="D130" t="s">
-        <v>420</v>
-      </c>
-      <c r="E130" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
@@ -11444,16 +11441,16 @@
         <v>284</v>
       </c>
       <c r="B131" t="s">
+        <v>802</v>
+      </c>
+      <c r="C131" t="s">
         <v>803</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
+        <v>419</v>
+      </c>
+      <c r="E131" t="s">
         <v>804</v>
-      </c>
-      <c r="D131" t="s">
-        <v>420</v>
-      </c>
-      <c r="E131" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
@@ -11461,16 +11458,16 @@
         <v>285</v>
       </c>
       <c r="B132" t="s">
+        <v>805</v>
+      </c>
+      <c r="C132" t="s">
         <v>806</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
+        <v>419</v>
+      </c>
+      <c r="E132" t="s">
         <v>807</v>
-      </c>
-      <c r="D132" t="s">
-        <v>420</v>
-      </c>
-      <c r="E132" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
@@ -11478,16 +11475,16 @@
         <v>285</v>
       </c>
       <c r="B133" t="s">
+        <v>808</v>
+      </c>
+      <c r="C133" t="s">
         <v>809</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
+        <v>419</v>
+      </c>
+      <c r="E133" t="s">
         <v>810</v>
-      </c>
-      <c r="D133" t="s">
-        <v>420</v>
-      </c>
-      <c r="E133" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
@@ -11495,16 +11492,16 @@
         <v>285</v>
       </c>
       <c r="B134" t="s">
+        <v>811</v>
+      </c>
+      <c r="C134" t="s">
         <v>812</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
+        <v>419</v>
+      </c>
+      <c r="E134" t="s">
         <v>813</v>
-      </c>
-      <c r="D134" t="s">
-        <v>420</v>
-      </c>
-      <c r="E134" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
@@ -11512,16 +11509,16 @@
         <v>285</v>
       </c>
       <c r="B135" t="s">
+        <v>814</v>
+      </c>
+      <c r="C135" t="s">
         <v>815</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
+        <v>419</v>
+      </c>
+      <c r="E135" t="s">
         <v>816</v>
-      </c>
-      <c r="D135" t="s">
-        <v>420</v>
-      </c>
-      <c r="E135" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
@@ -11529,16 +11526,16 @@
         <v>285</v>
       </c>
       <c r="B136" t="s">
+        <v>817</v>
+      </c>
+      <c r="C136" t="s">
         <v>818</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
+        <v>419</v>
+      </c>
+      <c r="E136" t="s">
         <v>819</v>
-      </c>
-      <c r="D136" t="s">
-        <v>420</v>
-      </c>
-      <c r="E136" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
@@ -11546,16 +11543,16 @@
         <v>285</v>
       </c>
       <c r="B137" t="s">
+        <v>820</v>
+      </c>
+      <c r="C137" t="s">
         <v>821</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
+        <v>419</v>
+      </c>
+      <c r="E137" t="s">
         <v>822</v>
-      </c>
-      <c r="D137" t="s">
-        <v>420</v>
-      </c>
-      <c r="E137" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
@@ -11563,16 +11560,16 @@
         <v>285</v>
       </c>
       <c r="B138" t="s">
+        <v>823</v>
+      </c>
+      <c r="C138" t="s">
         <v>824</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
+        <v>419</v>
+      </c>
+      <c r="E138" t="s">
         <v>825</v>
-      </c>
-      <c r="D138" t="s">
-        <v>420</v>
-      </c>
-      <c r="E138" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
@@ -11580,16 +11577,16 @@
         <v>285</v>
       </c>
       <c r="B139" t="s">
+        <v>826</v>
+      </c>
+      <c r="C139" t="s">
         <v>827</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
+        <v>419</v>
+      </c>
+      <c r="E139" t="s">
         <v>828</v>
-      </c>
-      <c r="D139" t="s">
-        <v>420</v>
-      </c>
-      <c r="E139" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
@@ -11597,16 +11594,16 @@
         <v>285</v>
       </c>
       <c r="B140" t="s">
+        <v>829</v>
+      </c>
+      <c r="C140" t="s">
         <v>830</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
+        <v>419</v>
+      </c>
+      <c r="E140" t="s">
         <v>831</v>
-      </c>
-      <c r="D140" t="s">
-        <v>420</v>
-      </c>
-      <c r="E140" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
@@ -11614,16 +11611,16 @@
         <v>285</v>
       </c>
       <c r="B141" t="s">
+        <v>832</v>
+      </c>
+      <c r="C141" t="s">
         <v>833</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
+        <v>419</v>
+      </c>
+      <c r="E141" t="s">
         <v>834</v>
-      </c>
-      <c r="D141" t="s">
-        <v>420</v>
-      </c>
-      <c r="E141" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
@@ -11631,16 +11628,16 @@
         <v>285</v>
       </c>
       <c r="B142" t="s">
+        <v>835</v>
+      </c>
+      <c r="C142" t="s">
         <v>836</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
+        <v>419</v>
+      </c>
+      <c r="E142" t="s">
         <v>837</v>
-      </c>
-      <c r="D142" t="s">
-        <v>420</v>
-      </c>
-      <c r="E142" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
@@ -11648,16 +11645,16 @@
         <v>285</v>
       </c>
       <c r="B143" t="s">
+        <v>838</v>
+      </c>
+      <c r="C143" t="s">
         <v>839</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
+        <v>419</v>
+      </c>
+      <c r="E143" t="s">
         <v>840</v>
-      </c>
-      <c r="D143" t="s">
-        <v>420</v>
-      </c>
-      <c r="E143" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
@@ -11665,16 +11662,16 @@
         <v>285</v>
       </c>
       <c r="B144" t="s">
+        <v>841</v>
+      </c>
+      <c r="C144" t="s">
         <v>842</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
+        <v>419</v>
+      </c>
+      <c r="E144" t="s">
         <v>843</v>
-      </c>
-      <c r="D144" t="s">
-        <v>420</v>
-      </c>
-      <c r="E144" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
@@ -11682,16 +11679,16 @@
         <v>285</v>
       </c>
       <c r="B145" t="s">
+        <v>844</v>
+      </c>
+      <c r="C145" t="s">
         <v>845</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
+        <v>419</v>
+      </c>
+      <c r="E145" t="s">
         <v>846</v>
-      </c>
-      <c r="D145" t="s">
-        <v>420</v>
-      </c>
-      <c r="E145" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
@@ -11699,16 +11696,16 @@
         <v>285</v>
       </c>
       <c r="B146" t="s">
+        <v>847</v>
+      </c>
+      <c r="C146" t="s">
         <v>848</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
+        <v>419</v>
+      </c>
+      <c r="E146" t="s">
         <v>849</v>
-      </c>
-      <c r="D146" t="s">
-        <v>420</v>
-      </c>
-      <c r="E146" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
@@ -11716,16 +11713,16 @@
         <v>285</v>
       </c>
       <c r="B147" t="s">
+        <v>850</v>
+      </c>
+      <c r="C147" t="s">
         <v>851</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
+        <v>419</v>
+      </c>
+      <c r="E147" t="s">
         <v>852</v>
-      </c>
-      <c r="D147" t="s">
-        <v>420</v>
-      </c>
-      <c r="E147" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
@@ -11733,16 +11730,16 @@
         <v>285</v>
       </c>
       <c r="B148" t="s">
+        <v>853</v>
+      </c>
+      <c r="C148" t="s">
         <v>854</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
+        <v>419</v>
+      </c>
+      <c r="E148" t="s">
         <v>855</v>
-      </c>
-      <c r="D148" t="s">
-        <v>420</v>
-      </c>
-      <c r="E148" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
@@ -11750,16 +11747,16 @@
         <v>285</v>
       </c>
       <c r="B149" t="s">
+        <v>856</v>
+      </c>
+      <c r="C149" t="s">
         <v>857</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
+        <v>419</v>
+      </c>
+      <c r="E149" t="s">
         <v>858</v>
-      </c>
-      <c r="D149" t="s">
-        <v>420</v>
-      </c>
-      <c r="E149" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
@@ -11767,16 +11764,16 @@
         <v>285</v>
       </c>
       <c r="B150" t="s">
+        <v>859</v>
+      </c>
+      <c r="C150" t="s">
         <v>860</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
+        <v>419</v>
+      </c>
+      <c r="E150" t="s">
         <v>861</v>
-      </c>
-      <c r="D150" t="s">
-        <v>420</v>
-      </c>
-      <c r="E150" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
@@ -11784,16 +11781,16 @@
         <v>285</v>
       </c>
       <c r="B151" t="s">
+        <v>862</v>
+      </c>
+      <c r="C151" t="s">
         <v>863</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
+        <v>419</v>
+      </c>
+      <c r="E151" t="s">
         <v>864</v>
-      </c>
-      <c r="D151" t="s">
-        <v>420</v>
-      </c>
-      <c r="E151" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
@@ -11801,16 +11798,16 @@
         <v>285</v>
       </c>
       <c r="B152" t="s">
+        <v>865</v>
+      </c>
+      <c r="C152" t="s">
         <v>866</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
+        <v>419</v>
+      </c>
+      <c r="E152" t="s">
         <v>867</v>
-      </c>
-      <c r="D152" t="s">
-        <v>420</v>
-      </c>
-      <c r="E152" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
@@ -11818,16 +11815,16 @@
         <v>285</v>
       </c>
       <c r="B153" t="s">
+        <v>868</v>
+      </c>
+      <c r="C153" t="s">
         <v>869</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
+        <v>419</v>
+      </c>
+      <c r="E153" t="s">
         <v>870</v>
-      </c>
-      <c r="D153" t="s">
-        <v>420</v>
-      </c>
-      <c r="E153" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
@@ -11835,21 +11832,21 @@
         <v>285</v>
       </c>
       <c r="B154" t="s">
+        <v>871</v>
+      </c>
+      <c r="C154" t="s">
         <v>872</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
+        <v>419</v>
+      </c>
+      <c r="E154" t="s">
         <v>873</v>
-      </c>
-      <c r="D154" t="s">
-        <v>420</v>
-      </c>
-      <c r="E154" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E155" s="60" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35"/>
@@ -12735,16 +12732,16 @@
   <sheetData>
     <row r="2" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="126" t="s">
+        <v>875</v>
+      </c>
+      <c r="L2" s="126" t="s">
         <v>876</v>
-      </c>
-      <c r="L2" s="126" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B4" s="400" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C4" s="400"/>
       <c r="D4" s="400"/>
@@ -12767,7 +12764,7 @@
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B5" s="400" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C5" s="400"/>
       <c r="D5" s="400"/>
@@ -12802,7 +12799,7 @@
         <v>305</v>
       </c>
       <c r="J7" s="127" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L7" s="127" t="s">
         <v>300</v>
@@ -12817,7 +12814,7 @@
         <v>305</v>
       </c>
       <c r="T7" s="127" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.35">
@@ -12825,7 +12822,7 @@
         <v>298</v>
       </c>
       <c r="D8" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F8" s="125" t="s">
         <v>301</v>
@@ -12837,19 +12834,19 @@
         <v>306</v>
       </c>
       <c r="L8" s="125" t="s">
+        <v>340</v>
+      </c>
+      <c r="N8" s="125" t="s">
+        <v>879</v>
+      </c>
+      <c r="P8" s="125" t="s">
         <v>341</v>
       </c>
-      <c r="N8" s="125" t="s">
-        <v>880</v>
-      </c>
-      <c r="P8" s="125" t="s">
-        <v>342</v>
-      </c>
       <c r="R8" s="125" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="T8" s="125" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.35">
@@ -12857,132 +12854,132 @@
         <v>303</v>
       </c>
       <c r="D9" s="125" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F9" s="125" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H9" s="125" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J9" s="125" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L9" s="125" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N9" s="125"/>
       <c r="P9" s="125" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R9" s="125" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="T9" s="125" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B10" s="125" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D10" s="125" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F10" s="125" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H10" s="125" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J10" s="125" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L10" s="125" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N10" s="125"/>
       <c r="P10" s="125" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R10" s="125" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="T10" s="125" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B11" s="125" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D11" s="125" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F11" s="125" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J11" s="125" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L11" s="125" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N11" s="125"/>
       <c r="P11" s="125" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R11" s="125"/>
       <c r="T11" s="125" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B12" s="125" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D12" s="125" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J12" s="125" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L12" s="125" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N12" s="125"/>
       <c r="P12" s="125"/>
       <c r="R12" s="125"/>
       <c r="T12" s="125" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B13" s="125" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J13" s="125" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L13" s="125" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N13" s="125"/>
       <c r="P13" s="125"/>
       <c r="R13" s="125"/>
       <c r="T13" s="125" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B14" s="125" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J14" s="125" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L14" s="125" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N14" s="125"/>
       <c r="P14" s="125"/>
@@ -12991,13 +12988,13 @@
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B15" s="125" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J15" s="125" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L15" s="125" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N15" s="125"/>
       <c r="P15" s="125"/>
@@ -13006,10 +13003,10 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B16" s="125" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L16" s="125" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N16" s="125"/>
       <c r="P16" s="125"/>
@@ -13018,10 +13015,10 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="125" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L17" s="125" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N17" s="125"/>
       <c r="P17" s="125"/>
@@ -13029,22 +13026,22 @@
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" s="125" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="125" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="125" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -13079,7 +13076,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B1" s="129"/>
     </row>
@@ -13091,18 +13088,18 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D3" s="60" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B4" s="129" t="s">
         <v>297</v>
       </c>
       <c r="D4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E4" t="s">
         <v>124</v>
@@ -13134,7 +13131,7 @@
         <v>#N/A</v>
       </c>
       <c r="G5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -13148,13 +13145,13 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F6" t="s">
         <v>299</v>
       </c>
       <c r="G6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -13168,13 +13165,13 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F7" t="s">
         <v>139</v>
       </c>
       <c r="G7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -13188,13 +13185,13 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F8" t="s">
         <v>299</v>
       </c>
       <c r="G8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -13208,13 +13205,13 @@
         <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -13228,13 +13225,13 @@
         <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -13248,13 +13245,13 @@
         <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -13268,13 +13265,13 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F12" t="s">
         <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -13288,13 +13285,13 @@
         <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F13" t="s">
         <v>299</v>
       </c>
       <c r="G13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -13308,13 +13305,13 @@
         <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F14" t="s">
         <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -13328,13 +13325,13 @@
         <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F15" t="s">
         <v>139</v>
       </c>
       <c r="G15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -13348,13 +13345,13 @@
         <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F16" t="s">
         <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -13368,13 +13365,13 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F17" t="s">
         <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -13388,13 +13385,13 @@
         <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F18" t="s">
         <v>139</v>
       </c>
       <c r="G18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -13408,13 +13405,13 @@
         <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F19" t="s">
         <v>139</v>
       </c>
       <c r="G19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -13428,13 +13425,13 @@
         <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F20" t="s">
         <v>139</v>
       </c>
       <c r="G20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -13448,13 +13445,13 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F21" t="s">
         <v>299</v>
       </c>
       <c r="G21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -13468,13 +13465,13 @@
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -13488,13 +13485,13 @@
         <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -13508,13 +13505,13 @@
         <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F24" t="s">
         <v>139</v>
       </c>
       <c r="G24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -13528,13 +13525,13 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F25" t="s">
         <v>139</v>
       </c>
       <c r="G25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -13548,13 +13545,13 @@
         <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -13568,13 +13565,13 @@
         <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -13588,13 +13585,13 @@
         <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -13608,13 +13605,13 @@
         <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -13628,13 +13625,13 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -13648,13 +13645,13 @@
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -13668,13 +13665,13 @@
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F32" t="s">
         <v>299</v>
       </c>
       <c r="G32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -13688,13 +13685,13 @@
         <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F33" t="s">
         <v>139</v>
       </c>
       <c r="G33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -13708,13 +13705,13 @@
         <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
@@ -13728,13 +13725,13 @@
         <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F35" t="s">
         <v>299</v>
       </c>
       <c r="G35" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
@@ -13748,13 +13745,13 @@
         <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F36" t="s">
         <v>139</v>
       </c>
       <c r="G36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
@@ -13768,13 +13765,13 @@
         <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F37" t="s">
         <v>139</v>
       </c>
       <c r="G37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
@@ -13788,13 +13785,13 @@
         <v>45</v>
       </c>
       <c r="E38" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F38" t="s">
         <v>139</v>
       </c>
       <c r="G38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -13808,13 +13805,13 @@
         <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F39" t="s">
         <v>139</v>
       </c>
       <c r="G39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -13828,13 +13825,13 @@
         <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F40" t="s">
         <v>299</v>
       </c>
       <c r="G40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
@@ -13848,13 +13845,13 @@
         <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F41" t="s">
         <v>139</v>
       </c>
       <c r="G41" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
@@ -13868,13 +13865,13 @@
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F42" t="s">
         <v>139</v>
       </c>
       <c r="G42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
@@ -13888,13 +13885,13 @@
         <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F43" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G43" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
@@ -13902,14 +13899,14 @@
         <v>277</v>
       </c>
       <c r="E44" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F44" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="G44" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
@@ -13925,7 +13922,7 @@
         <v>#N/A</v>
       </c>
       <c r="G45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J45" s="111"/>
     </row>
@@ -13934,13 +13931,13 @@
         <v>278</v>
       </c>
       <c r="E46" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F46" t="s">
         <v>139</v>
       </c>
       <c r="G46" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J46" s="111"/>
     </row>
@@ -13949,13 +13946,13 @@
         <v>278</v>
       </c>
       <c r="E47" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F47" t="s">
         <v>139</v>
       </c>
       <c r="G47" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J47" s="111"/>
     </row>
@@ -13964,13 +13961,13 @@
         <v>278</v>
       </c>
       <c r="E48" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F48" t="s">
         <v>139</v>
       </c>
       <c r="G48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J48" s="111"/>
     </row>
@@ -13979,13 +13976,13 @@
         <v>278</v>
       </c>
       <c r="E49" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F49" t="s">
         <v>139</v>
       </c>
       <c r="G49" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.35">
@@ -13993,13 +13990,13 @@
         <v>278</v>
       </c>
       <c r="E50" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F50" t="s">
         <v>139</v>
       </c>
       <c r="G50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="4:7" x14ac:dyDescent="0.35">
@@ -14007,13 +14004,13 @@
         <v>278</v>
       </c>
       <c r="E51" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F51" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G51" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52" spans="4:7" x14ac:dyDescent="0.35">
@@ -14021,13 +14018,13 @@
         <v>278</v>
       </c>
       <c r="E52" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F52" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G52" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53" spans="4:7" x14ac:dyDescent="0.35">
@@ -14035,13 +14032,13 @@
         <v>278</v>
       </c>
       <c r="E53" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F53" t="s">
         <v>139</v>
       </c>
       <c r="G53" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="54" spans="4:7" x14ac:dyDescent="0.35">
@@ -14049,13 +14046,13 @@
         <v>278</v>
       </c>
       <c r="E54" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F54" t="s">
         <v>139</v>
       </c>
       <c r="G54" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="55" spans="4:7" x14ac:dyDescent="0.35">
@@ -14063,13 +14060,13 @@
         <v>278</v>
       </c>
       <c r="E55" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F55" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="56" spans="4:7" x14ac:dyDescent="0.35">
@@ -14077,13 +14074,13 @@
         <v>278</v>
       </c>
       <c r="E56" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F56" t="s">
         <v>299</v>
       </c>
       <c r="G56" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="57" spans="4:7" x14ac:dyDescent="0.35">
@@ -14091,13 +14088,13 @@
         <v>278</v>
       </c>
       <c r="E57" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F57" t="s">
         <v>139</v>
       </c>
       <c r="G57" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="58" spans="4:7" x14ac:dyDescent="0.35">
@@ -14105,13 +14102,13 @@
         <v>278</v>
       </c>
       <c r="E58" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F58" t="s">
         <v>139</v>
       </c>
       <c r="G58" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="59" spans="4:7" x14ac:dyDescent="0.35">
@@ -14119,13 +14116,13 @@
         <v>278</v>
       </c>
       <c r="E59" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F59" t="s">
         <v>139</v>
       </c>
       <c r="G59" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" spans="4:7" x14ac:dyDescent="0.35">
@@ -14133,13 +14130,13 @@
         <v>278</v>
       </c>
       <c r="E60" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F60" t="s">
         <v>299</v>
       </c>
       <c r="G60" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="4:7" x14ac:dyDescent="0.35">
@@ -14147,13 +14144,13 @@
         <v>278</v>
       </c>
       <c r="E61" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F61" t="s">
         <v>299</v>
       </c>
       <c r="G61" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="62" spans="4:7" x14ac:dyDescent="0.35">
@@ -14161,13 +14158,13 @@
         <v>278</v>
       </c>
       <c r="E62" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F62" t="s">
         <v>139</v>
       </c>
       <c r="G62" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="63" spans="4:7" x14ac:dyDescent="0.35">
@@ -14183,7 +14180,7 @@
         <v>#N/A</v>
       </c>
       <c r="G63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="64" spans="4:7" x14ac:dyDescent="0.35">
@@ -14191,13 +14188,13 @@
         <v>279</v>
       </c>
       <c r="E64" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F64" t="s">
         <v>299</v>
       </c>
       <c r="G64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="65" spans="4:7" x14ac:dyDescent="0.35">
@@ -14205,13 +14202,13 @@
         <v>279</v>
       </c>
       <c r="E65" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F65" t="s">
         <v>299</v>
       </c>
       <c r="G65" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" spans="4:7" x14ac:dyDescent="0.35">
@@ -14219,13 +14216,13 @@
         <v>279</v>
       </c>
       <c r="E66" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F66" t="s">
         <v>139</v>
       </c>
       <c r="G66" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="67" spans="4:7" x14ac:dyDescent="0.35">
@@ -14233,13 +14230,13 @@
         <v>279</v>
       </c>
       <c r="E67" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F67" t="s">
         <v>139</v>
       </c>
       <c r="G67" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="68" spans="4:7" x14ac:dyDescent="0.35">
@@ -14247,13 +14244,13 @@
         <v>279</v>
       </c>
       <c r="E68" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F68" t="s">
         <v>139</v>
       </c>
       <c r="G68" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="4:7" x14ac:dyDescent="0.35">
@@ -14261,13 +14258,13 @@
         <v>279</v>
       </c>
       <c r="E69" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F69" t="s">
         <v>139</v>
       </c>
       <c r="G69" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="4:7" x14ac:dyDescent="0.35">
@@ -14275,13 +14272,13 @@
         <v>279</v>
       </c>
       <c r="E70" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F70" t="s">
         <v>299</v>
       </c>
       <c r="G70" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="4:7" x14ac:dyDescent="0.35">
@@ -14289,13 +14286,13 @@
         <v>279</v>
       </c>
       <c r="E71" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F71" t="s">
         <v>139</v>
       </c>
       <c r="G71" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="72" spans="4:7" x14ac:dyDescent="0.35">
@@ -14303,13 +14300,13 @@
         <v>279</v>
       </c>
       <c r="E72" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F72" t="s">
         <v>139</v>
       </c>
       <c r="G72" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="73" spans="4:7" x14ac:dyDescent="0.35">
@@ -14325,7 +14322,7 @@
         <v>#N/A</v>
       </c>
       <c r="G73" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" spans="4:7" x14ac:dyDescent="0.35">
@@ -14333,13 +14330,13 @@
         <v>280</v>
       </c>
       <c r="E74" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F74" t="s">
         <v>299</v>
       </c>
       <c r="G74" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="4:7" x14ac:dyDescent="0.35">
@@ -14347,13 +14344,13 @@
         <v>280</v>
       </c>
       <c r="E75" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F75" t="s">
         <v>139</v>
       </c>
       <c r="G75" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="76" spans="4:7" x14ac:dyDescent="0.35">
@@ -14361,13 +14358,13 @@
         <v>280</v>
       </c>
       <c r="E76" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F76" t="s">
         <v>139</v>
       </c>
       <c r="G76" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77" spans="4:7" x14ac:dyDescent="0.35">
@@ -14375,13 +14372,13 @@
         <v>280</v>
       </c>
       <c r="E77" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F77" t="s">
         <v>139</v>
       </c>
       <c r="G77" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="78" spans="4:7" x14ac:dyDescent="0.35">
@@ -14389,13 +14386,13 @@
         <v>280</v>
       </c>
       <c r="E78" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F78" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G78" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="79" spans="4:7" x14ac:dyDescent="0.35">
@@ -14403,13 +14400,13 @@
         <v>280</v>
       </c>
       <c r="E79" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F79" t="s">
         <v>139</v>
       </c>
       <c r="G79" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="80" spans="4:7" x14ac:dyDescent="0.35">
@@ -14417,13 +14414,13 @@
         <v>280</v>
       </c>
       <c r="E80" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F80" t="s">
         <v>139</v>
       </c>
       <c r="G80" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="81" spans="4:7" x14ac:dyDescent="0.35">
@@ -14431,13 +14428,13 @@
         <v>280</v>
       </c>
       <c r="E81" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F81" t="s">
         <v>139</v>
       </c>
       <c r="G81" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="82" spans="4:7" x14ac:dyDescent="0.35">
@@ -14445,13 +14442,13 @@
         <v>280</v>
       </c>
       <c r="E82" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F82" t="s">
         <v>139</v>
       </c>
       <c r="G82" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="83" spans="4:7" x14ac:dyDescent="0.35">
@@ -14459,13 +14456,13 @@
         <v>280</v>
       </c>
       <c r="E83" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F83" t="s">
         <v>139</v>
       </c>
       <c r="G83" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="84" spans="4:7" x14ac:dyDescent="0.35">
@@ -14473,13 +14470,13 @@
         <v>280</v>
       </c>
       <c r="E84" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F84" t="s">
         <v>139</v>
       </c>
       <c r="G84" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="4:7" x14ac:dyDescent="0.35">
@@ -14487,13 +14484,13 @@
         <v>280</v>
       </c>
       <c r="E85" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F85" t="s">
         <v>139</v>
       </c>
       <c r="G85" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="86" spans="4:7" x14ac:dyDescent="0.35">
@@ -14501,13 +14498,13 @@
         <v>280</v>
       </c>
       <c r="E86" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F86" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G86" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="87" spans="4:7" x14ac:dyDescent="0.35">
@@ -14523,7 +14520,7 @@
         <v>#N/A</v>
       </c>
       <c r="G87" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="88" spans="4:7" x14ac:dyDescent="0.35">
@@ -14531,13 +14528,13 @@
         <v>281</v>
       </c>
       <c r="E88" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F88" t="s">
         <v>139</v>
       </c>
       <c r="G88" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="89" spans="4:7" x14ac:dyDescent="0.35">
@@ -14545,13 +14542,13 @@
         <v>281</v>
       </c>
       <c r="E89" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F89" t="s">
         <v>299</v>
       </c>
       <c r="G89" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="90" spans="4:7" x14ac:dyDescent="0.35">
@@ -14559,13 +14556,13 @@
         <v>281</v>
       </c>
       <c r="E90" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F90" t="s">
         <v>299</v>
       </c>
       <c r="G90" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="91" spans="4:7" x14ac:dyDescent="0.35">
@@ -14573,13 +14570,13 @@
         <v>281</v>
       </c>
       <c r="E91" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F91" t="s">
         <v>139</v>
       </c>
       <c r="G91" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="92" spans="4:7" x14ac:dyDescent="0.35">
@@ -14587,13 +14584,13 @@
         <v>281</v>
       </c>
       <c r="E92" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F92" t="s">
         <v>299</v>
       </c>
       <c r="G92" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="4:7" x14ac:dyDescent="0.35">
@@ -14601,13 +14598,13 @@
         <v>281</v>
       </c>
       <c r="E93" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F93" t="s">
         <v>299</v>
       </c>
       <c r="G93" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="94" spans="4:7" x14ac:dyDescent="0.35">
@@ -14615,13 +14612,13 @@
         <v>281</v>
       </c>
       <c r="E94" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F94" t="s">
         <v>299</v>
       </c>
       <c r="G94" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="95" spans="4:7" x14ac:dyDescent="0.35">
@@ -14629,13 +14626,13 @@
         <v>281</v>
       </c>
       <c r="E95" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F95" t="s">
         <v>299</v>
       </c>
       <c r="G95" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" spans="4:7" x14ac:dyDescent="0.35">
@@ -14643,13 +14640,13 @@
         <v>281</v>
       </c>
       <c r="E96" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F96" t="s">
         <v>139</v>
       </c>
       <c r="G96" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="97" spans="4:7" x14ac:dyDescent="0.35">
@@ -14657,13 +14654,13 @@
         <v>281</v>
       </c>
       <c r="E97" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F97" t="s">
         <v>299</v>
       </c>
       <c r="G97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="98" spans="4:7" x14ac:dyDescent="0.35">
@@ -14671,13 +14668,13 @@
         <v>281</v>
       </c>
       <c r="E98" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F98" t="s">
         <v>299</v>
       </c>
       <c r="G98" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="99" spans="4:7" x14ac:dyDescent="0.35">
@@ -14685,13 +14682,13 @@
         <v>281</v>
       </c>
       <c r="E99" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F99" t="s">
         <v>299</v>
       </c>
       <c r="G99" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="100" spans="4:7" x14ac:dyDescent="0.35">
@@ -14699,13 +14696,13 @@
         <v>281</v>
       </c>
       <c r="E100" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F100" t="s">
         <v>139</v>
       </c>
       <c r="G100" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="101" spans="4:7" x14ac:dyDescent="0.35">
@@ -14713,13 +14710,13 @@
         <v>281</v>
       </c>
       <c r="E101" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F101" t="s">
         <v>299</v>
       </c>
       <c r="G101" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="102" spans="4:7" x14ac:dyDescent="0.35">
@@ -14727,13 +14724,13 @@
         <v>281</v>
       </c>
       <c r="E102" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F102" t="s">
         <v>299</v>
       </c>
       <c r="G102" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="103" spans="4:7" x14ac:dyDescent="0.35">
@@ -14741,13 +14738,13 @@
         <v>281</v>
       </c>
       <c r="E103" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F103" t="s">
         <v>299</v>
       </c>
       <c r="G103" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="104" spans="4:7" x14ac:dyDescent="0.35">
@@ -14755,13 +14752,13 @@
         <v>281</v>
       </c>
       <c r="E104" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F104" t="s">
         <v>299</v>
       </c>
       <c r="G104" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="105" spans="4:7" x14ac:dyDescent="0.35">
@@ -14769,13 +14766,13 @@
         <v>281</v>
       </c>
       <c r="E105" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F105" t="s">
         <v>299</v>
       </c>
       <c r="G105" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="106" spans="4:7" x14ac:dyDescent="0.35">
@@ -14783,13 +14780,13 @@
         <v>281</v>
       </c>
       <c r="E106" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F106" t="s">
         <v>299</v>
       </c>
       <c r="G106" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="107" spans="4:7" x14ac:dyDescent="0.35">
@@ -14805,7 +14802,7 @@
         <v>#N/A</v>
       </c>
       <c r="G107" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="108" spans="4:7" x14ac:dyDescent="0.35">
@@ -14813,13 +14810,13 @@
         <v>282</v>
       </c>
       <c r="E108" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F108" t="s">
         <v>139</v>
       </c>
       <c r="G108" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="109" spans="4:7" x14ac:dyDescent="0.35">
@@ -14827,13 +14824,13 @@
         <v>282</v>
       </c>
       <c r="E109" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F109" t="s">
         <v>139</v>
       </c>
       <c r="G109" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="4:7" x14ac:dyDescent="0.35">
@@ -14841,13 +14838,13 @@
         <v>282</v>
       </c>
       <c r="E110" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F110" t="s">
         <v>139</v>
       </c>
       <c r="G110" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="111" spans="4:7" x14ac:dyDescent="0.35">
@@ -14855,13 +14852,13 @@
         <v>282</v>
       </c>
       <c r="E111" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F111" t="s">
         <v>139</v>
       </c>
       <c r="G111" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="112" spans="4:7" x14ac:dyDescent="0.35">
@@ -14869,13 +14866,13 @@
         <v>282</v>
       </c>
       <c r="E112" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F112" t="s">
         <v>139</v>
       </c>
       <c r="G112" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="113" spans="4:7" x14ac:dyDescent="0.35">
@@ -14883,13 +14880,13 @@
         <v>282</v>
       </c>
       <c r="E113" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F113" t="s">
         <v>139</v>
       </c>
       <c r="G113" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="114" spans="4:7" x14ac:dyDescent="0.35">
@@ -14897,13 +14894,13 @@
         <v>282</v>
       </c>
       <c r="E114" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G114" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="115" spans="4:7" x14ac:dyDescent="0.35">
@@ -14911,13 +14908,13 @@
         <v>282</v>
       </c>
       <c r="E115" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F115" t="s">
         <v>299</v>
       </c>
       <c r="G115" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="116" spans="4:7" x14ac:dyDescent="0.35">
@@ -14925,13 +14922,13 @@
         <v>282</v>
       </c>
       <c r="E116" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F116" t="s">
         <v>139</v>
       </c>
       <c r="G116" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="117" spans="4:7" x14ac:dyDescent="0.35">
@@ -14939,13 +14936,13 @@
         <v>282</v>
       </c>
       <c r="E117" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F117" t="s">
         <v>139</v>
       </c>
       <c r="G117" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="118" spans="4:7" x14ac:dyDescent="0.35">
@@ -14953,13 +14950,13 @@
         <v>282</v>
       </c>
       <c r="E118" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F118" t="s">
         <v>299</v>
       </c>
       <c r="G118" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="119" spans="4:7" x14ac:dyDescent="0.35">
@@ -14967,13 +14964,13 @@
         <v>282</v>
       </c>
       <c r="E119" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F119" t="s">
         <v>139</v>
       </c>
       <c r="G119" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="120" spans="4:7" x14ac:dyDescent="0.35">
@@ -14981,13 +14978,13 @@
         <v>282</v>
       </c>
       <c r="E120" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F120" t="s">
         <v>139</v>
       </c>
       <c r="G120" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="121" spans="4:7" x14ac:dyDescent="0.35">
@@ -14995,13 +14992,13 @@
         <v>282</v>
       </c>
       <c r="E121" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F121" t="s">
         <v>299</v>
       </c>
       <c r="G121" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="122" spans="4:7" x14ac:dyDescent="0.35">
@@ -15009,13 +15006,13 @@
         <v>282</v>
       </c>
       <c r="E122" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F122" t="s">
         <v>139</v>
       </c>
       <c r="G122" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="123" spans="4:7" x14ac:dyDescent="0.35">
@@ -15023,13 +15020,13 @@
         <v>282</v>
       </c>
       <c r="E123" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F123" t="s">
         <v>299</v>
       </c>
       <c r="G123" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="124" spans="4:7" x14ac:dyDescent="0.35">
@@ -15037,13 +15034,13 @@
         <v>282</v>
       </c>
       <c r="E124" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F124" t="s">
         <v>139</v>
       </c>
       <c r="G124" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="125" spans="4:7" x14ac:dyDescent="0.35">
@@ -15051,13 +15048,13 @@
         <v>282</v>
       </c>
       <c r="E125" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F125" t="s">
         <v>139</v>
       </c>
       <c r="G125" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="126" spans="4:7" x14ac:dyDescent="0.35">
@@ -15065,13 +15062,13 @@
         <v>282</v>
       </c>
       <c r="E126" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F126" t="s">
         <v>139</v>
       </c>
       <c r="G126" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="127" spans="4:7" x14ac:dyDescent="0.35">
@@ -15079,13 +15076,13 @@
         <v>282</v>
       </c>
       <c r="E127" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F127" t="s">
         <v>139</v>
       </c>
       <c r="G127" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="128" spans="4:7" x14ac:dyDescent="0.35">
@@ -15093,13 +15090,13 @@
         <v>282</v>
       </c>
       <c r="E128" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F128" t="s">
         <v>139</v>
       </c>
       <c r="G128" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="129" spans="4:7" x14ac:dyDescent="0.35">
@@ -15107,13 +15104,13 @@
         <v>282</v>
       </c>
       <c r="E129" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F129" t="s">
         <v>299</v>
       </c>
       <c r="G129" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="130" spans="4:7" x14ac:dyDescent="0.35">
@@ -15121,13 +15118,13 @@
         <v>282</v>
       </c>
       <c r="E130" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F130" t="s">
         <v>139</v>
       </c>
       <c r="G130" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="131" spans="4:7" x14ac:dyDescent="0.35">
@@ -15135,13 +15132,13 @@
         <v>282</v>
       </c>
       <c r="E131" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F131" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G131" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="132" spans="4:7" x14ac:dyDescent="0.35">
@@ -15149,13 +15146,13 @@
         <v>282</v>
       </c>
       <c r="E132" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F132" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G132" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="133" spans="4:7" x14ac:dyDescent="0.35">
@@ -15163,13 +15160,13 @@
         <v>282</v>
       </c>
       <c r="E133" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F133" t="s">
         <v>299</v>
       </c>
       <c r="G133" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="134" spans="4:7" x14ac:dyDescent="0.35">
@@ -15185,7 +15182,7 @@
         <v>#N/A</v>
       </c>
       <c r="G134" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="135" spans="4:7" x14ac:dyDescent="0.35">
@@ -15193,13 +15190,13 @@
         <v>283</v>
       </c>
       <c r="E135" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F135" t="s">
         <v>139</v>
       </c>
       <c r="G135" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="136" spans="4:7" x14ac:dyDescent="0.35">
@@ -15207,13 +15204,13 @@
         <v>283</v>
       </c>
       <c r="E136" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F136" t="s">
         <v>139</v>
       </c>
       <c r="G136" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="137" spans="4:7" x14ac:dyDescent="0.35">
@@ -15221,13 +15218,13 @@
         <v>283</v>
       </c>
       <c r="E137" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F137" t="s">
         <v>139</v>
       </c>
       <c r="G137" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="138" spans="4:7" x14ac:dyDescent="0.35">
@@ -15235,13 +15232,13 @@
         <v>283</v>
       </c>
       <c r="E138" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F138" t="s">
         <v>139</v>
       </c>
       <c r="G138" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="139" spans="4:7" x14ac:dyDescent="0.35">
@@ -15249,13 +15246,13 @@
         <v>283</v>
       </c>
       <c r="E139" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F139" t="s">
         <v>299</v>
       </c>
       <c r="G139" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="140" spans="4:7" x14ac:dyDescent="0.35">
@@ -15263,13 +15260,13 @@
         <v>283</v>
       </c>
       <c r="E140" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F140" t="s">
         <v>139</v>
       </c>
       <c r="G140" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="141" spans="4:7" x14ac:dyDescent="0.35">
@@ -15277,13 +15274,13 @@
         <v>283</v>
       </c>
       <c r="E141" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F141" t="s">
         <v>139</v>
       </c>
       <c r="G141" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="142" spans="4:7" x14ac:dyDescent="0.35">
@@ -15291,13 +15288,13 @@
         <v>283</v>
       </c>
       <c r="E142" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F142" t="s">
         <v>139</v>
       </c>
       <c r="G142" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="143" spans="4:7" x14ac:dyDescent="0.35">
@@ -15305,13 +15302,13 @@
         <v>283</v>
       </c>
       <c r="E143" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F143" t="s">
         <v>299</v>
       </c>
       <c r="G143" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="144" spans="4:7" x14ac:dyDescent="0.35">
@@ -15319,13 +15316,13 @@
         <v>283</v>
       </c>
       <c r="E144" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F144" t="s">
         <v>299</v>
       </c>
       <c r="G144" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="145" spans="4:7" x14ac:dyDescent="0.35">
@@ -15333,13 +15330,13 @@
         <v>283</v>
       </c>
       <c r="E145" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F145" t="s">
         <v>299</v>
       </c>
       <c r="G145" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="146" spans="4:7" x14ac:dyDescent="0.35">
@@ -15347,13 +15344,13 @@
         <v>283</v>
       </c>
       <c r="E146" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F146" t="s">
         <v>299</v>
       </c>
       <c r="G146" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="147" spans="4:7" x14ac:dyDescent="0.35">
@@ -15361,14 +15358,14 @@
         <v>284</v>
       </c>
       <c r="E147" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F147" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="G147" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="148" spans="4:7" x14ac:dyDescent="0.35">
@@ -15384,7 +15381,7 @@
         <v>#N/A</v>
       </c>
       <c r="G148" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="149" spans="4:7" x14ac:dyDescent="0.35">
@@ -15392,13 +15389,13 @@
         <v>285</v>
       </c>
       <c r="E149" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F149" t="s">
         <v>299</v>
       </c>
       <c r="G149" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="150" spans="4:7" x14ac:dyDescent="0.35">
@@ -15406,13 +15403,13 @@
         <v>285</v>
       </c>
       <c r="E150" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F150" t="s">
         <v>139</v>
       </c>
       <c r="G150" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="151" spans="4:7" x14ac:dyDescent="0.35">
@@ -15420,13 +15417,13 @@
         <v>285</v>
       </c>
       <c r="E151" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F151" t="s">
         <v>139</v>
       </c>
       <c r="G151" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="152" spans="4:7" x14ac:dyDescent="0.35">
@@ -15434,13 +15431,13 @@
         <v>285</v>
       </c>
       <c r="E152" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F152" t="s">
         <v>139</v>
       </c>
       <c r="G152" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="153" spans="4:7" x14ac:dyDescent="0.35">
@@ -15448,13 +15445,13 @@
         <v>285</v>
       </c>
       <c r="E153" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F153" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G153" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="154" spans="4:7" x14ac:dyDescent="0.35">
@@ -15462,13 +15459,13 @@
         <v>285</v>
       </c>
       <c r="E154" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F154" t="s">
         <v>139</v>
       </c>
       <c r="G154" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="155" spans="4:7" x14ac:dyDescent="0.35">
@@ -15476,13 +15473,13 @@
         <v>285</v>
       </c>
       <c r="E155" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F155" t="s">
         <v>139</v>
       </c>
       <c r="G155" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="156" spans="4:7" x14ac:dyDescent="0.35">
@@ -15490,13 +15487,13 @@
         <v>285</v>
       </c>
       <c r="E156" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F156" t="s">
         <v>139</v>
       </c>
       <c r="G156" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="157" spans="4:7" x14ac:dyDescent="0.35">
@@ -15504,13 +15501,13 @@
         <v>285</v>
       </c>
       <c r="E157" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F157" t="s">
         <v>299</v>
       </c>
       <c r="G157" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="158" spans="4:7" x14ac:dyDescent="0.35">
@@ -15518,18 +15515,18 @@
         <v>285</v>
       </c>
       <c r="E158" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F158" t="s">
         <v>139</v>
       </c>
       <c r="G158" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="159" spans="4:7" x14ac:dyDescent="0.35">
       <c r="G159" s="60" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
@@ -15571,7 +15568,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B1" s="129"/>
     </row>
@@ -15583,18 +15580,18 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D3" s="60" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B4" s="129" t="s">
         <v>297</v>
       </c>
       <c r="D4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E4" t="s">
         <v>145</v>
@@ -15626,7 +15623,7 @@
         <v>#N/A</v>
       </c>
       <c r="G5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -15640,13 +15637,13 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -15660,13 +15657,13 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F7" t="s">
         <v>139</v>
       </c>
       <c r="G7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -15680,13 +15677,13 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F8" t="s">
         <v>139</v>
       </c>
       <c r="G8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -15700,13 +15697,13 @@
         <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F9" t="s">
         <v>139</v>
       </c>
       <c r="G9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -15720,13 +15717,13 @@
         <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -15740,13 +15737,13 @@
         <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -15760,13 +15757,13 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F12" t="s">
         <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -15780,13 +15777,13 @@
         <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -15794,14 +15791,14 @@
         <v>277</v>
       </c>
       <c r="E14" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F14" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="G14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -15817,7 +15814,7 @@
         <v>#N/A</v>
       </c>
       <c r="G15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -15825,13 +15822,13 @@
         <v>278</v>
       </c>
       <c r="E16" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F16" t="s">
         <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.35">
@@ -15839,13 +15836,13 @@
         <v>278</v>
       </c>
       <c r="E17" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F17" t="s">
         <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.35">
@@ -15853,14 +15850,14 @@
         <v>279</v>
       </c>
       <c r="E18" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F18" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="G18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.35">
@@ -15876,7 +15873,7 @@
         <v>#N/A</v>
       </c>
       <c r="G19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.35">
@@ -15884,13 +15881,13 @@
         <v>280</v>
       </c>
       <c r="E20" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.35">
@@ -15898,13 +15895,13 @@
         <v>280</v>
       </c>
       <c r="E21" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F21" t="s">
         <v>139</v>
       </c>
       <c r="G21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.35">
@@ -15912,13 +15909,13 @@
         <v>280</v>
       </c>
       <c r="E22" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F22" t="s">
         <v>139</v>
       </c>
       <c r="G22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.35">
@@ -15926,13 +15923,13 @@
         <v>280</v>
       </c>
       <c r="E23" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F23" t="s">
         <v>139</v>
       </c>
       <c r="G23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.35">
@@ -15940,13 +15937,13 @@
         <v>280</v>
       </c>
       <c r="E24" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F24" t="s">
         <v>139</v>
       </c>
       <c r="G24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.35">
@@ -15954,13 +15951,13 @@
         <v>280</v>
       </c>
       <c r="E25" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F25" t="s">
         <v>139</v>
       </c>
       <c r="G25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.35">
@@ -15968,13 +15965,13 @@
         <v>280</v>
       </c>
       <c r="E26" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F26" t="s">
         <v>139</v>
       </c>
       <c r="G26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.35">
@@ -15982,13 +15979,13 @@
         <v>280</v>
       </c>
       <c r="E27" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F27" t="s">
         <v>139</v>
       </c>
       <c r="G27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.35">
@@ -15996,13 +15993,13 @@
         <v>280</v>
       </c>
       <c r="E28" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F28" t="s">
         <v>139</v>
       </c>
       <c r="G28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.35">
@@ -16010,13 +16007,13 @@
         <v>280</v>
       </c>
       <c r="E29" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F29" t="s">
         <v>139</v>
       </c>
       <c r="G29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.35">
@@ -16024,13 +16021,13 @@
         <v>280</v>
       </c>
       <c r="E30" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.35">
@@ -16038,13 +16035,13 @@
         <v>280</v>
       </c>
       <c r="E31" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.35">
@@ -16060,7 +16057,7 @@
         <v>#N/A</v>
       </c>
       <c r="G32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.35">
@@ -16068,13 +16065,13 @@
         <v>281</v>
       </c>
       <c r="E33" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F33" t="s">
         <v>139</v>
       </c>
       <c r="G33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.35">
@@ -16082,13 +16079,13 @@
         <v>281</v>
       </c>
       <c r="E34" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F34" t="s">
         <v>139</v>
       </c>
       <c r="G34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.35">
@@ -16096,13 +16093,13 @@
         <v>281</v>
       </c>
       <c r="E35" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F35" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G35" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.35">
@@ -16110,13 +16107,13 @@
         <v>281</v>
       </c>
       <c r="E36" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.35">
@@ -16132,7 +16129,7 @@
         <v>#N/A</v>
       </c>
       <c r="G37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.35">
@@ -16140,13 +16137,13 @@
         <v>282</v>
       </c>
       <c r="E38" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F38" t="s">
         <v>139</v>
       </c>
       <c r="G38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.35">
@@ -16154,13 +16151,13 @@
         <v>282</v>
       </c>
       <c r="E39" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.35">
@@ -16168,13 +16165,13 @@
         <v>282</v>
       </c>
       <c r="E40" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F40" t="s">
         <v>139</v>
       </c>
       <c r="G40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="4:7" x14ac:dyDescent="0.35">
@@ -16182,13 +16179,13 @@
         <v>282</v>
       </c>
       <c r="E41" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F41" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G41" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.35">
@@ -16196,13 +16193,13 @@
         <v>282</v>
       </c>
       <c r="E42" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="4:7" x14ac:dyDescent="0.35">
@@ -16210,13 +16207,13 @@
         <v>282</v>
       </c>
       <c r="E43" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F43" t="s">
         <v>139</v>
       </c>
       <c r="G43" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.35">
@@ -16224,13 +16221,13 @@
         <v>282</v>
       </c>
       <c r="E44" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G44" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.35">
@@ -16238,13 +16235,13 @@
         <v>282</v>
       </c>
       <c r="E45" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.35">
@@ -16260,7 +16257,7 @@
         <v>#N/A</v>
       </c>
       <c r="G46" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47" spans="4:7" x14ac:dyDescent="0.35">
@@ -16268,13 +16265,13 @@
         <v>283</v>
       </c>
       <c r="E47" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F47" t="s">
         <v>139</v>
       </c>
       <c r="G47" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.35">
@@ -16282,13 +16279,13 @@
         <v>283</v>
       </c>
       <c r="E48" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F48" t="s">
         <v>139</v>
       </c>
       <c r="G48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.35">
@@ -16296,14 +16293,14 @@
         <v>284</v>
       </c>
       <c r="E49" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F49" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="G49" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.35">
@@ -16311,19 +16308,19 @@
         <v>285</v>
       </c>
       <c r="E50" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F50" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="G50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="4:7" x14ac:dyDescent="0.35">
       <c r="G51" s="60" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
   </sheetData>
@@ -16346,7 +16343,7 @@
   <dimension ref="B2:I42"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17026,7 +17023,7 @@
     <row r="20" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="29" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -17110,7 +17107,7 @@
     <row r="24" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="181" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -17684,7 +17681,7 @@
     </row>
     <row r="6" spans="1:12" ht="364" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="225" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C6" s="226"/>
       <c r="D6" s="226"/>
@@ -17780,7 +17777,7 @@
         <v>289</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17794,7 +17791,7 @@
         <v>289</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17808,7 +17805,7 @@
         <v>292</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17822,7 +17819,7 @@
         <v>289</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17836,7 +17833,7 @@
         <v>291</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17850,7 +17847,7 @@
         <v>292</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17864,7 +17861,7 @@
         <v>289</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17878,7 +17875,7 @@
         <v>289</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17892,12 +17889,12 @@
         <v>290</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B25" s="45" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C25" s="64" t="s">
         <v>290</v>
@@ -17906,7 +17903,7 @@
         <v>292</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -18187,7 +18184,7 @@
     </row>
     <row r="55" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="225" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C55" s="226"/>
       <c r="D55" s="226"/>
@@ -18226,7 +18223,7 @@
     </row>
     <row r="61" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B61" s="225" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C61" s="226"/>
       <c r="D61" s="226"/>
@@ -18324,7 +18321,7 @@
   <dimension ref="B1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18365,7 +18362,7 @@
         <v>PF-BOL-001: Wellsprings Innovation Hub</v>
       </c>
       <c r="C6" s="206" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
@@ -18373,7 +18370,7 @@
         <v>PF-BOL-002: Bolton Market Upgrades</v>
       </c>
       <c r="C7" s="206" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
@@ -18381,7 +18378,7 @@
         <v>PF-BOL-003: Bolton Library &amp; Museum Upgrade</v>
       </c>
       <c r="C8" s="206" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
@@ -18389,7 +18386,7 @@
         <v>PF-BOL-004: Public Realm Improvements</v>
       </c>
       <c r="C9" s="206" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
@@ -18397,7 +18394,7 @@
         <v>PF-BOL-005: Accelerated Funding £1 million Public Realm Improvements</v>
       </c>
       <c r="C10" s="206" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
@@ -18405,7 +18402,7 @@
         <v>PF-BOL-006: Farnworth Market Precinct</v>
       </c>
       <c r="C11" s="206" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
@@ -18413,7 +18410,7 @@
         <v>PF-BOL-007: Farnworth Leisure Centre Expansion</v>
       </c>
       <c r="C12" s="206" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
@@ -18421,7 +18418,7 @@
         <v>PF-BOL-008: Streets for All - Farnworth</v>
       </c>
       <c r="C13" s="206" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
@@ -18429,15 +18426,15 @@
         <v>PF-BOL-009: Bolton College of Medical Science</v>
       </c>
       <c r="C14" s="207" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B15" s="87" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
@@ -19778,7 +19775,7 @@
         <v>119</v>
       </c>
       <c r="C19" s="142" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D19" s="180" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C19, 'Dropdown Values'!$A$43:$B$77, 2, FALSE), "")</f>
@@ -19879,7 +19876,7 @@
         <v>300</v>
       </c>
       <c r="C20" s="143" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D20" s="73" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C20, 'Dropdown Values'!$A$43:$B$77, 2, FALSE), "")</f>
@@ -19977,13 +19974,13 @@
     <row r="21" spans="1:60" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="112"/>
       <c r="B21" s="70" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C21" s="143" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D21" s="73" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E21" s="154">
         <v>4</v>
@@ -21808,10 +21805,10 @@
     <row r="45" spans="1:60" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="112"/>
       <c r="B45" s="142" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C45" s="142" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D45" s="72" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C45, Filtered_Bespoke_Outputs, 2, FALSE), "")</f>
@@ -21909,13 +21906,13 @@
     <row r="46" spans="1:60" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="112"/>
       <c r="B46" s="143" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C46" s="143" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D46" s="73" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E46" s="154">
         <v>2394</v>
@@ -30504,7 +30501,7 @@
         <v>302</v>
       </c>
       <c r="C19" s="142" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D19" s="72" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C19, 'Dropdown Values'!$A$82:$B$104, 2, FALSE), "")</f>
@@ -30586,10 +30583,10 @@
         <v>305</v>
       </c>
       <c r="C20" s="143" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D20" s="73" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E20" s="154">
         <v>33</v>
@@ -32019,13 +32016,13 @@
     <row r="45" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="112"/>
       <c r="B45" s="142" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C45" s="142" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D45" s="72" t="s">
         <v>1122</v>
-      </c>
-      <c r="D45" s="72" t="s">
-        <v>1123</v>
       </c>
       <c r="E45" s="150">
         <v>345</v>
@@ -37702,8 +37699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD05DD0-7124-4A36-99BE-80113683F5E3}">
   <dimension ref="A2:AF90"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A63" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P74" sqref="P74:Q74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -38741,7 +38738,7 @@
     <row r="31" spans="1:32" ht="239.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="339"/>
       <c r="B31" s="312" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C31" s="231"/>
       <c r="D31" s="231"/>
@@ -39978,7 +39975,7 @@
     <row r="57" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="112"/>
       <c r="B57" s="312" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C57" s="231"/>
       <c r="D57" s="231"/>
@@ -40196,7 +40193,7 @@
     <row r="63" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="112"/>
       <c r="B63" s="312" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C63" s="231"/>
       <c r="D63" s="231"/>
@@ -40469,7 +40466,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="379" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D70" s="379"/>
       <c r="E70" s="359" t="s">
@@ -40477,7 +40474,7 @@
       </c>
       <c r="F70" s="359"/>
       <c r="G70" s="379" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H70" s="379"/>
       <c r="I70" s="359" t="s">
@@ -40488,11 +40485,11 @@
         <v>20</v>
       </c>
       <c r="L70" s="385" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="M70" s="385"/>
       <c r="N70" s="376" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="O70" s="376"/>
       <c r="P70" s="379" t="s">
@@ -42098,32 +42095,32 @@
     </row>
     <row r="9" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B9" s="76" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G9" s="80">
         <f>IFERROR(VALUE(LEFT(E9,1))*VALUE(LEFT(F9,1)),"N/A")</f>
         <v>25</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K9" s="139">
         <f>IFERROR(VALUE(LEFT(I9,1))*VALUE(LEFT(J9,1)),"N/A")</f>
@@ -42132,32 +42129,32 @@
     </row>
     <row r="10" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B10" s="76" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G10" s="80">
         <f t="shared" ref="G10:G13" si="0">IFERROR(VALUE(LEFT(E10,1))*VALUE(LEFT(F10,1)),"N/A")</f>
         <v>8</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K10" s="139">
         <f t="shared" ref="K10:K13" si="1">IFERROR(VALUE(LEFT(I10,1))*VALUE(LEFT(J10,1)),"N/A")</f>
@@ -42166,32 +42163,32 @@
     </row>
     <row r="11" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B11" s="76" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>1102</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>1103</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G11" s="80">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K11" s="139">
         <f t="shared" si="1"/>
@@ -42200,32 +42197,32 @@
     </row>
     <row r="12" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B12" s="76" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>1105</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>1106</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G12" s="80">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K12" s="139">
         <f t="shared" si="1"/>
@@ -42234,32 +42231,32 @@
     </row>
     <row r="13" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B13" s="78" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>380</v>
+      </c>
+      <c r="D13" s="75" t="s">
         <v>1108</v>
       </c>
-      <c r="C13" s="75" t="s">
-        <v>381</v>
-      </c>
-      <c r="D13" s="75" t="s">
-        <v>1109</v>
-      </c>
       <c r="E13" s="75" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F13" s="75" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G13" s="81">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H13" s="75" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I13" s="75" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J13" s="75" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K13" s="140">
         <f t="shared" si="1"/>

--- a/tests/integration_tests/mock_pf_returns/PF_Round_1_Cross_Table_Validation_Failures.xlsx
+++ b/tests/integration_tests/mock_pf_returns/PF_Round_1_Cross_Table_Validation_Failures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mhclg-my.sharepoint.com/personal/william_may_communities_gov_uk/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PearceJ\stash\funding-service-design-post-award-data-store\tests\integration_tests\mock_pf_returns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{D950AD9E-B26D-45B5-B579-8634D14D4A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5D0EC41-E0DE-4AB7-9DDD-809C448FE024}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC3692D-E34A-465D-A5D7-A78C06987839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="661" firstSheet="1" activeTab="10" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="661" firstSheet="4" activeTab="10" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="13" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="1124">
   <si>
     <t>Reporting Round</t>
   </si>
@@ -3782,6 +3782,9 @@
   </si>
   <si>
     <t>Invalid bespoke outcome UoM</t>
+  </si>
+  <si>
+    <t>Enhancing sub-regional and regional connectivity</t>
   </si>
 </sst>
 </file>
@@ -6144,6 +6147,12 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6162,14 +6171,20 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6179,36 +6194,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6240,16 +6225,127 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6273,12 +6369,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6288,119 +6378,11 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6432,22 +6414,83 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6459,6 +6502,105 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6467,9 +6609,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6534,142 +6673,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6712,14 +6715,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="47">
     <dxf>
       <font>
         <color theme="1" tint="0.249977111117893"/>
@@ -7112,13 +7115,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7676,10 +7672,10 @@
     <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="215"/>
+      <c r="C2" s="217"/>
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
@@ -7931,8 +7927,8 @@
   </sheetPr>
   <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8223,7 +8219,7 @@
         <v>299</v>
       </c>
       <c r="C48" s="125" t="s">
-        <v>366</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
@@ -8345,7 +8341,7 @@
         <v>139</v>
       </c>
       <c r="C59" s="125" t="s">
-        <v>366</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
@@ -8612,7 +8608,7 @@
         <v>342</v>
       </c>
       <c r="C84" s="125" t="s">
-        <v>366</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -8623,7 +8619,7 @@
         <v>139</v>
       </c>
       <c r="C85" s="125" t="s">
-        <v>366</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -8634,7 +8630,7 @@
         <v>139</v>
       </c>
       <c r="C86" s="125" t="s">
-        <v>366</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -8755,7 +8751,7 @@
         <v>139</v>
       </c>
       <c r="C97" s="125" t="s">
-        <v>366</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -8799,7 +8795,7 @@
         <v>342</v>
       </c>
       <c r="C101" s="125" t="s">
-        <v>366</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -8832,7 +8828,7 @@
         <v>139</v>
       </c>
       <c r="C104" s="125" t="s">
-        <v>366</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -16357,10 +16353,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="215"/>
+      <c r="C2" s="217"/>
     </row>
     <row r="3" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="205" t="s">
@@ -16370,16 +16366,16 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="211"/>
+      <c r="C4" s="213"/>
     </row>
     <row r="5" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="213" t="s">
+      <c r="C5" s="215" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="6"/>
@@ -16391,138 +16387,138 @@
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="214" t="s">
+      <c r="B7" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="215"/>
+      <c r="C7" s="217"/>
       <c r="I7" s="112"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I8" s="112"/>
     </row>
     <row r="9" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="210" t="s">
+      <c r="B9" s="212" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="211"/>
+      <c r="C9" s="213"/>
     </row>
     <row r="10" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="212" t="s">
+      <c r="B10" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="213"/>
+      <c r="C10" s="215"/>
     </row>
     <row r="11" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="19"/>
     </row>
     <row r="12" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="210" t="s">
+      <c r="B12" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="211"/>
+      <c r="C12" s="213"/>
     </row>
     <row r="13" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="216" t="s">
+      <c r="B13" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="217"/>
+      <c r="C13" s="211"/>
     </row>
     <row r="14" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="25"/>
       <c r="C14" s="19"/>
     </row>
     <row r="15" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="210" t="s">
+      <c r="B15" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="211"/>
+      <c r="C15" s="213"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="216" t="s">
+      <c r="B16" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="217"/>
+      <c r="C16" s="211"/>
     </row>
     <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="25"/>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="2:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="210" t="s">
+      <c r="B18" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="211"/>
+      <c r="C18" s="213"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="216" t="s">
+      <c r="B19" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="217"/>
+      <c r="C19" s="211"/>
     </row>
     <row r="20" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B20" s="25"/>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="210" t="s">
+      <c r="B21" s="212" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="211"/>
+      <c r="C21" s="213"/>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="216" t="s">
+      <c r="B22" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="217"/>
+      <c r="C22" s="211"/>
     </row>
     <row r="23" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B23" s="25"/>
       <c r="C23" s="19"/>
     </row>
     <row r="24" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="210" t="s">
+      <c r="B24" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="211"/>
+      <c r="C24" s="213"/>
     </row>
     <row r="25" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="216" t="s">
+      <c r="B25" s="210" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="217"/>
+      <c r="C25" s="211"/>
     </row>
     <row r="26" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="25"/>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="210" t="s">
+      <c r="B27" s="212" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="211"/>
+      <c r="C27" s="213"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="216" t="s">
+      <c r="B28" s="210" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="217"/>
+      <c r="C28" s="211"/>
     </row>
     <row r="29" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" s="25"/>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="210" t="s">
+      <c r="B30" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="211"/>
+      <c r="C30" s="213"/>
     </row>
     <row r="31" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="216" t="s">
+      <c r="B31" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="217"/>
+      <c r="C31" s="211"/>
     </row>
     <row r="34" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16569,6 +16565,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B27:C27"/>
@@ -16579,16 +16585,6 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
@@ -17644,12 +17640,12 @@
   <sheetData>
     <row r="2" spans="1:12" s="12" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="217"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -17664,34 +17660,34 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="223" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="221"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="225"/>
     </row>
     <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="222" t="s">
+      <c r="B5" s="236" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="223"/>
-      <c r="D5" s="223"/>
-      <c r="E5" s="224"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="238"/>
     </row>
     <row r="6" spans="1:12" ht="364" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="225" t="s">
+      <c r="B6" s="218" t="s">
         <v>1069</v>
       </c>
-      <c r="C6" s="226"/>
-      <c r="D6" s="226"/>
-      <c r="E6" s="227"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="220"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="218" t="s">
+      <c r="B7" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="218"/>
+      <c r="C7" s="221"/>
       <c r="E7" s="59" t="s">
         <v>79</v>
       </c>
@@ -17701,37 +17697,37 @@
       <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="236" t="s">
+      <c r="B9" s="230" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="237"/>
-      <c r="D9" s="237"/>
-      <c r="E9" s="238"/>
+      <c r="C9" s="231"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="232"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="233" t="s">
+      <c r="B10" s="227" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="234"/>
-      <c r="D10" s="235"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="229"/>
       <c r="E10" s="93" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="239" t="s">
+      <c r="B11" s="233" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="240"/>
-      <c r="D11" s="240"/>
-      <c r="E11" s="241"/>
+      <c r="C11" s="234"/>
+      <c r="D11" s="234"/>
+      <c r="E11" s="235"/>
     </row>
     <row r="12" spans="1:12" ht="349" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="225" t="s">
+      <c r="B12" s="218" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="226"/>
-      <c r="D12" s="231"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="222"/>
       <c r="E12" s="146" t="s">
         <v>85</v>
       </c>
@@ -18167,34 +18163,34 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="219" t="s">
+      <c r="B53" s="223" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="220"/>
-      <c r="D53" s="220"/>
-      <c r="E53" s="221"/>
+      <c r="C53" s="224"/>
+      <c r="D53" s="224"/>
+      <c r="E53" s="225"/>
     </row>
     <row r="54" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="222" t="s">
+      <c r="B54" s="236" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="223"/>
-      <c r="D54" s="223"/>
-      <c r="E54" s="224"/>
+      <c r="C54" s="237"/>
+      <c r="D54" s="237"/>
+      <c r="E54" s="238"/>
     </row>
     <row r="55" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="225" t="s">
+      <c r="B55" s="218" t="s">
         <v>1079</v>
       </c>
-      <c r="C55" s="226"/>
-      <c r="D55" s="226"/>
-      <c r="E55" s="227"/>
+      <c r="C55" s="219"/>
+      <c r="D55" s="219"/>
+      <c r="E55" s="220"/>
     </row>
     <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="218" t="s">
+      <c r="B56" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="218"/>
+      <c r="C56" s="221"/>
       <c r="E56" s="59" t="s">
         <v>96</v>
       </c>
@@ -18206,34 +18202,34 @@
       </c>
     </row>
     <row r="59" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="219" t="s">
+      <c r="B59" s="223" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="220"/>
-      <c r="D59" s="220"/>
-      <c r="E59" s="221"/>
+      <c r="C59" s="224"/>
+      <c r="D59" s="224"/>
+      <c r="E59" s="225"/>
     </row>
     <row r="60" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="228" t="s">
+      <c r="B60" s="239" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="229"/>
-      <c r="D60" s="229"/>
-      <c r="E60" s="230"/>
+      <c r="C60" s="240"/>
+      <c r="D60" s="240"/>
+      <c r="E60" s="241"/>
     </row>
     <row r="61" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="225" t="s">
+      <c r="B61" s="218" t="s">
         <v>1080</v>
       </c>
-      <c r="C61" s="226"/>
-      <c r="D61" s="226"/>
-      <c r="E61" s="227"/>
+      <c r="C61" s="219"/>
+      <c r="D61" s="219"/>
+      <c r="E61" s="220"/>
     </row>
     <row r="62" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="218" t="s">
+      <c r="B62" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="218"/>
+      <c r="C62" s="221"/>
       <c r="E62" s="59" t="s">
         <v>100</v>
       </c>
@@ -18258,6 +18254,14 @@
     <row r="78" spans="2:4" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B12:D12"/>
@@ -18267,31 +18271,23 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:E50">
-    <cfRule type="expression" dxfId="47" priority="1">
+    <cfRule type="expression" dxfId="46" priority="1">
       <formula>$B15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D50">
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
       <formula>"Amber"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
       <formula>"Select a rating"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18546,12 +18542,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B15:C40 B6:B14">
-    <cfRule type="expression" dxfId="42" priority="2">
-      <formula>$B6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C14">
+  <conditionalFormatting sqref="B6:C40">
     <cfRule type="expression" dxfId="41" priority="1">
       <formula>$B6=""</formula>
     </cfRule>
@@ -18664,14 +18655,14 @@
     </row>
     <row r="2" spans="1:60" s="12" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="217"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -18790,14 +18781,14 @@
     </row>
     <row r="4" spans="1:60" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="246" t="s">
+      <c r="B4" s="277" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="247"/>
-      <c r="F4" s="247"/>
-      <c r="G4" s="248"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="279"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -18854,14 +18845,14 @@
     </row>
     <row r="5" spans="1:60" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="280" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="250"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="252"/>
+      <c r="C5" s="281"/>
+      <c r="D5" s="282"/>
+      <c r="E5" s="282"/>
+      <c r="F5" s="282"/>
+      <c r="G5" s="283"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -18918,14 +18909,14 @@
     </row>
     <row r="6" spans="1:60" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="283" t="s">
+      <c r="B6" s="258" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="284"/>
-      <c r="D6" s="284"/>
-      <c r="E6" s="285"/>
-      <c r="F6" s="285"/>
-      <c r="G6" s="286"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="260"/>
+      <c r="G6" s="261"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -18985,13 +18976,13 @@
       <c r="B7" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="284" t="s">
+      <c r="C7" s="259" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="284"/>
-      <c r="E7" s="285"/>
-      <c r="F7" s="285"/>
-      <c r="G7" s="286"/>
+      <c r="D7" s="259"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="260"/>
+      <c r="G7" s="261"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -19051,13 +19042,13 @@
       <c r="B8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="268" t="s">
+      <c r="C8" s="262" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="268"/>
-      <c r="E8" s="269"/>
-      <c r="F8" s="269"/>
-      <c r="G8" s="270"/>
+      <c r="D8" s="262"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
+      <c r="G8" s="264"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
@@ -19117,13 +19108,13 @@
       <c r="B9" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="268" t="s">
+      <c r="C9" s="262" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="268"/>
-      <c r="E9" s="269"/>
-      <c r="F9" s="269"/>
-      <c r="G9" s="270"/>
+      <c r="D9" s="262"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="263"/>
+      <c r="G9" s="264"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -19183,13 +19174,13 @@
       <c r="B10" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="268" t="s">
+      <c r="C10" s="262" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="268"/>
-      <c r="E10" s="269"/>
-      <c r="F10" s="269"/>
-      <c r="G10" s="270"/>
+      <c r="D10" s="262"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="264"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
@@ -19249,13 +19240,13 @@
       <c r="B11" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="268" t="s">
+      <c r="C11" s="262" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="268"/>
-      <c r="E11" s="269"/>
-      <c r="F11" s="269"/>
-      <c r="G11" s="270"/>
+      <c r="D11" s="262"/>
+      <c r="E11" s="263"/>
+      <c r="F11" s="263"/>
+      <c r="G11" s="264"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
@@ -19315,13 +19306,13 @@
       <c r="B12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="271" t="s">
+      <c r="C12" s="267" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="271"/>
-      <c r="E12" s="272"/>
-      <c r="F12" s="272"/>
-      <c r="G12" s="273"/>
+      <c r="D12" s="267"/>
+      <c r="E12" s="268"/>
+      <c r="F12" s="268"/>
+      <c r="G12" s="269"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -19525,60 +19516,60 @@
     </row>
     <row r="16" spans="1:60" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="253" t="s">
+      <c r="B16" s="251" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="274" t="s">
+      <c r="C16" s="253" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="255" t="s">
+      <c r="D16" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="279" t="s">
+      <c r="E16" s="273" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="280"/>
-      <c r="G16" s="277" t="s">
+      <c r="F16" s="274"/>
+      <c r="G16" s="271" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="277"/>
-      <c r="I16" s="277"/>
-      <c r="J16" s="277"/>
-      <c r="K16" s="278"/>
-      <c r="L16" s="265" t="s">
+      <c r="H16" s="271"/>
+      <c r="I16" s="271"/>
+      <c r="J16" s="271"/>
+      <c r="K16" s="272"/>
+      <c r="L16" s="255" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="266"/>
-      <c r="N16" s="266"/>
-      <c r="O16" s="266"/>
-      <c r="P16" s="267"/>
+      <c r="M16" s="256"/>
+      <c r="N16" s="256"/>
+      <c r="O16" s="256"/>
+      <c r="P16" s="257"/>
       <c r="Q16" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="258" t="s">
+      <c r="R16" s="244" t="s">
         <v>130</v>
       </c>
       <c r="S16" s="112"/>
       <c r="T16" s="52"/>
       <c r="U16" s="52"/>
       <c r="V16" s="52"/>
-      <c r="W16" s="244"/>
-      <c r="X16" s="244"/>
-      <c r="Y16" s="244"/>
-      <c r="Z16" s="244"/>
-      <c r="AA16" s="244"/>
-      <c r="AB16" s="244"/>
-      <c r="AC16" s="244"/>
-      <c r="AD16" s="244"/>
-      <c r="AE16" s="244"/>
-      <c r="AF16" s="244"/>
-      <c r="AG16" s="244"/>
-      <c r="AH16" s="244"/>
-      <c r="AI16" s="244"/>
-      <c r="AJ16" s="244"/>
-      <c r="AK16" s="244"/>
+      <c r="W16" s="265"/>
+      <c r="X16" s="265"/>
+      <c r="Y16" s="265"/>
+      <c r="Z16" s="265"/>
+      <c r="AA16" s="265"/>
+      <c r="AB16" s="265"/>
+      <c r="AC16" s="265"/>
+      <c r="AD16" s="265"/>
+      <c r="AE16" s="265"/>
+      <c r="AF16" s="265"/>
+      <c r="AG16" s="265"/>
+      <c r="AH16" s="265"/>
+      <c r="AI16" s="265"/>
+      <c r="AJ16" s="265"/>
+      <c r="AK16" s="265"/>
       <c r="AL16" s="52"/>
-      <c r="AM16" s="244"/>
+      <c r="AM16" s="265"/>
       <c r="AN16" s="112"/>
       <c r="AO16" s="112"/>
       <c r="AP16" s="112"/>
@@ -19603,13 +19594,13 @@
     </row>
     <row r="17" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="254"/>
-      <c r="C17" s="275"/>
-      <c r="D17" s="256"/>
+      <c r="B17" s="252"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="285"/>
       <c r="E17" s="185" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="281" t="s">
+      <c r="F17" s="275" t="s">
         <v>132</v>
       </c>
       <c r="G17" s="85" t="s">
@@ -19624,7 +19615,7 @@
       <c r="J17" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="K17" s="260" t="s">
+      <c r="K17" s="246" t="s">
         <v>132</v>
       </c>
       <c r="L17" s="84" t="s">
@@ -19639,13 +19630,13 @@
       <c r="O17" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="P17" s="262" t="s">
+      <c r="P17" s="248" t="s">
         <v>132</v>
       </c>
-      <c r="Q17" s="263" t="s">
+      <c r="Q17" s="249" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="259"/>
+      <c r="R17" s="245"/>
       <c r="S17" s="112"/>
       <c r="T17" s="54"/>
       <c r="U17" s="54"/>
@@ -19654,19 +19645,19 @@
       <c r="X17" s="52"/>
       <c r="Y17" s="52"/>
       <c r="Z17" s="52"/>
-      <c r="AA17" s="245"/>
+      <c r="AA17" s="266"/>
       <c r="AB17" s="52"/>
       <c r="AC17" s="52"/>
       <c r="AD17" s="52"/>
       <c r="AE17" s="52"/>
-      <c r="AF17" s="245"/>
+      <c r="AF17" s="266"/>
       <c r="AG17" s="52"/>
       <c r="AH17" s="52"/>
       <c r="AI17" s="52"/>
       <c r="AJ17" s="52"/>
-      <c r="AK17" s="245"/>
-      <c r="AL17" s="245"/>
-      <c r="AM17" s="244"/>
+      <c r="AK17" s="266"/>
+      <c r="AL17" s="266"/>
+      <c r="AM17" s="265"/>
       <c r="AN17" s="112"/>
       <c r="AO17" s="112"/>
       <c r="AP17" s="112"/>
@@ -19691,13 +19682,13 @@
     </row>
     <row r="18" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="254"/>
-      <c r="C18" s="276"/>
-      <c r="D18" s="257"/>
+      <c r="B18" s="252"/>
+      <c r="C18" s="270"/>
+      <c r="D18" s="286"/>
       <c r="E18" s="183" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="282"/>
+      <c r="F18" s="276"/>
       <c r="G18" s="179" t="s">
         <v>137</v>
       </c>
@@ -19710,7 +19701,7 @@
       <c r="J18" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="K18" s="261"/>
+      <c r="K18" s="247"/>
       <c r="L18" s="68" t="s">
         <v>137</v>
       </c>
@@ -19723,9 +19714,9 @@
       <c r="O18" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="P18" s="261"/>
-      <c r="Q18" s="264"/>
-      <c r="R18" s="259"/>
+      <c r="P18" s="247"/>
+      <c r="Q18" s="250"/>
+      <c r="R18" s="245"/>
       <c r="S18" s="112"/>
       <c r="T18" s="53"/>
       <c r="U18" s="53"/>
@@ -19734,19 +19725,19 @@
       <c r="X18" s="55"/>
       <c r="Y18" s="55"/>
       <c r="Z18" s="55"/>
-      <c r="AA18" s="245"/>
+      <c r="AA18" s="266"/>
       <c r="AB18" s="55"/>
       <c r="AC18" s="55"/>
       <c r="AD18" s="55"/>
       <c r="AE18" s="55"/>
-      <c r="AF18" s="245"/>
+      <c r="AF18" s="266"/>
       <c r="AG18" s="55"/>
       <c r="AH18" s="55"/>
       <c r="AI18" s="55"/>
       <c r="AJ18" s="55"/>
-      <c r="AK18" s="245"/>
-      <c r="AL18" s="245"/>
-      <c r="AM18" s="244"/>
+      <c r="AK18" s="266"/>
+      <c r="AL18" s="266"/>
+      <c r="AM18" s="265"/>
       <c r="AN18" s="112"/>
       <c r="AO18" s="112"/>
       <c r="AP18" s="112"/>
@@ -21558,37 +21549,37 @@
     </row>
     <row r="42" spans="1:60" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="253" t="s">
+      <c r="B42" s="251" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="253" t="s">
+      <c r="C42" s="251" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="274" t="s">
+      <c r="D42" s="253" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="265" t="s">
+      <c r="E42" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="266"/>
-      <c r="G42" s="265" t="s">
+      <c r="F42" s="256"/>
+      <c r="G42" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="266"/>
-      <c r="I42" s="266"/>
-      <c r="J42" s="266"/>
-      <c r="K42" s="267"/>
-      <c r="L42" s="265" t="s">
+      <c r="H42" s="256"/>
+      <c r="I42" s="256"/>
+      <c r="J42" s="256"/>
+      <c r="K42" s="257"/>
+      <c r="L42" s="255" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="266"/>
-      <c r="N42" s="266"/>
-      <c r="O42" s="266"/>
-      <c r="P42" s="267"/>
+      <c r="M42" s="256"/>
+      <c r="N42" s="256"/>
+      <c r="O42" s="256"/>
+      <c r="P42" s="257"/>
       <c r="Q42" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R42" s="258" t="s">
+      <c r="R42" s="244" t="s">
         <v>130</v>
       </c>
       <c r="S42" s="112"/>
@@ -21600,18 +21591,18 @@
       <c r="Y42" s="112"/>
       <c r="Z42" s="112"/>
       <c r="AA42" s="112"/>
-      <c r="AB42" s="244"/>
-      <c r="AC42" s="244"/>
-      <c r="AD42" s="244"/>
-      <c r="AE42" s="244"/>
-      <c r="AF42" s="244"/>
-      <c r="AG42" s="244"/>
-      <c r="AH42" s="244"/>
-      <c r="AI42" s="244"/>
-      <c r="AJ42" s="244"/>
-      <c r="AK42" s="244"/>
+      <c r="AB42" s="265"/>
+      <c r="AC42" s="265"/>
+      <c r="AD42" s="265"/>
+      <c r="AE42" s="265"/>
+      <c r="AF42" s="265"/>
+      <c r="AG42" s="265"/>
+      <c r="AH42" s="265"/>
+      <c r="AI42" s="265"/>
+      <c r="AJ42" s="265"/>
+      <c r="AK42" s="265"/>
       <c r="AL42" s="52"/>
-      <c r="AM42" s="244"/>
+      <c r="AM42" s="265"/>
       <c r="AN42" s="112"/>
       <c r="AO42" s="112"/>
       <c r="AP42" s="112"/>
@@ -21636,13 +21627,13 @@
     </row>
     <row r="43" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="254"/>
-      <c r="C43" s="254"/>
-      <c r="D43" s="275"/>
+      <c r="B43" s="252"/>
+      <c r="C43" s="252"/>
+      <c r="D43" s="254"/>
       <c r="E43" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="260" t="s">
+      <c r="F43" s="246" t="s">
         <v>132</v>
       </c>
       <c r="G43" s="84" t="s">
@@ -21657,7 +21648,7 @@
       <c r="J43" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="K43" s="260" t="s">
+      <c r="K43" s="246" t="s">
         <v>132</v>
       </c>
       <c r="L43" s="84" t="s">
@@ -21672,13 +21663,13 @@
       <c r="O43" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="P43" s="262" t="s">
+      <c r="P43" s="248" t="s">
         <v>132</v>
       </c>
-      <c r="Q43" s="263" t="s">
+      <c r="Q43" s="249" t="s">
         <v>132</v>
       </c>
-      <c r="R43" s="259"/>
+      <c r="R43" s="245"/>
       <c r="S43" s="112"/>
       <c r="T43" s="54"/>
       <c r="U43" s="54"/>
@@ -21687,19 +21678,19 @@
       <c r="X43" s="52"/>
       <c r="Y43" s="52"/>
       <c r="Z43" s="52"/>
-      <c r="AA43" s="245"/>
+      <c r="AA43" s="266"/>
       <c r="AB43" s="52"/>
       <c r="AC43" s="52"/>
       <c r="AD43" s="52"/>
       <c r="AE43" s="52"/>
-      <c r="AF43" s="245"/>
+      <c r="AF43" s="266"/>
       <c r="AG43" s="52"/>
       <c r="AH43" s="52"/>
       <c r="AI43" s="52"/>
       <c r="AJ43" s="52"/>
-      <c r="AK43" s="245"/>
-      <c r="AL43" s="245"/>
-      <c r="AM43" s="244"/>
+      <c r="AK43" s="266"/>
+      <c r="AL43" s="266"/>
+      <c r="AM43" s="265"/>
       <c r="AN43" s="112"/>
       <c r="AO43" s="112"/>
       <c r="AP43" s="112"/>
@@ -21724,13 +21715,13 @@
     </row>
     <row r="44" spans="1:60" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="254"/>
-      <c r="C44" s="254"/>
-      <c r="D44" s="254"/>
+      <c r="B44" s="252"/>
+      <c r="C44" s="252"/>
+      <c r="D44" s="252"/>
       <c r="E44" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="261"/>
+      <c r="F44" s="247"/>
       <c r="G44" s="67" t="s">
         <v>137</v>
       </c>
@@ -21743,7 +21734,7 @@
       <c r="J44" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="261"/>
+      <c r="K44" s="247"/>
       <c r="L44" s="68" t="s">
         <v>137</v>
       </c>
@@ -21756,9 +21747,9 @@
       <c r="O44" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="P44" s="261"/>
-      <c r="Q44" s="264"/>
-      <c r="R44" s="259"/>
+      <c r="P44" s="247"/>
+      <c r="Q44" s="250"/>
+      <c r="R44" s="245"/>
       <c r="S44" s="112"/>
       <c r="T44" s="53"/>
       <c r="U44" s="53"/>
@@ -21767,19 +21758,19 @@
       <c r="X44" s="55"/>
       <c r="Y44" s="55"/>
       <c r="Z44" s="55"/>
-      <c r="AA44" s="245"/>
+      <c r="AA44" s="266"/>
       <c r="AB44" s="55"/>
       <c r="AC44" s="55"/>
       <c r="AD44" s="55"/>
       <c r="AE44" s="55"/>
-      <c r="AF44" s="245"/>
+      <c r="AF44" s="266"/>
       <c r="AG44" s="55"/>
       <c r="AH44" s="55"/>
       <c r="AI44" s="55"/>
       <c r="AJ44" s="55"/>
-      <c r="AK44" s="245"/>
-      <c r="AL44" s="245"/>
-      <c r="AM44" s="244"/>
+      <c r="AK44" s="266"/>
+      <c r="AL44" s="266"/>
+      <c r="AM44" s="265"/>
       <c r="AN44" s="112"/>
       <c r="AO44" s="112"/>
       <c r="AP44" s="112"/>
@@ -29433,37 +29424,6 @@
     <protectedRange sqref="L45:O45" name="Section_B_1_5"/>
   </protectedRanges>
   <mergeCells count="47">
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AK17:AK18"/>
-    <mergeCell ref="AL17:AL18"/>
-    <mergeCell ref="W16:AA16"/>
-    <mergeCell ref="AB16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="AB42:AF42"/>
     <mergeCell ref="AG42:AK42"/>
@@ -29480,6 +29440,37 @@
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AK17:AK18"/>
+    <mergeCell ref="AL17:AL18"/>
+    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E18 G18:J18">
@@ -29490,83 +29481,83 @@
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44:J44">
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+      <formula>"Forecast"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:J44">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
+      <formula>"Actual"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:O18">
-    <cfRule type="cellIs" dxfId="36" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="85" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="86" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44:O44">
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18:Z18">
-    <cfRule type="cellIs" dxfId="32" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="41" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W44:Z44">
-    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AE18">
-    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="40" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB44:AE44">
-    <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG18:AJ18">
-    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="37" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="38" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG44:AJ44">
-    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
-      <formula>"Forecast"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
-      <formula>"Actual"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29694,14 +29685,14 @@
     </row>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="217"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -29782,14 +29773,14 @@
     </row>
     <row r="4" spans="1:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="297" t="s">
+      <c r="B4" s="290" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="298"/>
-      <c r="D4" s="298"/>
-      <c r="E4" s="298"/>
-      <c r="F4" s="298"/>
-      <c r="G4" s="299"/>
+      <c r="C4" s="291"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="292"/>
       <c r="H4" s="112"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -29827,14 +29818,14 @@
     </row>
     <row r="5" spans="1:41" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="300" t="s">
+      <c r="B5" s="293" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="301"/>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="301"/>
-      <c r="G5" s="302"/>
+      <c r="C5" s="294"/>
+      <c r="D5" s="294"/>
+      <c r="E5" s="294"/>
+      <c r="F5" s="294"/>
+      <c r="G5" s="295"/>
       <c r="H5" s="112"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -29872,14 +29863,14 @@
     </row>
     <row r="6" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="303" t="s">
+      <c r="B6" s="296" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="304"/>
-      <c r="D6" s="304"/>
-      <c r="E6" s="304"/>
-      <c r="F6" s="304"/>
-      <c r="G6" s="305"/>
+      <c r="C6" s="297"/>
+      <c r="D6" s="297"/>
+      <c r="E6" s="297"/>
+      <c r="F6" s="297"/>
+      <c r="G6" s="298"/>
       <c r="H6" s="112"/>
       <c r="I6"/>
       <c r="J6"/>
@@ -29920,13 +29911,13 @@
       <c r="B7" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="285" t="s">
+      <c r="C7" s="260" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="305"/>
+      <c r="D7" s="297"/>
+      <c r="E7" s="297"/>
+      <c r="F7" s="297"/>
+      <c r="G7" s="298"/>
       <c r="H7" s="112"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -29967,13 +29958,13 @@
       <c r="B8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="269" t="s">
+      <c r="C8" s="263" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="292"/>
-      <c r="E8" s="292"/>
-      <c r="F8" s="292"/>
-      <c r="G8" s="293"/>
+      <c r="D8" s="299"/>
+      <c r="E8" s="299"/>
+      <c r="F8" s="299"/>
+      <c r="G8" s="300"/>
       <c r="H8" s="112"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -30014,13 +30005,13 @@
       <c r="B9" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="269" t="s">
+      <c r="C9" s="263" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="293"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="300"/>
       <c r="H9" s="112"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -30061,13 +30052,13 @@
       <c r="B10" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="269" t="s">
+      <c r="C10" s="263" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="292"/>
-      <c r="E10" s="292"/>
-      <c r="F10" s="292"/>
-      <c r="G10" s="293"/>
+      <c r="D10" s="299"/>
+      <c r="E10" s="299"/>
+      <c r="F10" s="299"/>
+      <c r="G10" s="300"/>
       <c r="H10" s="112"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -30108,13 +30099,13 @@
       <c r="B11" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="269" t="s">
+      <c r="C11" s="263" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="292"/>
-      <c r="E11" s="292"/>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
+      <c r="D11" s="299"/>
+      <c r="E11" s="299"/>
+      <c r="F11" s="299"/>
+      <c r="G11" s="300"/>
       <c r="H11" s="112"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -30155,13 +30146,13 @@
       <c r="B12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="272" t="s">
+      <c r="C12" s="268" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="294"/>
-      <c r="E12" s="294"/>
-      <c r="F12" s="294"/>
-      <c r="G12" s="295"/>
+      <c r="D12" s="301"/>
+      <c r="E12" s="301"/>
+      <c r="F12" s="301"/>
+      <c r="G12" s="302"/>
       <c r="H12" s="112"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -30308,37 +30299,37 @@
     </row>
     <row r="16" spans="1:41" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="253" t="s">
+      <c r="B16" s="251" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="253" t="s">
+      <c r="C16" s="251" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="274" t="s">
+      <c r="D16" s="253" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="265" t="s">
+      <c r="E16" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="266"/>
-      <c r="G16" s="265" t="s">
+      <c r="F16" s="256"/>
+      <c r="G16" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="266"/>
-      <c r="I16" s="266"/>
-      <c r="J16" s="266"/>
-      <c r="K16" s="267"/>
-      <c r="L16" s="265" t="s">
+      <c r="H16" s="256"/>
+      <c r="I16" s="256"/>
+      <c r="J16" s="256"/>
+      <c r="K16" s="257"/>
+      <c r="L16" s="255" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="266"/>
-      <c r="N16" s="266"/>
-      <c r="O16" s="266"/>
-      <c r="P16" s="267"/>
+      <c r="M16" s="256"/>
+      <c r="N16" s="256"/>
+      <c r="O16" s="256"/>
+      <c r="P16" s="257"/>
       <c r="Q16" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="258" t="s">
+      <c r="R16" s="244" t="s">
         <v>130</v>
       </c>
       <c r="S16" s="112"/>
@@ -30367,9 +30358,9 @@
     </row>
     <row r="17" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="254"/>
-      <c r="C17" s="254"/>
-      <c r="D17" s="275"/>
+      <c r="B17" s="252"/>
+      <c r="C17" s="252"/>
+      <c r="D17" s="254"/>
       <c r="E17" s="84" t="s">
         <v>131</v>
       </c>
@@ -30406,10 +30397,10 @@
       <c r="P17" s="287" t="s">
         <v>132</v>
       </c>
-      <c r="Q17" s="263" t="s">
+      <c r="Q17" s="249" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="259"/>
+      <c r="R17" s="245"/>
       <c r="S17" s="112"/>
       <c r="T17" s="112"/>
       <c r="U17" s="112"/>
@@ -30436,9 +30427,9 @@
     </row>
     <row r="18" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="296"/>
-      <c r="C18" s="296"/>
-      <c r="D18" s="254"/>
+      <c r="B18" s="289"/>
+      <c r="C18" s="289"/>
+      <c r="D18" s="252"/>
       <c r="E18" s="22" t="s">
         <v>136</v>
       </c>
@@ -30469,8 +30460,8 @@
         <v>137</v>
       </c>
       <c r="P18" s="288"/>
-      <c r="Q18" s="289"/>
-      <c r="R18" s="291"/>
+      <c r="Q18" s="303"/>
+      <c r="R18" s="305"/>
       <c r="S18" s="112"/>
       <c r="T18" s="112"/>
       <c r="U18" s="112"/>
@@ -31571,9 +31562,9 @@
       <c r="W36"/>
       <c r="X36"/>
       <c r="Y36" s="112"/>
-      <c r="Z36" s="290"/>
-      <c r="AA36" s="290"/>
-      <c r="AB36" s="290"/>
+      <c r="Z36" s="304"/>
+      <c r="AA36" s="304"/>
+      <c r="AB36" s="304"/>
       <c r="AC36" s="112"/>
       <c r="AD36" s="112"/>
       <c r="AE36" s="112"/>
@@ -31826,37 +31817,37 @@
     </row>
     <row r="42" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="253" t="s">
+      <c r="B42" s="251" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="253" t="s">
+      <c r="C42" s="251" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="274" t="s">
+      <c r="D42" s="253" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="265" t="s">
+      <c r="E42" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="266"/>
-      <c r="G42" s="265" t="s">
+      <c r="F42" s="256"/>
+      <c r="G42" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="266"/>
-      <c r="I42" s="266"/>
-      <c r="J42" s="266"/>
-      <c r="K42" s="267"/>
-      <c r="L42" s="265" t="s">
+      <c r="H42" s="256"/>
+      <c r="I42" s="256"/>
+      <c r="J42" s="256"/>
+      <c r="K42" s="257"/>
+      <c r="L42" s="255" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="266"/>
-      <c r="N42" s="266"/>
-      <c r="O42" s="266"/>
-      <c r="P42" s="267"/>
+      <c r="M42" s="256"/>
+      <c r="N42" s="256"/>
+      <c r="O42" s="256"/>
+      <c r="P42" s="257"/>
       <c r="Q42" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R42" s="258" t="s">
+      <c r="R42" s="244" t="s">
         <v>130</v>
       </c>
       <c r="S42" s="112"/>
@@ -31885,9 +31876,9 @@
     </row>
     <row r="43" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="254"/>
-      <c r="C43" s="254"/>
-      <c r="D43" s="275"/>
+      <c r="B43" s="252"/>
+      <c r="C43" s="252"/>
+      <c r="D43" s="254"/>
       <c r="E43" s="84" t="s">
         <v>131</v>
       </c>
@@ -31924,10 +31915,10 @@
       <c r="P43" s="287" t="s">
         <v>132</v>
       </c>
-      <c r="Q43" s="263" t="s">
+      <c r="Q43" s="249" t="s">
         <v>132</v>
       </c>
-      <c r="R43" s="259"/>
+      <c r="R43" s="245"/>
       <c r="S43" s="112"/>
       <c r="T43" s="112"/>
       <c r="U43" s="112"/>
@@ -31954,9 +31945,9 @@
     </row>
     <row r="44" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="254"/>
-      <c r="C44" s="254"/>
-      <c r="D44" s="254"/>
+      <c r="B44" s="252"/>
+      <c r="C44" s="252"/>
+      <c r="D44" s="252"/>
       <c r="E44" s="22" t="s">
         <v>136</v>
       </c>
@@ -31973,7 +31964,7 @@
       <c r="J44" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="261"/>
+      <c r="K44" s="247"/>
       <c r="L44" s="141" t="s">
         <v>137</v>
       </c>
@@ -31986,9 +31977,9 @@
       <c r="O44" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="P44" s="261"/>
-      <c r="Q44" s="264"/>
-      <c r="R44" s="259"/>
+      <c r="P44" s="247"/>
+      <c r="Q44" s="250"/>
+      <c r="R44" s="245"/>
       <c r="S44" s="112"/>
       <c r="T44" s="112"/>
       <c r="U44" s="112"/>
@@ -37575,11 +37566,25 @@
     <protectedRange sqref="Q19" name="Section_B_1_3"/>
   </protectedRanges>
   <mergeCells count="33">
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="D16:D18"/>
@@ -37589,71 +37594,57 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
   </mergeCells>
-  <conditionalFormatting sqref="G18:J18">
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+      <formula>"Forecast"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>"Actual"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>"Forecast"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:J18">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>"Actual"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:J44">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:O18">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44:O44">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
-      <formula>"Forecast"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
-      <formula>"Actual"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
-      <formula>"Forecast"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
-      <formula>"Actual"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37725,15 +37716,15 @@
   <sheetData>
     <row r="2" spans="1:32" s="97" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="112"/>
-      <c r="B2" s="306" t="s">
+      <c r="B2" s="359" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
-      <c r="F2" s="307"/>
-      <c r="G2" s="307"/>
-      <c r="H2" s="308"/>
+      <c r="C2" s="360"/>
+      <c r="D2" s="360"/>
+      <c r="E2" s="360"/>
+      <c r="F2" s="360"/>
+      <c r="G2" s="360"/>
+      <c r="H2" s="361"/>
       <c r="I2" s="18"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -37761,15 +37752,15 @@
     </row>
     <row r="4" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="223" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="221"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="225"/>
       <c r="I4" s="112"/>
       <c r="J4" s="112"/>
       <c r="K4" s="112"/>
@@ -37797,15 +37788,15 @@
     </row>
     <row r="5" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="329" t="s">
+      <c r="B5" s="375" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="330"/>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="331"/>
+      <c r="C5" s="376"/>
+      <c r="D5" s="376"/>
+      <c r="E5" s="376"/>
+      <c r="F5" s="376"/>
+      <c r="G5" s="376"/>
+      <c r="H5" s="377"/>
       <c r="I5" s="112"/>
       <c r="J5" s="112"/>
       <c r="K5" s="112"/>
@@ -37868,18 +37859,18 @@
       <c r="AF6" s="112"/>
     </row>
     <row r="7" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="322" t="s">
+      <c r="A7" s="368" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="332" t="s">
+      <c r="B7" s="378" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="333"/>
-      <c r="D7" s="333"/>
-      <c r="E7" s="333"/>
-      <c r="F7" s="333"/>
-      <c r="G7" s="333"/>
-      <c r="H7" s="334"/>
+      <c r="C7" s="379"/>
+      <c r="D7" s="379"/>
+      <c r="E7" s="379"/>
+      <c r="F7" s="379"/>
+      <c r="G7" s="379"/>
+      <c r="H7" s="380"/>
       <c r="I7" s="112"/>
       <c r="J7" s="112"/>
       <c r="K7" s="112"/>
@@ -37906,16 +37897,16 @@
       <c r="AF7" s="112"/>
     </row>
     <row r="8" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="322"/>
-      <c r="B8" s="323" t="s">
+      <c r="A8" s="368"/>
+      <c r="B8" s="369" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="324"/>
-      <c r="D8" s="324"/>
-      <c r="E8" s="324"/>
-      <c r="F8" s="324"/>
-      <c r="G8" s="324"/>
-      <c r="H8" s="325"/>
+      <c r="C8" s="370"/>
+      <c r="D8" s="370"/>
+      <c r="E8" s="370"/>
+      <c r="F8" s="370"/>
+      <c r="G8" s="370"/>
+      <c r="H8" s="371"/>
       <c r="I8" s="112"/>
       <c r="J8" s="112"/>
       <c r="K8" s="112"/>
@@ -37942,16 +37933,16 @@
       <c r="AF8" s="112"/>
     </row>
     <row r="9" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="322"/>
-      <c r="B9" s="335" t="s">
+      <c r="A9" s="368"/>
+      <c r="B9" s="381" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="336"/>
-      <c r="D9" s="336"/>
-      <c r="E9" s="336"/>
-      <c r="F9" s="336"/>
-      <c r="G9" s="336"/>
-      <c r="H9" s="337"/>
+      <c r="C9" s="382"/>
+      <c r="D9" s="382"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="382"/>
+      <c r="G9" s="382"/>
+      <c r="H9" s="383"/>
       <c r="I9" s="112"/>
       <c r="J9" s="112"/>
       <c r="K9" s="112"/>
@@ -37978,7 +37969,7 @@
       <c r="AF9" s="112"/>
     </row>
     <row r="10" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="322"/>
+      <c r="A10" s="368"/>
       <c r="B10" s="112"/>
       <c r="C10" s="112"/>
       <c r="D10" s="112"/>
@@ -38012,7 +38003,7 @@
       <c r="AF10" s="112"/>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="322"/>
+      <c r="A11" s="368"/>
       <c r="B11" s="169" t="s">
         <v>260</v>
       </c>
@@ -38120,18 +38111,18 @@
       <c r="AF13" s="112"/>
     </row>
     <row r="14" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="338" t="s">
+      <c r="A14" s="384" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="319" t="s">
+      <c r="B14" s="365" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="320"/>
-      <c r="D14" s="320"/>
-      <c r="E14" s="320"/>
-      <c r="F14" s="320"/>
-      <c r="G14" s="320"/>
-      <c r="H14" s="321"/>
+      <c r="C14" s="366"/>
+      <c r="D14" s="366"/>
+      <c r="E14" s="366"/>
+      <c r="F14" s="366"/>
+      <c r="G14" s="366"/>
+      <c r="H14" s="367"/>
       <c r="I14" s="112"/>
       <c r="J14" s="112"/>
       <c r="K14" s="112"/>
@@ -38158,16 +38149,16 @@
       <c r="AF14" s="112"/>
     </row>
     <row r="15" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="338"/>
-      <c r="B15" s="326" t="s">
+      <c r="A15" s="384"/>
+      <c r="B15" s="372" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="327"/>
-      <c r="D15" s="327"/>
-      <c r="E15" s="327"/>
-      <c r="F15" s="327"/>
-      <c r="G15" s="327"/>
-      <c r="H15" s="328"/>
+      <c r="C15" s="373"/>
+      <c r="D15" s="373"/>
+      <c r="E15" s="373"/>
+      <c r="F15" s="373"/>
+      <c r="G15" s="373"/>
+      <c r="H15" s="374"/>
       <c r="I15" s="112"/>
       <c r="J15" s="112"/>
       <c r="K15" s="112"/>
@@ -38194,7 +38185,7 @@
       <c r="AF15" s="112"/>
     </row>
     <row r="16" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="338"/>
+      <c r="A16" s="384"/>
       <c r="B16" s="340" t="s">
         <v>162</v>
       </c>
@@ -38230,7 +38221,7 @@
       <c r="AF16" s="112"/>
     </row>
     <row r="17" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="338"/>
+      <c r="A17" s="384"/>
       <c r="B17" s="171" t="s">
         <v>163</v>
       </c>
@@ -38266,7 +38257,7 @@
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="338"/>
+      <c r="A18" s="384"/>
       <c r="B18" s="128"/>
       <c r="C18" s="182"/>
       <c r="D18" s="182"/>
@@ -38372,18 +38363,18 @@
       <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32" s="97" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="338" t="s">
+      <c r="A21" s="384" t="s">
         <v>166</v>
       </c>
-      <c r="B21" s="319" t="s">
+      <c r="B21" s="365" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="320"/>
-      <c r="D21" s="320"/>
-      <c r="E21" s="320"/>
-      <c r="F21" s="320"/>
-      <c r="G21" s="320"/>
-      <c r="H21" s="321"/>
+      <c r="C21" s="366"/>
+      <c r="D21" s="366"/>
+      <c r="E21" s="366"/>
+      <c r="F21" s="366"/>
+      <c r="G21" s="366"/>
+      <c r="H21" s="367"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -38410,16 +38401,16 @@
       <c r="AF21" s="3"/>
     </row>
     <row r="22" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="338"/>
-      <c r="B22" s="326" t="s">
+      <c r="A22" s="384"/>
+      <c r="B22" s="372" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="327"/>
-      <c r="D22" s="327"/>
-      <c r="E22" s="327"/>
-      <c r="F22" s="327"/>
-      <c r="G22" s="327"/>
-      <c r="H22" s="328"/>
+      <c r="C22" s="373"/>
+      <c r="D22" s="373"/>
+      <c r="E22" s="373"/>
+      <c r="F22" s="373"/>
+      <c r="G22" s="373"/>
+      <c r="H22" s="374"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -38446,16 +38437,16 @@
       <c r="AF22" s="3"/>
     </row>
     <row r="23" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="338"/>
-      <c r="B23" s="309" t="s">
+      <c r="A23" s="384"/>
+      <c r="B23" s="343" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="310"/>
-      <c r="D23" s="310"/>
-      <c r="E23" s="310"/>
-      <c r="F23" s="310"/>
-      <c r="G23" s="310"/>
-      <c r="H23" s="311"/>
+      <c r="C23" s="344"/>
+      <c r="D23" s="344"/>
+      <c r="E23" s="344"/>
+      <c r="F23" s="344"/>
+      <c r="G23" s="344"/>
+      <c r="H23" s="345"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -38482,7 +38473,7 @@
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="338"/>
+      <c r="A24" s="384"/>
       <c r="B24" s="171" t="s">
         <v>163</v>
       </c>
@@ -38518,7 +38509,7 @@
       <c r="AF24" s="3"/>
     </row>
     <row r="25" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="338"/>
+      <c r="A25" s="384"/>
       <c r="B25" s="128">
         <v>119</v>
       </c>
@@ -38626,18 +38617,18 @@
       <c r="AF27" s="3"/>
     </row>
     <row r="28" spans="1:32" s="97" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="339" t="s">
+      <c r="A28" s="385" t="s">
         <v>171</v>
       </c>
-      <c r="B28" s="319" t="s">
+      <c r="B28" s="365" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="320"/>
-      <c r="D28" s="320"/>
-      <c r="E28" s="320"/>
-      <c r="F28" s="320"/>
-      <c r="G28" s="320"/>
-      <c r="H28" s="321"/>
+      <c r="C28" s="366"/>
+      <c r="D28" s="366"/>
+      <c r="E28" s="366"/>
+      <c r="F28" s="366"/>
+      <c r="G28" s="366"/>
+      <c r="H28" s="367"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -38664,16 +38655,16 @@
       <c r="AF28" s="3"/>
     </row>
     <row r="29" spans="1:32" s="97" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="339"/>
-      <c r="B29" s="326" t="s">
+      <c r="A29" s="385"/>
+      <c r="B29" s="372" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="327"/>
-      <c r="D29" s="327"/>
-      <c r="E29" s="327"/>
-      <c r="F29" s="327"/>
-      <c r="G29" s="327"/>
-      <c r="H29" s="328"/>
+      <c r="C29" s="373"/>
+      <c r="D29" s="373"/>
+      <c r="E29" s="373"/>
+      <c r="F29" s="373"/>
+      <c r="G29" s="373"/>
+      <c r="H29" s="374"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -38700,16 +38691,16 @@
       <c r="AF29" s="3"/>
     </row>
     <row r="30" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="339"/>
-      <c r="B30" s="309" t="s">
+      <c r="A30" s="385"/>
+      <c r="B30" s="343" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="310"/>
-      <c r="D30" s="310"/>
-      <c r="E30" s="310"/>
-      <c r="F30" s="310"/>
-      <c r="G30" s="310"/>
-      <c r="H30" s="311"/>
+      <c r="C30" s="344"/>
+      <c r="D30" s="344"/>
+      <c r="E30" s="344"/>
+      <c r="F30" s="344"/>
+      <c r="G30" s="344"/>
+      <c r="H30" s="345"/>
       <c r="I30" s="112"/>
       <c r="J30" s="112"/>
       <c r="K30" s="112"/>
@@ -38736,16 +38727,16 @@
       <c r="AF30" s="112"/>
     </row>
     <row r="31" spans="1:32" ht="239.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="339"/>
-      <c r="B31" s="312" t="s">
+      <c r="A31" s="385"/>
+      <c r="B31" s="326" t="s">
         <v>1090</v>
       </c>
-      <c r="C31" s="231"/>
-      <c r="D31" s="231"/>
-      <c r="E31" s="313"/>
-      <c r="F31" s="313"/>
-      <c r="G31" s="313"/>
-      <c r="H31" s="314"/>
+      <c r="C31" s="222"/>
+      <c r="D31" s="222"/>
+      <c r="E31" s="327"/>
+      <c r="F31" s="327"/>
+      <c r="G31" s="327"/>
+      <c r="H31" s="328"/>
       <c r="I31" s="112"/>
       <c r="J31" s="112"/>
       <c r="K31" s="112"/>
@@ -38772,13 +38763,13 @@
       <c r="AF31" s="112"/>
     </row>
     <row r="32" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="339"/>
-      <c r="B32" s="218" t="s">
+      <c r="A32" s="385"/>
+      <c r="B32" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="218"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="218"/>
+      <c r="C32" s="221"/>
+      <c r="D32" s="221"/>
+      <c r="E32" s="221"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="59" t="s">
@@ -38846,18 +38837,18 @@
       <c r="AF33" s="112"/>
     </row>
     <row r="34" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="322" t="s">
+      <c r="A34" s="368" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="319" t="s">
+      <c r="B34" s="365" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="320"/>
-      <c r="D34" s="320"/>
-      <c r="E34" s="320"/>
-      <c r="F34" s="320"/>
-      <c r="G34" s="320"/>
-      <c r="H34" s="321"/>
+      <c r="C34" s="366"/>
+      <c r="D34" s="366"/>
+      <c r="E34" s="366"/>
+      <c r="F34" s="366"/>
+      <c r="G34" s="366"/>
+      <c r="H34" s="367"/>
       <c r="I34" s="112"/>
       <c r="J34" s="112"/>
       <c r="K34" s="112"/>
@@ -38884,16 +38875,16 @@
       <c r="AF34" s="112"/>
     </row>
     <row r="35" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="322"/>
-      <c r="B35" s="326" t="s">
+      <c r="A35" s="368"/>
+      <c r="B35" s="372" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="327"/>
-      <c r="D35" s="327"/>
-      <c r="E35" s="327"/>
-      <c r="F35" s="327"/>
-      <c r="G35" s="327"/>
-      <c r="H35" s="328"/>
+      <c r="C35" s="373"/>
+      <c r="D35" s="373"/>
+      <c r="E35" s="373"/>
+      <c r="F35" s="373"/>
+      <c r="G35" s="373"/>
+      <c r="H35" s="374"/>
       <c r="I35" s="112"/>
       <c r="J35" s="112"/>
       <c r="K35" s="112"/>
@@ -38920,16 +38911,16 @@
       <c r="AF35" s="112"/>
     </row>
     <row r="36" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="322"/>
+      <c r="A36" s="368"/>
       <c r="B36" s="356" t="s">
         <v>179</v>
       </c>
       <c r="C36" s="357"/>
       <c r="D36" s="357"/>
-      <c r="E36" s="310"/>
-      <c r="F36" s="310"/>
-      <c r="G36" s="310"/>
-      <c r="H36" s="311"/>
+      <c r="E36" s="344"/>
+      <c r="F36" s="344"/>
+      <c r="G36" s="344"/>
+      <c r="H36" s="345"/>
       <c r="I36" s="112"/>
       <c r="J36" s="112"/>
       <c r="K36" s="112"/>
@@ -38956,7 +38947,7 @@
       <c r="AF36" s="112"/>
     </row>
     <row r="37" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="322"/>
+      <c r="A37" s="368"/>
       <c r="B37" s="171" t="s">
         <v>163</v>
       </c>
@@ -38992,7 +38983,7 @@
       <c r="AF37" s="3"/>
     </row>
     <row r="38" spans="1:32" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="322"/>
+      <c r="A38" s="368"/>
       <c r="B38" s="128">
         <v>120</v>
       </c>
@@ -39065,22 +39056,22 @@
     </row>
     <row r="40" spans="1:32" s="107" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A40" s="105"/>
-      <c r="B40" s="343" t="s">
+      <c r="B40" s="346" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="344"/>
-      <c r="D40" s="344"/>
-      <c r="E40" s="344"/>
-      <c r="F40" s="344"/>
-      <c r="G40" s="344"/>
-      <c r="H40" s="344"/>
-      <c r="I40" s="344"/>
-      <c r="J40" s="344"/>
-      <c r="K40" s="344"/>
-      <c r="L40" s="344"/>
-      <c r="M40" s="344"/>
-      <c r="N40" s="344"/>
-      <c r="O40" s="345"/>
+      <c r="C40" s="347"/>
+      <c r="D40" s="347"/>
+      <c r="E40" s="347"/>
+      <c r="F40" s="347"/>
+      <c r="G40" s="347"/>
+      <c r="H40" s="347"/>
+      <c r="I40" s="347"/>
+      <c r="J40" s="347"/>
+      <c r="K40" s="347"/>
+      <c r="L40" s="347"/>
+      <c r="M40" s="347"/>
+      <c r="N40" s="347"/>
+      <c r="O40" s="348"/>
       <c r="P40" s="112"/>
       <c r="Q40" s="105"/>
       <c r="R40" s="105"/>
@@ -39137,28 +39128,28 @@
     </row>
     <row r="42" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="364" t="s">
+      <c r="B42" s="329" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="265" t="s">
+      <c r="C42" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="266"/>
-      <c r="E42" s="265" t="s">
+      <c r="D42" s="256"/>
+      <c r="E42" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="266"/>
-      <c r="G42" s="266"/>
-      <c r="H42" s="266"/>
+      <c r="F42" s="256"/>
+      <c r="G42" s="256"/>
+      <c r="H42" s="256"/>
       <c r="I42" s="358"/>
-      <c r="J42" s="266" t="s">
+      <c r="J42" s="256" t="s">
         <v>128</v>
       </c>
-      <c r="K42" s="266"/>
-      <c r="L42" s="266"/>
-      <c r="M42" s="266"/>
-      <c r="N42" s="267"/>
-      <c r="O42" s="352" t="s">
+      <c r="K42" s="256"/>
+      <c r="L42" s="256"/>
+      <c r="M42" s="256"/>
+      <c r="N42" s="257"/>
+      <c r="O42" s="353" t="s">
         <v>130</v>
       </c>
       <c r="P42" s="112"/>
@@ -39181,11 +39172,11 @@
     </row>
     <row r="43" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="365"/>
+      <c r="B43" s="330"/>
       <c r="C43" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="318" t="s">
+      <c r="D43" s="355" t="s">
         <v>132</v>
       </c>
       <c r="E43" s="173" t="s">
@@ -39200,7 +39191,7 @@
       <c r="H43" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="I43" s="318" t="s">
+      <c r="I43" s="355" t="s">
         <v>132</v>
       </c>
       <c r="J43" s="173" t="s">
@@ -39215,10 +39206,10 @@
       <c r="M43" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="N43" s="318" t="s">
+      <c r="N43" s="355" t="s">
         <v>132</v>
       </c>
-      <c r="O43" s="353"/>
+      <c r="O43" s="354"/>
       <c r="P43" s="112"/>
       <c r="Q43" s="112"/>
       <c r="R43" s="112"/>
@@ -39239,11 +39230,11 @@
     </row>
     <row r="44" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="112"/>
-      <c r="B44" s="365"/>
+      <c r="B44" s="330"/>
       <c r="C44" s="175" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="281"/>
+      <c r="D44" s="275"/>
       <c r="E44" s="176" t="s">
         <v>137</v>
       </c>
@@ -39256,7 +39247,7 @@
       <c r="H44" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="I44" s="281"/>
+      <c r="I44" s="275"/>
       <c r="J44" s="175" t="s">
         <v>137</v>
       </c>
@@ -39269,8 +39260,8 @@
       <c r="M44" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="N44" s="281"/>
-      <c r="O44" s="353"/>
+      <c r="N44" s="275"/>
+      <c r="O44" s="354"/>
       <c r="P44" s="112"/>
       <c r="Q44" s="112"/>
       <c r="R44" s="112"/>
@@ -39866,15 +39857,15 @@
     </row>
     <row r="54" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A54" s="112"/>
-      <c r="B54" s="372" t="s">
+      <c r="B54" s="337" t="s">
         <v>193</v>
       </c>
-      <c r="C54" s="373"/>
-      <c r="D54" s="373"/>
-      <c r="E54" s="373"/>
-      <c r="F54" s="373"/>
-      <c r="G54" s="373"/>
-      <c r="H54" s="374"/>
+      <c r="C54" s="338"/>
+      <c r="D54" s="338"/>
+      <c r="E54" s="338"/>
+      <c r="F54" s="338"/>
+      <c r="G54" s="338"/>
+      <c r="H54" s="339"/>
       <c r="I54" s="112"/>
       <c r="J54" s="112"/>
       <c r="K54" s="112"/>
@@ -39902,15 +39893,15 @@
     </row>
     <row r="55" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="112"/>
-      <c r="B55" s="366" t="s">
+      <c r="B55" s="331" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="367"/>
-      <c r="D55" s="367"/>
-      <c r="E55" s="367"/>
-      <c r="F55" s="367"/>
-      <c r="G55" s="367"/>
-      <c r="H55" s="368"/>
+      <c r="C55" s="332"/>
+      <c r="D55" s="332"/>
+      <c r="E55" s="332"/>
+      <c r="F55" s="332"/>
+      <c r="G55" s="332"/>
+      <c r="H55" s="333"/>
       <c r="I55" s="112"/>
       <c r="J55" s="112"/>
       <c r="K55" s="112"/>
@@ -39938,15 +39929,15 @@
     </row>
     <row r="56" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="112"/>
-      <c r="B56" s="348" t="s">
+      <c r="B56" s="350" t="s">
         <v>195</v>
       </c>
-      <c r="C56" s="349"/>
-      <c r="D56" s="349"/>
-      <c r="E56" s="349"/>
-      <c r="F56" s="349"/>
-      <c r="G56" s="349"/>
-      <c r="H56" s="350"/>
+      <c r="C56" s="351"/>
+      <c r="D56" s="351"/>
+      <c r="E56" s="351"/>
+      <c r="F56" s="351"/>
+      <c r="G56" s="351"/>
+      <c r="H56" s="352"/>
       <c r="I56" s="112"/>
       <c r="J56" s="112"/>
       <c r="K56" s="112"/>
@@ -39974,15 +39965,15 @@
     </row>
     <row r="57" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="112"/>
-      <c r="B57" s="312" t="s">
+      <c r="B57" s="326" t="s">
         <v>1091</v>
       </c>
-      <c r="C57" s="231"/>
-      <c r="D57" s="231"/>
-      <c r="E57" s="313"/>
-      <c r="F57" s="313"/>
-      <c r="G57" s="313"/>
-      <c r="H57" s="314"/>
+      <c r="C57" s="222"/>
+      <c r="D57" s="222"/>
+      <c r="E57" s="327"/>
+      <c r="F57" s="327"/>
+      <c r="G57" s="327"/>
+      <c r="H57" s="328"/>
       <c r="I57" s="112"/>
       <c r="J57" s="112"/>
       <c r="K57" s="112"/>
@@ -40010,12 +40001,12 @@
     </row>
     <row r="58" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="112"/>
-      <c r="B58" s="218" t="s">
+      <c r="B58" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="218"/>
-      <c r="D58" s="218"/>
-      <c r="E58" s="218"/>
+      <c r="C58" s="221"/>
+      <c r="D58" s="221"/>
+      <c r="E58" s="221"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="H58" s="59" t="s">
@@ -40084,15 +40075,15 @@
     </row>
     <row r="60" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A60" s="112"/>
-      <c r="B60" s="315" t="s">
+      <c r="B60" s="362" t="s">
         <v>198</v>
       </c>
-      <c r="C60" s="316"/>
-      <c r="D60" s="316"/>
-      <c r="E60" s="316"/>
-      <c r="F60" s="316"/>
-      <c r="G60" s="316"/>
-      <c r="H60" s="317"/>
+      <c r="C60" s="363"/>
+      <c r="D60" s="363"/>
+      <c r="E60" s="363"/>
+      <c r="F60" s="363"/>
+      <c r="G60" s="363"/>
+      <c r="H60" s="364"/>
       <c r="I60" s="112"/>
       <c r="J60" s="112"/>
       <c r="K60" s="112"/>
@@ -40120,15 +40111,15 @@
     </row>
     <row r="61" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="112"/>
-      <c r="B61" s="369" t="s">
+      <c r="B61" s="334" t="s">
         <v>199</v>
       </c>
-      <c r="C61" s="370"/>
-      <c r="D61" s="370"/>
-      <c r="E61" s="370"/>
-      <c r="F61" s="370"/>
-      <c r="G61" s="370"/>
-      <c r="H61" s="371"/>
+      <c r="C61" s="335"/>
+      <c r="D61" s="335"/>
+      <c r="E61" s="335"/>
+      <c r="F61" s="335"/>
+      <c r="G61" s="335"/>
+      <c r="H61" s="336"/>
       <c r="I61" s="112"/>
       <c r="J61" s="112"/>
       <c r="K61" s="112"/>
@@ -40156,15 +40147,15 @@
     </row>
     <row r="62" spans="1:32" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="112"/>
-      <c r="B62" s="361" t="s">
+      <c r="B62" s="323" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="362"/>
-      <c r="D62" s="362"/>
-      <c r="E62" s="362"/>
-      <c r="F62" s="362"/>
-      <c r="G62" s="362"/>
-      <c r="H62" s="363"/>
+      <c r="C62" s="324"/>
+      <c r="D62" s="324"/>
+      <c r="E62" s="324"/>
+      <c r="F62" s="324"/>
+      <c r="G62" s="324"/>
+      <c r="H62" s="325"/>
       <c r="I62" s="112"/>
       <c r="J62" s="112"/>
       <c r="K62" s="112"/>
@@ -40192,15 +40183,15 @@
     </row>
     <row r="63" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="112"/>
-      <c r="B63" s="312" t="s">
+      <c r="B63" s="326" t="s">
         <v>1092</v>
       </c>
-      <c r="C63" s="231"/>
-      <c r="D63" s="231"/>
-      <c r="E63" s="313"/>
-      <c r="F63" s="313"/>
-      <c r="G63" s="313"/>
-      <c r="H63" s="314"/>
+      <c r="C63" s="222"/>
+      <c r="D63" s="222"/>
+      <c r="E63" s="327"/>
+      <c r="F63" s="327"/>
+      <c r="G63" s="327"/>
+      <c r="H63" s="328"/>
       <c r="I63" s="112"/>
       <c r="J63" s="112"/>
       <c r="K63" s="112"/>
@@ -40411,41 +40402,41 @@
       <c r="B69" s="178" t="s">
         <v>206</v>
       </c>
-      <c r="C69" s="354" t="s">
+      <c r="C69" s="314" t="s">
         <v>207</v>
       </c>
-      <c r="D69" s="355"/>
-      <c r="E69" s="354" t="s">
+      <c r="D69" s="315"/>
+      <c r="E69" s="314" t="s">
         <v>208</v>
       </c>
-      <c r="F69" s="355"/>
-      <c r="G69" s="346" t="s">
+      <c r="F69" s="315"/>
+      <c r="G69" s="316" t="s">
         <v>209</v>
       </c>
-      <c r="H69" s="351"/>
-      <c r="I69" s="354" t="s">
+      <c r="H69" s="317"/>
+      <c r="I69" s="314" t="s">
         <v>210</v>
       </c>
-      <c r="J69" s="355"/>
+      <c r="J69" s="315"/>
       <c r="K69" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="L69" s="383" t="s">
+      <c r="L69" s="312" t="s">
         <v>212</v>
       </c>
-      <c r="M69" s="384"/>
-      <c r="N69" s="346" t="s">
+      <c r="M69" s="313"/>
+      <c r="N69" s="316" t="s">
         <v>213</v>
       </c>
-      <c r="O69" s="351"/>
-      <c r="P69" s="354" t="s">
+      <c r="O69" s="317"/>
+      <c r="P69" s="314" t="s">
         <v>214</v>
       </c>
-      <c r="Q69" s="355"/>
-      <c r="R69" s="346" t="s">
+      <c r="Q69" s="315"/>
+      <c r="R69" s="316" t="s">
         <v>215</v>
       </c>
-      <c r="S69" s="347"/>
+      <c r="S69" s="349"/>
       <c r="T69" s="112"/>
       <c r="U69" s="112"/>
       <c r="V69" s="112"/>
@@ -40465,41 +40456,41 @@
       <c r="B70" s="123">
         <v>1</v>
       </c>
-      <c r="C70" s="379" t="s">
+      <c r="C70" s="310" t="s">
         <v>423</v>
       </c>
-      <c r="D70" s="379"/>
-      <c r="E70" s="359" t="s">
+      <c r="D70" s="310"/>
+      <c r="E70" s="311" t="s">
         <v>302</v>
       </c>
-      <c r="F70" s="359"/>
-      <c r="G70" s="379" t="s">
+      <c r="F70" s="311"/>
+      <c r="G70" s="310" t="s">
         <v>420</v>
       </c>
-      <c r="H70" s="379"/>
-      <c r="I70" s="359" t="s">
+      <c r="H70" s="310"/>
+      <c r="I70" s="311" t="s">
         <v>305</v>
       </c>
-      <c r="J70" s="359"/>
+      <c r="J70" s="311"/>
       <c r="K70" s="114">
         <v>20</v>
       </c>
-      <c r="L70" s="385" t="s">
+      <c r="L70" s="318" t="s">
         <v>1093</v>
       </c>
-      <c r="M70" s="385"/>
-      <c r="N70" s="376" t="s">
+      <c r="M70" s="318"/>
+      <c r="N70" s="321" t="s">
         <v>1094</v>
       </c>
-      <c r="O70" s="376"/>
-      <c r="P70" s="379" t="s">
+      <c r="O70" s="321"/>
+      <c r="P70" s="310" t="s">
         <v>137</v>
       </c>
-      <c r="Q70" s="379"/>
-      <c r="R70" s="359" t="s">
+      <c r="Q70" s="310"/>
+      <c r="R70" s="311" t="s">
         <v>7</v>
       </c>
-      <c r="S70" s="378"/>
+      <c r="S70" s="322"/>
       <c r="T70" s="112"/>
       <c r="U70" s="112"/>
       <c r="V70" s="112"/>
@@ -40517,45 +40508,45 @@
     <row r="71" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="112"/>
       <c r="B71" s="194"/>
-      <c r="C71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F71" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I71" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J71" s="360" t="s">
+      <c r="C71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I71" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J71" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K71" s="193"/>
-      <c r="L71" s="375"/>
-      <c r="M71" s="375"/>
-      <c r="N71" s="360"/>
-      <c r="O71" s="360"/>
-      <c r="P71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R71" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S71" s="377" t="s">
+      <c r="L71" s="307"/>
+      <c r="M71" s="307"/>
+      <c r="N71" s="308"/>
+      <c r="O71" s="308"/>
+      <c r="P71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R71" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S71" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T71" s="112"/>
@@ -40575,45 +40566,45 @@
     <row r="72" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="112"/>
       <c r="B72" s="194"/>
-      <c r="C72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F72" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I72" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J72" s="360" t="s">
+      <c r="C72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I72" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J72" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K72" s="193"/>
-      <c r="L72" s="375"/>
-      <c r="M72" s="375"/>
-      <c r="N72" s="360"/>
-      <c r="O72" s="360"/>
-      <c r="P72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R72" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S72" s="377" t="s">
+      <c r="L72" s="307"/>
+      <c r="M72" s="307"/>
+      <c r="N72" s="308"/>
+      <c r="O72" s="308"/>
+      <c r="P72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R72" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S72" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T72" s="112"/>
@@ -40633,45 +40624,45 @@
     <row r="73" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="112"/>
       <c r="B73" s="194"/>
-      <c r="C73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E73" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F73" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I73" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J73" s="360" t="s">
+      <c r="C73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I73" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J73" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K73" s="193"/>
-      <c r="L73" s="375"/>
-      <c r="M73" s="375"/>
-      <c r="N73" s="360"/>
-      <c r="O73" s="360"/>
-      <c r="P73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R73" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S73" s="377" t="s">
+      <c r="L73" s="307"/>
+      <c r="M73" s="307"/>
+      <c r="N73" s="308"/>
+      <c r="O73" s="308"/>
+      <c r="P73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R73" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S73" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T73" s="112"/>
@@ -40691,45 +40682,45 @@
     <row r="74" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="112"/>
       <c r="B74" s="194"/>
-      <c r="C74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E74" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F74" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I74" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J74" s="360" t="s">
+      <c r="C74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I74" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J74" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K74" s="193"/>
-      <c r="L74" s="375"/>
-      <c r="M74" s="375"/>
-      <c r="N74" s="360"/>
-      <c r="O74" s="360"/>
-      <c r="P74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R74" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S74" s="377" t="s">
+      <c r="L74" s="307"/>
+      <c r="M74" s="307"/>
+      <c r="N74" s="308"/>
+      <c r="O74" s="308"/>
+      <c r="P74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R74" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S74" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T74" s="112"/>
@@ -40749,45 +40740,45 @@
     <row r="75" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="112"/>
       <c r="B75" s="194"/>
-      <c r="C75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E75" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F75" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I75" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J75" s="360" t="s">
+      <c r="C75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F75" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I75" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J75" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K75" s="193"/>
-      <c r="L75" s="375"/>
-      <c r="M75" s="375"/>
-      <c r="N75" s="360"/>
-      <c r="O75" s="360"/>
-      <c r="P75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R75" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S75" s="377" t="s">
+      <c r="L75" s="307"/>
+      <c r="M75" s="307"/>
+      <c r="N75" s="308"/>
+      <c r="O75" s="308"/>
+      <c r="P75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R75" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S75" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T75" s="112"/>
@@ -40807,45 +40798,45 @@
     <row r="76" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="112"/>
       <c r="B76" s="194"/>
-      <c r="C76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E76" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F76" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I76" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J76" s="360" t="s">
+      <c r="C76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I76" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J76" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K76" s="193"/>
-      <c r="L76" s="375"/>
-      <c r="M76" s="375"/>
-      <c r="N76" s="360"/>
-      <c r="O76" s="360"/>
-      <c r="P76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R76" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S76" s="377" t="s">
+      <c r="L76" s="307"/>
+      <c r="M76" s="307"/>
+      <c r="N76" s="308"/>
+      <c r="O76" s="308"/>
+      <c r="P76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R76" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S76" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T76" s="112"/>
@@ -40865,45 +40856,45 @@
     <row r="77" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="112"/>
       <c r="B77" s="194"/>
-      <c r="C77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F77" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I77" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J77" s="360" t="s">
+      <c r="C77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I77" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J77" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K77" s="193"/>
-      <c r="L77" s="375"/>
-      <c r="M77" s="375"/>
-      <c r="N77" s="360"/>
-      <c r="O77" s="360"/>
-      <c r="P77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R77" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S77" s="377" t="s">
+      <c r="L77" s="307"/>
+      <c r="M77" s="307"/>
+      <c r="N77" s="308"/>
+      <c r="O77" s="308"/>
+      <c r="P77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R77" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S77" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T77" s="112"/>
@@ -40923,45 +40914,45 @@
     <row r="78" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="112"/>
       <c r="B78" s="194"/>
-      <c r="C78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E78" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I78" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J78" s="360" t="s">
+      <c r="C78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I78" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J78" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K78" s="193"/>
-      <c r="L78" s="375"/>
-      <c r="M78" s="375"/>
-      <c r="N78" s="360"/>
-      <c r="O78" s="360"/>
-      <c r="P78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R78" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S78" s="377" t="s">
+      <c r="L78" s="307"/>
+      <c r="M78" s="307"/>
+      <c r="N78" s="308"/>
+      <c r="O78" s="308"/>
+      <c r="P78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R78" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S78" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T78" s="112"/>
@@ -40981,45 +40972,45 @@
     <row r="79" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="112"/>
       <c r="B79" s="194"/>
-      <c r="C79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E79" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F79" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I79" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J79" s="360" t="s">
+      <c r="C79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I79" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J79" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K79" s="193"/>
-      <c r="L79" s="375"/>
-      <c r="M79" s="375"/>
-      <c r="N79" s="360"/>
-      <c r="O79" s="360"/>
-      <c r="P79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R79" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S79" s="377" t="s">
+      <c r="L79" s="307"/>
+      <c r="M79" s="307"/>
+      <c r="N79" s="308"/>
+      <c r="O79" s="308"/>
+      <c r="P79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R79" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S79" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T79" s="112"/>
@@ -41039,45 +41030,45 @@
     <row r="80" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="112"/>
       <c r="B80" s="194"/>
-      <c r="C80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E80" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F80" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I80" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J80" s="360" t="s">
+      <c r="C80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F80" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I80" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J80" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K80" s="193"/>
-      <c r="L80" s="375"/>
-      <c r="M80" s="375"/>
-      <c r="N80" s="360"/>
-      <c r="O80" s="360"/>
-      <c r="P80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R80" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S80" s="377" t="s">
+      <c r="L80" s="307"/>
+      <c r="M80" s="307"/>
+      <c r="N80" s="308"/>
+      <c r="O80" s="308"/>
+      <c r="P80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R80" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S80" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T80" s="112"/>
@@ -41097,45 +41088,45 @@
     <row r="81" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="112"/>
       <c r="B81" s="194"/>
-      <c r="C81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E81" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F81" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I81" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J81" s="360" t="s">
+      <c r="C81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I81" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J81" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K81" s="193"/>
-      <c r="L81" s="375"/>
-      <c r="M81" s="375"/>
-      <c r="N81" s="360"/>
-      <c r="O81" s="360"/>
-      <c r="P81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R81" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S81" s="377" t="s">
+      <c r="L81" s="307"/>
+      <c r="M81" s="307"/>
+      <c r="N81" s="308"/>
+      <c r="O81" s="308"/>
+      <c r="P81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R81" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S81" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T81" s="112"/>
@@ -41155,45 +41146,45 @@
     <row r="82" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="112"/>
       <c r="B82" s="194"/>
-      <c r="C82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E82" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F82" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I82" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J82" s="360" t="s">
+      <c r="C82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I82" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J82" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K82" s="193"/>
-      <c r="L82" s="375"/>
-      <c r="M82" s="375"/>
-      <c r="N82" s="360"/>
-      <c r="O82" s="360"/>
-      <c r="P82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R82" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S82" s="377" t="s">
+      <c r="L82" s="307"/>
+      <c r="M82" s="307"/>
+      <c r="N82" s="308"/>
+      <c r="O82" s="308"/>
+      <c r="P82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R82" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S82" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T82" s="112"/>
@@ -41213,45 +41204,45 @@
     <row r="83" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="112"/>
       <c r="B83" s="194"/>
-      <c r="C83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F83" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I83" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J83" s="360" t="s">
+      <c r="C83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I83" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J83" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K83" s="193"/>
-      <c r="L83" s="375"/>
-      <c r="M83" s="375"/>
-      <c r="N83" s="360"/>
-      <c r="O83" s="360"/>
-      <c r="P83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R83" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S83" s="377" t="s">
+      <c r="L83" s="307"/>
+      <c r="M83" s="307"/>
+      <c r="N83" s="308"/>
+      <c r="O83" s="308"/>
+      <c r="P83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R83" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S83" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T83" s="112"/>
@@ -41271,45 +41262,45 @@
     <row r="84" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="112"/>
       <c r="B84" s="194"/>
-      <c r="C84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E84" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F84" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I84" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J84" s="360" t="s">
+      <c r="C84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F84" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I84" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J84" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K84" s="193"/>
-      <c r="L84" s="375"/>
-      <c r="M84" s="375"/>
-      <c r="N84" s="360"/>
-      <c r="O84" s="360"/>
-      <c r="P84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R84" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S84" s="377" t="s">
+      <c r="L84" s="307"/>
+      <c r="M84" s="307"/>
+      <c r="N84" s="308"/>
+      <c r="O84" s="308"/>
+      <c r="P84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R84" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S84" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T84" s="112"/>
@@ -41329,45 +41320,45 @@
     <row r="85" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="112"/>
       <c r="B85" s="194"/>
-      <c r="C85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E85" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F85" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I85" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J85" s="360" t="s">
+      <c r="C85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I85" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J85" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K85" s="193"/>
-      <c r="L85" s="375"/>
-      <c r="M85" s="375"/>
-      <c r="N85" s="360"/>
-      <c r="O85" s="360"/>
-      <c r="P85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R85" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S85" s="377" t="s">
+      <c r="L85" s="307"/>
+      <c r="M85" s="307"/>
+      <c r="N85" s="308"/>
+      <c r="O85" s="308"/>
+      <c r="P85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R85" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S85" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T85" s="112"/>
@@ -41387,45 +41378,45 @@
     <row r="86" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="112"/>
       <c r="B86" s="194"/>
-      <c r="C86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E86" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F86" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I86" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J86" s="360" t="s">
+      <c r="C86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F86" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I86" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J86" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K86" s="193"/>
-      <c r="L86" s="375"/>
-      <c r="M86" s="375"/>
-      <c r="N86" s="360"/>
-      <c r="O86" s="360"/>
-      <c r="P86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R86" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S86" s="377" t="s">
+      <c r="L86" s="307"/>
+      <c r="M86" s="307"/>
+      <c r="N86" s="308"/>
+      <c r="O86" s="308"/>
+      <c r="P86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R86" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S86" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T86" s="112"/>
@@ -41445,45 +41436,45 @@
     <row r="87" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="112"/>
       <c r="B87" s="195"/>
-      <c r="C87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="E87" s="380" t="s">
-        <v>91</v>
-      </c>
-      <c r="F87" s="380" t="s">
-        <v>91</v>
-      </c>
-      <c r="G87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="H87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="I87" s="380" t="s">
-        <v>91</v>
-      </c>
-      <c r="J87" s="380" t="s">
+      <c r="C87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="319" t="s">
+        <v>91</v>
+      </c>
+      <c r="F87" s="319" t="s">
+        <v>91</v>
+      </c>
+      <c r="G87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="H87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="I87" s="319" t="s">
+        <v>91</v>
+      </c>
+      <c r="J87" s="319" t="s">
         <v>91</v>
       </c>
       <c r="K87" s="196"/>
-      <c r="L87" s="382"/>
-      <c r="M87" s="382"/>
-      <c r="N87" s="380"/>
-      <c r="O87" s="380"/>
-      <c r="P87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="R87" s="380" t="s">
-        <v>91</v>
-      </c>
-      <c r="S87" s="381" t="s">
+      <c r="L87" s="306"/>
+      <c r="M87" s="306"/>
+      <c r="N87" s="319"/>
+      <c r="O87" s="319"/>
+      <c r="P87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="R87" s="319" t="s">
+        <v>91</v>
+      </c>
+      <c r="S87" s="320" t="s">
         <v>91</v>
       </c>
       <c r="T87" s="112"/>
@@ -41606,6 +41597,177 @@
     </row>
   </sheetData>
   <mergeCells count="195">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B40:O40"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I79:J79"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="C82:D82"/>
@@ -41630,177 +41792,6 @@
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="G86:H86"/>
     <mergeCell ref="I86:J86"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B40:O40"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="O42:O44"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B35:H35"/>
   </mergeCells>
   <conditionalFormatting sqref="C44 E44:H44">
     <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
@@ -41892,12 +41883,12 @@
     <row r="1" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="217"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -41938,12 +41929,12 @@
     <row r="3" spans="1:41" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:41" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="223" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="221"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="225"/>
       <c r="F4" s="112"/>
       <c r="G4" s="112"/>
       <c r="H4" s="112"/>
@@ -41983,12 +41974,12 @@
     </row>
     <row r="5" spans="1:41" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="309" t="s">
+      <c r="B5" s="343" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="310"/>
-      <c r="D5" s="310"/>
-      <c r="E5" s="311"/>
+      <c r="C5" s="344"/>
+      <c r="D5" s="344"/>
+      <c r="E5" s="345"/>
       <c r="F5" s="112"/>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
@@ -42382,12 +42373,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
+    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42662,29 +42664,23 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
-    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
+    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
+    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -42711,14 +42707,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
-    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
-    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_tests/mock_pf_returns/PF_Round_1_Cross_Table_Validation_Failures.xlsx
+++ b/tests/integration_tests/mock_pf_returns/PF_Round_1_Cross_Table_Validation_Failures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PearceJ\stash\funding-service-design-post-award-data-store\tests\integration_tests\mock_pf_returns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC3692D-E34A-465D-A5D7-A78C06987839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CED9DD-8DFF-4641-8A61-97788A2CDB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="661" firstSheet="4" activeTab="10" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
   </bookViews>
@@ -6147,12 +6147,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6171,6 +6165,33 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6180,20 +6201,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6225,29 +6243,53 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6270,18 +6312,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6290,18 +6320,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6312,12 +6330,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6325,6 +6337,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6348,41 +6366,44 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6414,83 +6435,22 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6502,105 +6462,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6609,6 +6470,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6672,6 +6536,142 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -7672,10 +7672,10 @@
     <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="217"/>
+      <c r="C2" s="215"/>
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
@@ -7927,8 +7927,8 @@
   </sheetPr>
   <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A181" sqref="A181"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8485,7 +8485,7 @@
         <v>331</v>
       </c>
       <c r="C72" s="125" t="s">
-        <v>366</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
@@ -8496,7 +8496,7 @@
         <v>331</v>
       </c>
       <c r="C73" s="125" t="s">
-        <v>366</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
@@ -8507,7 +8507,7 @@
         <v>331</v>
       </c>
       <c r="C74" s="125" t="s">
-        <v>366</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
@@ -8518,7 +8518,7 @@
         <v>331</v>
       </c>
       <c r="C75" s="125" t="s">
-        <v>366</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
@@ -8529,7 +8529,7 @@
         <v>331</v>
       </c>
       <c r="C76" s="125" t="s">
-        <v>366</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
@@ -8540,7 +8540,7 @@
         <v>331</v>
       </c>
       <c r="C77" s="125" t="s">
-        <v>366</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
@@ -16353,10 +16353,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="217"/>
+      <c r="C2" s="215"/>
     </row>
     <row r="3" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="205" t="s">
@@ -16366,16 +16366,16 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="212" t="s">
+      <c r="B4" s="210" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="213"/>
+      <c r="C4" s="211"/>
     </row>
     <row r="5" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="214" t="s">
+      <c r="B5" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="215" t="s">
+      <c r="C5" s="213" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="6"/>
@@ -16387,138 +16387,138 @@
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="217"/>
+      <c r="C7" s="215"/>
       <c r="I7" s="112"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I8" s="112"/>
     </row>
     <row r="9" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="212" t="s">
+      <c r="B9" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="213"/>
+      <c r="C9" s="211"/>
     </row>
     <row r="10" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="214" t="s">
+      <c r="B10" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="215"/>
+      <c r="C10" s="213"/>
     </row>
     <row r="11" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="19"/>
     </row>
     <row r="12" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="212" t="s">
+      <c r="B12" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="213"/>
+      <c r="C12" s="211"/>
     </row>
     <row r="13" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="210" t="s">
+      <c r="B13" s="216" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="211"/>
+      <c r="C13" s="217"/>
     </row>
     <row r="14" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="25"/>
       <c r="C14" s="19"/>
     </row>
     <row r="15" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="212" t="s">
+      <c r="B15" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="213"/>
+      <c r="C15" s="211"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="210" t="s">
+      <c r="B16" s="216" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="211"/>
+      <c r="C16" s="217"/>
     </row>
     <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="25"/>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="2:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="212" t="s">
+      <c r="B18" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="213"/>
+      <c r="C18" s="211"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="210" t="s">
+      <c r="B19" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="211"/>
+      <c r="C19" s="217"/>
     </row>
     <row r="20" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B20" s="25"/>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="212" t="s">
+      <c r="B21" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="213"/>
+      <c r="C21" s="211"/>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="210" t="s">
+      <c r="B22" s="216" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="211"/>
+      <c r="C22" s="217"/>
     </row>
     <row r="23" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B23" s="25"/>
       <c r="C23" s="19"/>
     </row>
     <row r="24" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="212" t="s">
+      <c r="B24" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="213"/>
+      <c r="C24" s="211"/>
     </row>
     <row r="25" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="210" t="s">
+      <c r="B25" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="211"/>
+      <c r="C25" s="217"/>
     </row>
     <row r="26" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="25"/>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="212" t="s">
+      <c r="B27" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="213"/>
+      <c r="C27" s="211"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="210" t="s">
+      <c r="B28" s="216" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="211"/>
+      <c r="C28" s="217"/>
     </row>
     <row r="29" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" s="25"/>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="212" t="s">
+      <c r="B30" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="213"/>
+      <c r="C30" s="211"/>
     </row>
     <row r="31" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="210" t="s">
+      <c r="B31" s="216" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="211"/>
+      <c r="C31" s="217"/>
     </row>
     <row r="34" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16565,6 +16565,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B2:C2"/>
@@ -16575,16 +16585,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
@@ -17640,12 +17640,12 @@
   <sheetData>
     <row r="2" spans="1:12" s="12" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="215"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -17660,34 +17660,34 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="219" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="221"/>
     </row>
     <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="236" t="s">
+      <c r="B5" s="222" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="238"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="223"/>
+      <c r="E5" s="224"/>
     </row>
     <row r="6" spans="1:12" ht="364" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="218" t="s">
+      <c r="B6" s="225" t="s">
         <v>1069</v>
       </c>
-      <c r="C6" s="219"/>
-      <c r="D6" s="219"/>
-      <c r="E6" s="220"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="227"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="221" t="s">
+      <c r="B7" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="221"/>
+      <c r="C7" s="218"/>
       <c r="E7" s="59" t="s">
         <v>79</v>
       </c>
@@ -17697,37 +17697,37 @@
       <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="230" t="s">
+      <c r="B9" s="236" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="232"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="238"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="227" t="s">
+      <c r="B10" s="233" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="228"/>
-      <c r="D10" s="229"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="235"/>
       <c r="E10" s="93" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="233" t="s">
+      <c r="B11" s="239" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="234"/>
-      <c r="D11" s="234"/>
-      <c r="E11" s="235"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="241"/>
     </row>
     <row r="12" spans="1:12" ht="349" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="225" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="219"/>
-      <c r="D12" s="222"/>
+      <c r="C12" s="226"/>
+      <c r="D12" s="231"/>
       <c r="E12" s="146" t="s">
         <v>85</v>
       </c>
@@ -18163,34 +18163,34 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="223" t="s">
+      <c r="B53" s="219" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="224"/>
-      <c r="D53" s="224"/>
-      <c r="E53" s="225"/>
+      <c r="C53" s="220"/>
+      <c r="D53" s="220"/>
+      <c r="E53" s="221"/>
     </row>
     <row r="54" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="236" t="s">
+      <c r="B54" s="222" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="237"/>
-      <c r="D54" s="237"/>
-      <c r="E54" s="238"/>
+      <c r="C54" s="223"/>
+      <c r="D54" s="223"/>
+      <c r="E54" s="224"/>
     </row>
     <row r="55" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="218" t="s">
+      <c r="B55" s="225" t="s">
         <v>1079</v>
       </c>
-      <c r="C55" s="219"/>
-      <c r="D55" s="219"/>
-      <c r="E55" s="220"/>
+      <c r="C55" s="226"/>
+      <c r="D55" s="226"/>
+      <c r="E55" s="227"/>
     </row>
     <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="221" t="s">
+      <c r="B56" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="221"/>
+      <c r="C56" s="218"/>
       <c r="E56" s="59" t="s">
         <v>96</v>
       </c>
@@ -18202,34 +18202,34 @@
       </c>
     </row>
     <row r="59" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="223" t="s">
+      <c r="B59" s="219" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="224"/>
-      <c r="D59" s="224"/>
-      <c r="E59" s="225"/>
+      <c r="C59" s="220"/>
+      <c r="D59" s="220"/>
+      <c r="E59" s="221"/>
     </row>
     <row r="60" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="239" t="s">
+      <c r="B60" s="228" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="240"/>
-      <c r="D60" s="240"/>
-      <c r="E60" s="241"/>
+      <c r="C60" s="229"/>
+      <c r="D60" s="229"/>
+      <c r="E60" s="230"/>
     </row>
     <row r="61" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="218" t="s">
+      <c r="B61" s="225" t="s">
         <v>1080</v>
       </c>
-      <c r="C61" s="219"/>
-      <c r="D61" s="219"/>
-      <c r="E61" s="220"/>
+      <c r="C61" s="226"/>
+      <c r="D61" s="226"/>
+      <c r="E61" s="227"/>
     </row>
     <row r="62" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="221" t="s">
+      <c r="B62" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="221"/>
+      <c r="C62" s="218"/>
       <c r="E62" s="59" t="s">
         <v>100</v>
       </c>
@@ -18254,14 +18254,6 @@
     <row r="78" spans="2:4" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B12:D12"/>
@@ -18271,6 +18263,14 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:E50">
     <cfRule type="expression" dxfId="46" priority="1">
@@ -18655,14 +18655,14 @@
     </row>
     <row r="2" spans="1:60" s="12" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="215"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -18781,14 +18781,14 @@
     </row>
     <row r="4" spans="1:60" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="277" t="s">
+      <c r="B4" s="246" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="278"/>
-      <c r="D4" s="278"/>
-      <c r="E4" s="278"/>
-      <c r="F4" s="278"/>
-      <c r="G4" s="279"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="248"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -18845,14 +18845,14 @@
     </row>
     <row r="5" spans="1:60" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="280" t="s">
+      <c r="B5" s="249" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="281"/>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="283"/>
+      <c r="C5" s="250"/>
+      <c r="D5" s="251"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="252"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -18909,14 +18909,14 @@
     </row>
     <row r="6" spans="1:60" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="258" t="s">
+      <c r="B6" s="283" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="259"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="261"/>
+      <c r="C6" s="284"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="286"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -18976,13 +18976,13 @@
       <c r="B7" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="259" t="s">
+      <c r="C7" s="284" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="259"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="260"/>
-      <c r="G7" s="261"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="285"/>
+      <c r="G7" s="286"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -19042,13 +19042,13 @@
       <c r="B8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="262" t="s">
+      <c r="C8" s="268" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="262"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
-      <c r="G8" s="264"/>
+      <c r="D8" s="268"/>
+      <c r="E8" s="269"/>
+      <c r="F8" s="269"/>
+      <c r="G8" s="270"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
@@ -19108,13 +19108,13 @@
       <c r="B9" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="262" t="s">
+      <c r="C9" s="268" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="262"/>
-      <c r="E9" s="263"/>
-      <c r="F9" s="263"/>
-      <c r="G9" s="264"/>
+      <c r="D9" s="268"/>
+      <c r="E9" s="269"/>
+      <c r="F9" s="269"/>
+      <c r="G9" s="270"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -19174,13 +19174,13 @@
       <c r="B10" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="262" t="s">
+      <c r="C10" s="268" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="262"/>
-      <c r="E10" s="263"/>
-      <c r="F10" s="263"/>
-      <c r="G10" s="264"/>
+      <c r="D10" s="268"/>
+      <c r="E10" s="269"/>
+      <c r="F10" s="269"/>
+      <c r="G10" s="270"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
@@ -19240,13 +19240,13 @@
       <c r="B11" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="262" t="s">
+      <c r="C11" s="268" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="262"/>
-      <c r="E11" s="263"/>
-      <c r="F11" s="263"/>
-      <c r="G11" s="264"/>
+      <c r="D11" s="268"/>
+      <c r="E11" s="269"/>
+      <c r="F11" s="269"/>
+      <c r="G11" s="270"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
@@ -19306,13 +19306,13 @@
       <c r="B12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="267" t="s">
+      <c r="C12" s="271" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="267"/>
-      <c r="E12" s="268"/>
-      <c r="F12" s="268"/>
-      <c r="G12" s="269"/>
+      <c r="D12" s="271"/>
+      <c r="E12" s="272"/>
+      <c r="F12" s="272"/>
+      <c r="G12" s="273"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -19516,60 +19516,60 @@
     </row>
     <row r="16" spans="1:60" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="251" t="s">
+      <c r="B16" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="253" t="s">
+      <c r="C16" s="274" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="284" t="s">
+      <c r="D16" s="255" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="273" t="s">
+      <c r="E16" s="279" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="274"/>
-      <c r="G16" s="271" t="s">
+      <c r="F16" s="280"/>
+      <c r="G16" s="277" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="271"/>
-      <c r="I16" s="271"/>
-      <c r="J16" s="271"/>
-      <c r="K16" s="272"/>
-      <c r="L16" s="255" t="s">
+      <c r="H16" s="277"/>
+      <c r="I16" s="277"/>
+      <c r="J16" s="277"/>
+      <c r="K16" s="278"/>
+      <c r="L16" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="256"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="256"/>
-      <c r="P16" s="257"/>
+      <c r="M16" s="266"/>
+      <c r="N16" s="266"/>
+      <c r="O16" s="266"/>
+      <c r="P16" s="267"/>
       <c r="Q16" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="244" t="s">
+      <c r="R16" s="258" t="s">
         <v>130</v>
       </c>
       <c r="S16" s="112"/>
       <c r="T16" s="52"/>
       <c r="U16" s="52"/>
       <c r="V16" s="52"/>
-      <c r="W16" s="265"/>
-      <c r="X16" s="265"/>
-      <c r="Y16" s="265"/>
-      <c r="Z16" s="265"/>
-      <c r="AA16" s="265"/>
-      <c r="AB16" s="265"/>
-      <c r="AC16" s="265"/>
-      <c r="AD16" s="265"/>
-      <c r="AE16" s="265"/>
-      <c r="AF16" s="265"/>
-      <c r="AG16" s="265"/>
-      <c r="AH16" s="265"/>
-      <c r="AI16" s="265"/>
-      <c r="AJ16" s="265"/>
-      <c r="AK16" s="265"/>
+      <c r="W16" s="244"/>
+      <c r="X16" s="244"/>
+      <c r="Y16" s="244"/>
+      <c r="Z16" s="244"/>
+      <c r="AA16" s="244"/>
+      <c r="AB16" s="244"/>
+      <c r="AC16" s="244"/>
+      <c r="AD16" s="244"/>
+      <c r="AE16" s="244"/>
+      <c r="AF16" s="244"/>
+      <c r="AG16" s="244"/>
+      <c r="AH16" s="244"/>
+      <c r="AI16" s="244"/>
+      <c r="AJ16" s="244"/>
+      <c r="AK16" s="244"/>
       <c r="AL16" s="52"/>
-      <c r="AM16" s="265"/>
+      <c r="AM16" s="244"/>
       <c r="AN16" s="112"/>
       <c r="AO16" s="112"/>
       <c r="AP16" s="112"/>
@@ -19594,13 +19594,13 @@
     </row>
     <row r="17" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="252"/>
-      <c r="C17" s="254"/>
-      <c r="D17" s="285"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="275"/>
+      <c r="D17" s="256"/>
       <c r="E17" s="185" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="275" t="s">
+      <c r="F17" s="281" t="s">
         <v>132</v>
       </c>
       <c r="G17" s="85" t="s">
@@ -19615,7 +19615,7 @@
       <c r="J17" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="K17" s="246" t="s">
+      <c r="K17" s="260" t="s">
         <v>132</v>
       </c>
       <c r="L17" s="84" t="s">
@@ -19630,13 +19630,13 @@
       <c r="O17" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="P17" s="248" t="s">
+      <c r="P17" s="262" t="s">
         <v>132</v>
       </c>
-      <c r="Q17" s="249" t="s">
+      <c r="Q17" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="245"/>
+      <c r="R17" s="259"/>
       <c r="S17" s="112"/>
       <c r="T17" s="54"/>
       <c r="U17" s="54"/>
@@ -19645,19 +19645,19 @@
       <c r="X17" s="52"/>
       <c r="Y17" s="52"/>
       <c r="Z17" s="52"/>
-      <c r="AA17" s="266"/>
+      <c r="AA17" s="245"/>
       <c r="AB17" s="52"/>
       <c r="AC17" s="52"/>
       <c r="AD17" s="52"/>
       <c r="AE17" s="52"/>
-      <c r="AF17" s="266"/>
+      <c r="AF17" s="245"/>
       <c r="AG17" s="52"/>
       <c r="AH17" s="52"/>
       <c r="AI17" s="52"/>
       <c r="AJ17" s="52"/>
-      <c r="AK17" s="266"/>
-      <c r="AL17" s="266"/>
-      <c r="AM17" s="265"/>
+      <c r="AK17" s="245"/>
+      <c r="AL17" s="245"/>
+      <c r="AM17" s="244"/>
       <c r="AN17" s="112"/>
       <c r="AO17" s="112"/>
       <c r="AP17" s="112"/>
@@ -19682,13 +19682,13 @@
     </row>
     <row r="18" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="252"/>
-      <c r="C18" s="270"/>
-      <c r="D18" s="286"/>
+      <c r="B18" s="254"/>
+      <c r="C18" s="276"/>
+      <c r="D18" s="257"/>
       <c r="E18" s="183" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="276"/>
+      <c r="F18" s="282"/>
       <c r="G18" s="179" t="s">
         <v>137</v>
       </c>
@@ -19701,7 +19701,7 @@
       <c r="J18" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="K18" s="247"/>
+      <c r="K18" s="261"/>
       <c r="L18" s="68" t="s">
         <v>137</v>
       </c>
@@ -19714,9 +19714,9 @@
       <c r="O18" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="P18" s="247"/>
-      <c r="Q18" s="250"/>
-      <c r="R18" s="245"/>
+      <c r="P18" s="261"/>
+      <c r="Q18" s="264"/>
+      <c r="R18" s="259"/>
       <c r="S18" s="112"/>
       <c r="T18" s="53"/>
       <c r="U18" s="53"/>
@@ -19725,19 +19725,19 @@
       <c r="X18" s="55"/>
       <c r="Y18" s="55"/>
       <c r="Z18" s="55"/>
-      <c r="AA18" s="266"/>
+      <c r="AA18" s="245"/>
       <c r="AB18" s="55"/>
       <c r="AC18" s="55"/>
       <c r="AD18" s="55"/>
       <c r="AE18" s="55"/>
-      <c r="AF18" s="266"/>
+      <c r="AF18" s="245"/>
       <c r="AG18" s="55"/>
       <c r="AH18" s="55"/>
       <c r="AI18" s="55"/>
       <c r="AJ18" s="55"/>
-      <c r="AK18" s="266"/>
-      <c r="AL18" s="266"/>
-      <c r="AM18" s="265"/>
+      <c r="AK18" s="245"/>
+      <c r="AL18" s="245"/>
+      <c r="AM18" s="244"/>
       <c r="AN18" s="112"/>
       <c r="AO18" s="112"/>
       <c r="AP18" s="112"/>
@@ -21549,37 +21549,37 @@
     </row>
     <row r="42" spans="1:60" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="251" t="s">
+      <c r="B42" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="251" t="s">
+      <c r="C42" s="253" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="253" t="s">
+      <c r="D42" s="274" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="255" t="s">
+      <c r="E42" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="256"/>
-      <c r="G42" s="255" t="s">
+      <c r="F42" s="266"/>
+      <c r="G42" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="256"/>
-      <c r="I42" s="256"/>
-      <c r="J42" s="256"/>
-      <c r="K42" s="257"/>
-      <c r="L42" s="255" t="s">
+      <c r="H42" s="266"/>
+      <c r="I42" s="266"/>
+      <c r="J42" s="266"/>
+      <c r="K42" s="267"/>
+      <c r="L42" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="256"/>
-      <c r="N42" s="256"/>
-      <c r="O42" s="256"/>
-      <c r="P42" s="257"/>
+      <c r="M42" s="266"/>
+      <c r="N42" s="266"/>
+      <c r="O42" s="266"/>
+      <c r="P42" s="267"/>
       <c r="Q42" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R42" s="244" t="s">
+      <c r="R42" s="258" t="s">
         <v>130</v>
       </c>
       <c r="S42" s="112"/>
@@ -21591,18 +21591,18 @@
       <c r="Y42" s="112"/>
       <c r="Z42" s="112"/>
       <c r="AA42" s="112"/>
-      <c r="AB42" s="265"/>
-      <c r="AC42" s="265"/>
-      <c r="AD42" s="265"/>
-      <c r="AE42" s="265"/>
-      <c r="AF42" s="265"/>
-      <c r="AG42" s="265"/>
-      <c r="AH42" s="265"/>
-      <c r="AI42" s="265"/>
-      <c r="AJ42" s="265"/>
-      <c r="AK42" s="265"/>
+      <c r="AB42" s="244"/>
+      <c r="AC42" s="244"/>
+      <c r="AD42" s="244"/>
+      <c r="AE42" s="244"/>
+      <c r="AF42" s="244"/>
+      <c r="AG42" s="244"/>
+      <c r="AH42" s="244"/>
+      <c r="AI42" s="244"/>
+      <c r="AJ42" s="244"/>
+      <c r="AK42" s="244"/>
       <c r="AL42" s="52"/>
-      <c r="AM42" s="265"/>
+      <c r="AM42" s="244"/>
       <c r="AN42" s="112"/>
       <c r="AO42" s="112"/>
       <c r="AP42" s="112"/>
@@ -21627,13 +21627,13 @@
     </row>
     <row r="43" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="252"/>
-      <c r="C43" s="252"/>
-      <c r="D43" s="254"/>
+      <c r="B43" s="254"/>
+      <c r="C43" s="254"/>
+      <c r="D43" s="275"/>
       <c r="E43" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="246" t="s">
+      <c r="F43" s="260" t="s">
         <v>132</v>
       </c>
       <c r="G43" s="84" t="s">
@@ -21648,7 +21648,7 @@
       <c r="J43" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="K43" s="246" t="s">
+      <c r="K43" s="260" t="s">
         <v>132</v>
       </c>
       <c r="L43" s="84" t="s">
@@ -21663,13 +21663,13 @@
       <c r="O43" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="P43" s="248" t="s">
+      <c r="P43" s="262" t="s">
         <v>132</v>
       </c>
-      <c r="Q43" s="249" t="s">
+      <c r="Q43" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="R43" s="245"/>
+      <c r="R43" s="259"/>
       <c r="S43" s="112"/>
       <c r="T43" s="54"/>
       <c r="U43" s="54"/>
@@ -21678,19 +21678,19 @@
       <c r="X43" s="52"/>
       <c r="Y43" s="52"/>
       <c r="Z43" s="52"/>
-      <c r="AA43" s="266"/>
+      <c r="AA43" s="245"/>
       <c r="AB43" s="52"/>
       <c r="AC43" s="52"/>
       <c r="AD43" s="52"/>
       <c r="AE43" s="52"/>
-      <c r="AF43" s="266"/>
+      <c r="AF43" s="245"/>
       <c r="AG43" s="52"/>
       <c r="AH43" s="52"/>
       <c r="AI43" s="52"/>
       <c r="AJ43" s="52"/>
-      <c r="AK43" s="266"/>
-      <c r="AL43" s="266"/>
-      <c r="AM43" s="265"/>
+      <c r="AK43" s="245"/>
+      <c r="AL43" s="245"/>
+      <c r="AM43" s="244"/>
       <c r="AN43" s="112"/>
       <c r="AO43" s="112"/>
       <c r="AP43" s="112"/>
@@ -21715,13 +21715,13 @@
     </row>
     <row r="44" spans="1:60" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="252"/>
-      <c r="C44" s="252"/>
-      <c r="D44" s="252"/>
+      <c r="B44" s="254"/>
+      <c r="C44" s="254"/>
+      <c r="D44" s="254"/>
       <c r="E44" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="247"/>
+      <c r="F44" s="261"/>
       <c r="G44" s="67" t="s">
         <v>137</v>
       </c>
@@ -21734,7 +21734,7 @@
       <c r="J44" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="247"/>
+      <c r="K44" s="261"/>
       <c r="L44" s="68" t="s">
         <v>137</v>
       </c>
@@ -21747,9 +21747,9 @@
       <c r="O44" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="P44" s="247"/>
-      <c r="Q44" s="250"/>
-      <c r="R44" s="245"/>
+      <c r="P44" s="261"/>
+      <c r="Q44" s="264"/>
+      <c r="R44" s="259"/>
       <c r="S44" s="112"/>
       <c r="T44" s="53"/>
       <c r="U44" s="53"/>
@@ -21758,19 +21758,19 @@
       <c r="X44" s="55"/>
       <c r="Y44" s="55"/>
       <c r="Z44" s="55"/>
-      <c r="AA44" s="266"/>
+      <c r="AA44" s="245"/>
       <c r="AB44" s="55"/>
       <c r="AC44" s="55"/>
       <c r="AD44" s="55"/>
       <c r="AE44" s="55"/>
-      <c r="AF44" s="266"/>
+      <c r="AF44" s="245"/>
       <c r="AG44" s="55"/>
       <c r="AH44" s="55"/>
       <c r="AI44" s="55"/>
       <c r="AJ44" s="55"/>
-      <c r="AK44" s="266"/>
-      <c r="AL44" s="266"/>
-      <c r="AM44" s="265"/>
+      <c r="AK44" s="245"/>
+      <c r="AL44" s="245"/>
+      <c r="AM44" s="244"/>
       <c r="AN44" s="112"/>
       <c r="AO44" s="112"/>
       <c r="AP44" s="112"/>
@@ -29424,6 +29424,37 @@
     <protectedRange sqref="L45:O45" name="Section_B_1_5"/>
   </protectedRanges>
   <mergeCells count="47">
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AK17:AK18"/>
+    <mergeCell ref="AL17:AL18"/>
+    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="AB42:AF42"/>
     <mergeCell ref="AG42:AK42"/>
@@ -29440,37 +29471,6 @@
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AK17:AK18"/>
-    <mergeCell ref="AL17:AL18"/>
-    <mergeCell ref="W16:AA16"/>
-    <mergeCell ref="AB16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E18 G18:J18">
@@ -29685,14 +29685,14 @@
     </row>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="215"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -29773,14 +29773,14 @@
     </row>
     <row r="4" spans="1:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="290" t="s">
+      <c r="B4" s="297" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="291"/>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="292"/>
+      <c r="C4" s="298"/>
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="298"/>
+      <c r="G4" s="299"/>
       <c r="H4" s="112"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -29818,14 +29818,14 @@
     </row>
     <row r="5" spans="1:41" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="293" t="s">
+      <c r="B5" s="300" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="294"/>
-      <c r="D5" s="294"/>
-      <c r="E5" s="294"/>
-      <c r="F5" s="294"/>
-      <c r="G5" s="295"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
+      <c r="G5" s="302"/>
       <c r="H5" s="112"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -29863,14 +29863,14 @@
     </row>
     <row r="6" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="296" t="s">
+      <c r="B6" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="297"/>
-      <c r="D6" s="297"/>
-      <c r="E6" s="297"/>
-      <c r="F6" s="297"/>
-      <c r="G6" s="298"/>
+      <c r="C6" s="304"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="304"/>
+      <c r="F6" s="304"/>
+      <c r="G6" s="305"/>
       <c r="H6" s="112"/>
       <c r="I6"/>
       <c r="J6"/>
@@ -29911,13 +29911,13 @@
       <c r="B7" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="260" t="s">
+      <c r="C7" s="285" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="297"/>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="298"/>
+      <c r="D7" s="304"/>
+      <c r="E7" s="304"/>
+      <c r="F7" s="304"/>
+      <c r="G7" s="305"/>
       <c r="H7" s="112"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -29958,13 +29958,13 @@
       <c r="B8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="263" t="s">
+      <c r="C8" s="269" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
-      <c r="G8" s="300"/>
+      <c r="D8" s="292"/>
+      <c r="E8" s="292"/>
+      <c r="F8" s="292"/>
+      <c r="G8" s="293"/>
       <c r="H8" s="112"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -30005,13 +30005,13 @@
       <c r="B9" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="263" t="s">
+      <c r="C9" s="269" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="300"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="293"/>
       <c r="H9" s="112"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -30052,13 +30052,13 @@
       <c r="B10" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="263" t="s">
+      <c r="C10" s="269" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="299"/>
-      <c r="E10" s="299"/>
-      <c r="F10" s="299"/>
-      <c r="G10" s="300"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
+      <c r="G10" s="293"/>
       <c r="H10" s="112"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -30099,13 +30099,13 @@
       <c r="B11" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="263" t="s">
+      <c r="C11" s="269" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="299"/>
-      <c r="E11" s="299"/>
-      <c r="F11" s="299"/>
-      <c r="G11" s="300"/>
+      <c r="D11" s="292"/>
+      <c r="E11" s="292"/>
+      <c r="F11" s="292"/>
+      <c r="G11" s="293"/>
       <c r="H11" s="112"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -30146,13 +30146,13 @@
       <c r="B12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="268" t="s">
+      <c r="C12" s="272" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="301"/>
-      <c r="E12" s="301"/>
-      <c r="F12" s="301"/>
-      <c r="G12" s="302"/>
+      <c r="D12" s="294"/>
+      <c r="E12" s="294"/>
+      <c r="F12" s="294"/>
+      <c r="G12" s="295"/>
       <c r="H12" s="112"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -30299,37 +30299,37 @@
     </row>
     <row r="16" spans="1:41" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="251" t="s">
+      <c r="B16" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="251" t="s">
+      <c r="C16" s="253" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="253" t="s">
+      <c r="D16" s="274" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="255" t="s">
+      <c r="E16" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="256"/>
-      <c r="G16" s="255" t="s">
+      <c r="F16" s="266"/>
+      <c r="G16" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="256"/>
-      <c r="I16" s="256"/>
-      <c r="J16" s="256"/>
-      <c r="K16" s="257"/>
-      <c r="L16" s="255" t="s">
+      <c r="H16" s="266"/>
+      <c r="I16" s="266"/>
+      <c r="J16" s="266"/>
+      <c r="K16" s="267"/>
+      <c r="L16" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="256"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="256"/>
-      <c r="P16" s="257"/>
+      <c r="M16" s="266"/>
+      <c r="N16" s="266"/>
+      <c r="O16" s="266"/>
+      <c r="P16" s="267"/>
       <c r="Q16" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="244" t="s">
+      <c r="R16" s="258" t="s">
         <v>130</v>
       </c>
       <c r="S16" s="112"/>
@@ -30358,9 +30358,9 @@
     </row>
     <row r="17" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="252"/>
-      <c r="C17" s="252"/>
-      <c r="D17" s="254"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="275"/>
       <c r="E17" s="84" t="s">
         <v>131</v>
       </c>
@@ -30397,10 +30397,10 @@
       <c r="P17" s="287" t="s">
         <v>132</v>
       </c>
-      <c r="Q17" s="249" t="s">
+      <c r="Q17" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="245"/>
+      <c r="R17" s="259"/>
       <c r="S17" s="112"/>
       <c r="T17" s="112"/>
       <c r="U17" s="112"/>
@@ -30427,9 +30427,9 @@
     </row>
     <row r="18" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="289"/>
-      <c r="C18" s="289"/>
-      <c r="D18" s="252"/>
+      <c r="B18" s="296"/>
+      <c r="C18" s="296"/>
+      <c r="D18" s="254"/>
       <c r="E18" s="22" t="s">
         <v>136</v>
       </c>
@@ -30460,8 +30460,8 @@
         <v>137</v>
       </c>
       <c r="P18" s="288"/>
-      <c r="Q18" s="303"/>
-      <c r="R18" s="305"/>
+      <c r="Q18" s="289"/>
+      <c r="R18" s="291"/>
       <c r="S18" s="112"/>
       <c r="T18" s="112"/>
       <c r="U18" s="112"/>
@@ -31562,9 +31562,9 @@
       <c r="W36"/>
       <c r="X36"/>
       <c r="Y36" s="112"/>
-      <c r="Z36" s="304"/>
-      <c r="AA36" s="304"/>
-      <c r="AB36" s="304"/>
+      <c r="Z36" s="290"/>
+      <c r="AA36" s="290"/>
+      <c r="AB36" s="290"/>
       <c r="AC36" s="112"/>
       <c r="AD36" s="112"/>
       <c r="AE36" s="112"/>
@@ -31817,37 +31817,37 @@
     </row>
     <row r="42" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="251" t="s">
+      <c r="B42" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="251" t="s">
+      <c r="C42" s="253" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="253" t="s">
+      <c r="D42" s="274" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="255" t="s">
+      <c r="E42" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="256"/>
-      <c r="G42" s="255" t="s">
+      <c r="F42" s="266"/>
+      <c r="G42" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="256"/>
-      <c r="I42" s="256"/>
-      <c r="J42" s="256"/>
-      <c r="K42" s="257"/>
-      <c r="L42" s="255" t="s">
+      <c r="H42" s="266"/>
+      <c r="I42" s="266"/>
+      <c r="J42" s="266"/>
+      <c r="K42" s="267"/>
+      <c r="L42" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="256"/>
-      <c r="N42" s="256"/>
-      <c r="O42" s="256"/>
-      <c r="P42" s="257"/>
+      <c r="M42" s="266"/>
+      <c r="N42" s="266"/>
+      <c r="O42" s="266"/>
+      <c r="P42" s="267"/>
       <c r="Q42" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R42" s="244" t="s">
+      <c r="R42" s="258" t="s">
         <v>130</v>
       </c>
       <c r="S42" s="112"/>
@@ -31876,9 +31876,9 @@
     </row>
     <row r="43" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="252"/>
-      <c r="C43" s="252"/>
-      <c r="D43" s="254"/>
+      <c r="B43" s="254"/>
+      <c r="C43" s="254"/>
+      <c r="D43" s="275"/>
       <c r="E43" s="84" t="s">
         <v>131</v>
       </c>
@@ -31915,10 +31915,10 @@
       <c r="P43" s="287" t="s">
         <v>132</v>
       </c>
-      <c r="Q43" s="249" t="s">
+      <c r="Q43" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="R43" s="245"/>
+      <c r="R43" s="259"/>
       <c r="S43" s="112"/>
       <c r="T43" s="112"/>
       <c r="U43" s="112"/>
@@ -31945,9 +31945,9 @@
     </row>
     <row r="44" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="252"/>
-      <c r="C44" s="252"/>
-      <c r="D44" s="252"/>
+      <c r="B44" s="254"/>
+      <c r="C44" s="254"/>
+      <c r="D44" s="254"/>
       <c r="E44" s="22" t="s">
         <v>136</v>
       </c>
@@ -31964,7 +31964,7 @@
       <c r="J44" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="247"/>
+      <c r="K44" s="261"/>
       <c r="L44" s="141" t="s">
         <v>137</v>
       </c>
@@ -31977,9 +31977,9 @@
       <c r="O44" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="P44" s="247"/>
-      <c r="Q44" s="250"/>
-      <c r="R44" s="245"/>
+      <c r="P44" s="261"/>
+      <c r="Q44" s="264"/>
+      <c r="R44" s="259"/>
       <c r="S44" s="112"/>
       <c r="T44" s="112"/>
       <c r="U44" s="112"/>
@@ -37566,25 +37566,11 @@
     <protectedRange sqref="Q19" name="Section_B_1_3"/>
   </protectedRanges>
   <mergeCells count="33">
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="D16:D18"/>
@@ -37594,11 +37580,25 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
   </mergeCells>
   <conditionalFormatting sqref="E18">
     <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
@@ -37716,15 +37716,15 @@
   <sheetData>
     <row r="2" spans="1:32" s="97" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="112"/>
-      <c r="B2" s="359" t="s">
+      <c r="B2" s="306" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
-      <c r="H2" s="361"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="307"/>
+      <c r="F2" s="307"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="308"/>
       <c r="I2" s="18"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -37752,15 +37752,15 @@
     </row>
     <row r="4" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="219" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="224"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="224"/>
-      <c r="H4" s="225"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="221"/>
       <c r="I4" s="112"/>
       <c r="J4" s="112"/>
       <c r="K4" s="112"/>
@@ -37788,15 +37788,15 @@
     </row>
     <row r="5" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="375" t="s">
+      <c r="B5" s="329" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="376"/>
-      <c r="D5" s="376"/>
-      <c r="E5" s="376"/>
-      <c r="F5" s="376"/>
-      <c r="G5" s="376"/>
-      <c r="H5" s="377"/>
+      <c r="C5" s="330"/>
+      <c r="D5" s="330"/>
+      <c r="E5" s="330"/>
+      <c r="F5" s="330"/>
+      <c r="G5" s="330"/>
+      <c r="H5" s="331"/>
       <c r="I5" s="112"/>
       <c r="J5" s="112"/>
       <c r="K5" s="112"/>
@@ -37859,18 +37859,18 @@
       <c r="AF6" s="112"/>
     </row>
     <row r="7" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="368" t="s">
+      <c r="A7" s="322" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="378" t="s">
+      <c r="B7" s="332" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="379"/>
-      <c r="D7" s="379"/>
-      <c r="E7" s="379"/>
-      <c r="F7" s="379"/>
-      <c r="G7" s="379"/>
-      <c r="H7" s="380"/>
+      <c r="C7" s="333"/>
+      <c r="D7" s="333"/>
+      <c r="E7" s="333"/>
+      <c r="F7" s="333"/>
+      <c r="G7" s="333"/>
+      <c r="H7" s="334"/>
       <c r="I7" s="112"/>
       <c r="J7" s="112"/>
       <c r="K7" s="112"/>
@@ -37897,16 +37897,16 @@
       <c r="AF7" s="112"/>
     </row>
     <row r="8" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="368"/>
-      <c r="B8" s="369" t="s">
+      <c r="A8" s="322"/>
+      <c r="B8" s="323" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="370"/>
-      <c r="D8" s="370"/>
-      <c r="E8" s="370"/>
-      <c r="F8" s="370"/>
-      <c r="G8" s="370"/>
-      <c r="H8" s="371"/>
+      <c r="C8" s="324"/>
+      <c r="D8" s="324"/>
+      <c r="E8" s="324"/>
+      <c r="F8" s="324"/>
+      <c r="G8" s="324"/>
+      <c r="H8" s="325"/>
       <c r="I8" s="112"/>
       <c r="J8" s="112"/>
       <c r="K8" s="112"/>
@@ -37933,16 +37933,16 @@
       <c r="AF8" s="112"/>
     </row>
     <row r="9" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="368"/>
-      <c r="B9" s="381" t="s">
+      <c r="A9" s="322"/>
+      <c r="B9" s="335" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="382"/>
-      <c r="D9" s="382"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="382"/>
-      <c r="G9" s="382"/>
-      <c r="H9" s="383"/>
+      <c r="C9" s="336"/>
+      <c r="D9" s="336"/>
+      <c r="E9" s="336"/>
+      <c r="F9" s="336"/>
+      <c r="G9" s="336"/>
+      <c r="H9" s="337"/>
       <c r="I9" s="112"/>
       <c r="J9" s="112"/>
       <c r="K9" s="112"/>
@@ -37969,7 +37969,7 @@
       <c r="AF9" s="112"/>
     </row>
     <row r="10" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="368"/>
+      <c r="A10" s="322"/>
       <c r="B10" s="112"/>
       <c r="C10" s="112"/>
       <c r="D10" s="112"/>
@@ -38003,7 +38003,7 @@
       <c r="AF10" s="112"/>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="368"/>
+      <c r="A11" s="322"/>
       <c r="B11" s="169" t="s">
         <v>260</v>
       </c>
@@ -38111,18 +38111,18 @@
       <c r="AF13" s="112"/>
     </row>
     <row r="14" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="384" t="s">
+      <c r="A14" s="338" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="365" t="s">
+      <c r="B14" s="319" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="366"/>
-      <c r="D14" s="366"/>
-      <c r="E14" s="366"/>
-      <c r="F14" s="366"/>
-      <c r="G14" s="366"/>
-      <c r="H14" s="367"/>
+      <c r="C14" s="320"/>
+      <c r="D14" s="320"/>
+      <c r="E14" s="320"/>
+      <c r="F14" s="320"/>
+      <c r="G14" s="320"/>
+      <c r="H14" s="321"/>
       <c r="I14" s="112"/>
       <c r="J14" s="112"/>
       <c r="K14" s="112"/>
@@ -38149,16 +38149,16 @@
       <c r="AF14" s="112"/>
     </row>
     <row r="15" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="384"/>
-      <c r="B15" s="372" t="s">
+      <c r="A15" s="338"/>
+      <c r="B15" s="326" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="373"/>
-      <c r="D15" s="373"/>
-      <c r="E15" s="373"/>
-      <c r="F15" s="373"/>
-      <c r="G15" s="373"/>
-      <c r="H15" s="374"/>
+      <c r="C15" s="327"/>
+      <c r="D15" s="327"/>
+      <c r="E15" s="327"/>
+      <c r="F15" s="327"/>
+      <c r="G15" s="327"/>
+      <c r="H15" s="328"/>
       <c r="I15" s="112"/>
       <c r="J15" s="112"/>
       <c r="K15" s="112"/>
@@ -38185,7 +38185,7 @@
       <c r="AF15" s="112"/>
     </row>
     <row r="16" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="384"/>
+      <c r="A16" s="338"/>
       <c r="B16" s="340" t="s">
         <v>162</v>
       </c>
@@ -38221,7 +38221,7 @@
       <c r="AF16" s="112"/>
     </row>
     <row r="17" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="384"/>
+      <c r="A17" s="338"/>
       <c r="B17" s="171" t="s">
         <v>163</v>
       </c>
@@ -38257,7 +38257,7 @@
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="384"/>
+      <c r="A18" s="338"/>
       <c r="B18" s="128"/>
       <c r="C18" s="182"/>
       <c r="D18" s="182"/>
@@ -38363,18 +38363,18 @@
       <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32" s="97" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="384" t="s">
+      <c r="A21" s="338" t="s">
         <v>166</v>
       </c>
-      <c r="B21" s="365" t="s">
+      <c r="B21" s="319" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="366"/>
-      <c r="D21" s="366"/>
-      <c r="E21" s="366"/>
-      <c r="F21" s="366"/>
-      <c r="G21" s="366"/>
-      <c r="H21" s="367"/>
+      <c r="C21" s="320"/>
+      <c r="D21" s="320"/>
+      <c r="E21" s="320"/>
+      <c r="F21" s="320"/>
+      <c r="G21" s="320"/>
+      <c r="H21" s="321"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -38401,16 +38401,16 @@
       <c r="AF21" s="3"/>
     </row>
     <row r="22" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="384"/>
-      <c r="B22" s="372" t="s">
+      <c r="A22" s="338"/>
+      <c r="B22" s="326" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="373"/>
-      <c r="D22" s="373"/>
-      <c r="E22" s="373"/>
-      <c r="F22" s="373"/>
-      <c r="G22" s="373"/>
-      <c r="H22" s="374"/>
+      <c r="C22" s="327"/>
+      <c r="D22" s="327"/>
+      <c r="E22" s="327"/>
+      <c r="F22" s="327"/>
+      <c r="G22" s="327"/>
+      <c r="H22" s="328"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -38437,16 +38437,16 @@
       <c r="AF22" s="3"/>
     </row>
     <row r="23" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="384"/>
-      <c r="B23" s="343" t="s">
+      <c r="A23" s="338"/>
+      <c r="B23" s="309" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="344"/>
-      <c r="D23" s="344"/>
-      <c r="E23" s="344"/>
-      <c r="F23" s="344"/>
-      <c r="G23" s="344"/>
-      <c r="H23" s="345"/>
+      <c r="C23" s="310"/>
+      <c r="D23" s="310"/>
+      <c r="E23" s="310"/>
+      <c r="F23" s="310"/>
+      <c r="G23" s="310"/>
+      <c r="H23" s="311"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -38473,7 +38473,7 @@
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="384"/>
+      <c r="A24" s="338"/>
       <c r="B24" s="171" t="s">
         <v>163</v>
       </c>
@@ -38509,7 +38509,7 @@
       <c r="AF24" s="3"/>
     </row>
     <row r="25" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="384"/>
+      <c r="A25" s="338"/>
       <c r="B25" s="128">
         <v>119</v>
       </c>
@@ -38617,18 +38617,18 @@
       <c r="AF27" s="3"/>
     </row>
     <row r="28" spans="1:32" s="97" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="385" t="s">
+      <c r="A28" s="339" t="s">
         <v>171</v>
       </c>
-      <c r="B28" s="365" t="s">
+      <c r="B28" s="319" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="366"/>
-      <c r="D28" s="366"/>
-      <c r="E28" s="366"/>
-      <c r="F28" s="366"/>
-      <c r="G28" s="366"/>
-      <c r="H28" s="367"/>
+      <c r="C28" s="320"/>
+      <c r="D28" s="320"/>
+      <c r="E28" s="320"/>
+      <c r="F28" s="320"/>
+      <c r="G28" s="320"/>
+      <c r="H28" s="321"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -38655,16 +38655,16 @@
       <c r="AF28" s="3"/>
     </row>
     <row r="29" spans="1:32" s="97" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="385"/>
-      <c r="B29" s="372" t="s">
+      <c r="A29" s="339"/>
+      <c r="B29" s="326" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="373"/>
-      <c r="D29" s="373"/>
-      <c r="E29" s="373"/>
-      <c r="F29" s="373"/>
-      <c r="G29" s="373"/>
-      <c r="H29" s="374"/>
+      <c r="C29" s="327"/>
+      <c r="D29" s="327"/>
+      <c r="E29" s="327"/>
+      <c r="F29" s="327"/>
+      <c r="G29" s="327"/>
+      <c r="H29" s="328"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -38691,16 +38691,16 @@
       <c r="AF29" s="3"/>
     </row>
     <row r="30" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="385"/>
-      <c r="B30" s="343" t="s">
+      <c r="A30" s="339"/>
+      <c r="B30" s="309" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="344"/>
-      <c r="D30" s="344"/>
-      <c r="E30" s="344"/>
-      <c r="F30" s="344"/>
-      <c r="G30" s="344"/>
-      <c r="H30" s="345"/>
+      <c r="C30" s="310"/>
+      <c r="D30" s="310"/>
+      <c r="E30" s="310"/>
+      <c r="F30" s="310"/>
+      <c r="G30" s="310"/>
+      <c r="H30" s="311"/>
       <c r="I30" s="112"/>
       <c r="J30" s="112"/>
       <c r="K30" s="112"/>
@@ -38727,16 +38727,16 @@
       <c r="AF30" s="112"/>
     </row>
     <row r="31" spans="1:32" ht="239.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="385"/>
-      <c r="B31" s="326" t="s">
+      <c r="A31" s="339"/>
+      <c r="B31" s="312" t="s">
         <v>1090</v>
       </c>
-      <c r="C31" s="222"/>
-      <c r="D31" s="222"/>
-      <c r="E31" s="327"/>
-      <c r="F31" s="327"/>
-      <c r="G31" s="327"/>
-      <c r="H31" s="328"/>
+      <c r="C31" s="231"/>
+      <c r="D31" s="231"/>
+      <c r="E31" s="313"/>
+      <c r="F31" s="313"/>
+      <c r="G31" s="313"/>
+      <c r="H31" s="314"/>
       <c r="I31" s="112"/>
       <c r="J31" s="112"/>
       <c r="K31" s="112"/>
@@ -38763,13 +38763,13 @@
       <c r="AF31" s="112"/>
     </row>
     <row r="32" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="385"/>
-      <c r="B32" s="221" t="s">
+      <c r="A32" s="339"/>
+      <c r="B32" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="221"/>
-      <c r="D32" s="221"/>
-      <c r="E32" s="221"/>
+      <c r="C32" s="218"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="218"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="59" t="s">
@@ -38837,18 +38837,18 @@
       <c r="AF33" s="112"/>
     </row>
     <row r="34" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="368" t="s">
+      <c r="A34" s="322" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="365" t="s">
+      <c r="B34" s="319" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="366"/>
-      <c r="D34" s="366"/>
-      <c r="E34" s="366"/>
-      <c r="F34" s="366"/>
-      <c r="G34" s="366"/>
-      <c r="H34" s="367"/>
+      <c r="C34" s="320"/>
+      <c r="D34" s="320"/>
+      <c r="E34" s="320"/>
+      <c r="F34" s="320"/>
+      <c r="G34" s="320"/>
+      <c r="H34" s="321"/>
       <c r="I34" s="112"/>
       <c r="J34" s="112"/>
       <c r="K34" s="112"/>
@@ -38875,16 +38875,16 @@
       <c r="AF34" s="112"/>
     </row>
     <row r="35" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="368"/>
-      <c r="B35" s="372" t="s">
+      <c r="A35" s="322"/>
+      <c r="B35" s="326" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="373"/>
-      <c r="D35" s="373"/>
-      <c r="E35" s="373"/>
-      <c r="F35" s="373"/>
-      <c r="G35" s="373"/>
-      <c r="H35" s="374"/>
+      <c r="C35" s="327"/>
+      <c r="D35" s="327"/>
+      <c r="E35" s="327"/>
+      <c r="F35" s="327"/>
+      <c r="G35" s="327"/>
+      <c r="H35" s="328"/>
       <c r="I35" s="112"/>
       <c r="J35" s="112"/>
       <c r="K35" s="112"/>
@@ -38911,16 +38911,16 @@
       <c r="AF35" s="112"/>
     </row>
     <row r="36" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="368"/>
+      <c r="A36" s="322"/>
       <c r="B36" s="356" t="s">
         <v>179</v>
       </c>
       <c r="C36" s="357"/>
       <c r="D36" s="357"/>
-      <c r="E36" s="344"/>
-      <c r="F36" s="344"/>
-      <c r="G36" s="344"/>
-      <c r="H36" s="345"/>
+      <c r="E36" s="310"/>
+      <c r="F36" s="310"/>
+      <c r="G36" s="310"/>
+      <c r="H36" s="311"/>
       <c r="I36" s="112"/>
       <c r="J36" s="112"/>
       <c r="K36" s="112"/>
@@ -38947,7 +38947,7 @@
       <c r="AF36" s="112"/>
     </row>
     <row r="37" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="368"/>
+      <c r="A37" s="322"/>
       <c r="B37" s="171" t="s">
         <v>163</v>
       </c>
@@ -38983,7 +38983,7 @@
       <c r="AF37" s="3"/>
     </row>
     <row r="38" spans="1:32" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="368"/>
+      <c r="A38" s="322"/>
       <c r="B38" s="128">
         <v>120</v>
       </c>
@@ -39056,22 +39056,22 @@
     </row>
     <row r="40" spans="1:32" s="107" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A40" s="105"/>
-      <c r="B40" s="346" t="s">
+      <c r="B40" s="343" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="347"/>
-      <c r="D40" s="347"/>
-      <c r="E40" s="347"/>
-      <c r="F40" s="347"/>
-      <c r="G40" s="347"/>
-      <c r="H40" s="347"/>
-      <c r="I40" s="347"/>
-      <c r="J40" s="347"/>
-      <c r="K40" s="347"/>
-      <c r="L40" s="347"/>
-      <c r="M40" s="347"/>
-      <c r="N40" s="347"/>
-      <c r="O40" s="348"/>
+      <c r="C40" s="344"/>
+      <c r="D40" s="344"/>
+      <c r="E40" s="344"/>
+      <c r="F40" s="344"/>
+      <c r="G40" s="344"/>
+      <c r="H40" s="344"/>
+      <c r="I40" s="344"/>
+      <c r="J40" s="344"/>
+      <c r="K40" s="344"/>
+      <c r="L40" s="344"/>
+      <c r="M40" s="344"/>
+      <c r="N40" s="344"/>
+      <c r="O40" s="345"/>
       <c r="P40" s="112"/>
       <c r="Q40" s="105"/>
       <c r="R40" s="105"/>
@@ -39128,28 +39128,28 @@
     </row>
     <row r="42" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="329" t="s">
+      <c r="B42" s="364" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="255" t="s">
+      <c r="C42" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="256"/>
-      <c r="E42" s="255" t="s">
+      <c r="D42" s="266"/>
+      <c r="E42" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="256"/>
-      <c r="G42" s="256"/>
-      <c r="H42" s="256"/>
+      <c r="F42" s="266"/>
+      <c r="G42" s="266"/>
+      <c r="H42" s="266"/>
       <c r="I42" s="358"/>
-      <c r="J42" s="256" t="s">
+      <c r="J42" s="266" t="s">
         <v>128</v>
       </c>
-      <c r="K42" s="256"/>
-      <c r="L42" s="256"/>
-      <c r="M42" s="256"/>
-      <c r="N42" s="257"/>
-      <c r="O42" s="353" t="s">
+      <c r="K42" s="266"/>
+      <c r="L42" s="266"/>
+      <c r="M42" s="266"/>
+      <c r="N42" s="267"/>
+      <c r="O42" s="352" t="s">
         <v>130</v>
       </c>
       <c r="P42" s="112"/>
@@ -39172,11 +39172,11 @@
     </row>
     <row r="43" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="330"/>
+      <c r="B43" s="365"/>
       <c r="C43" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="355" t="s">
+      <c r="D43" s="318" t="s">
         <v>132</v>
       </c>
       <c r="E43" s="173" t="s">
@@ -39191,7 +39191,7 @@
       <c r="H43" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="I43" s="355" t="s">
+      <c r="I43" s="318" t="s">
         <v>132</v>
       </c>
       <c r="J43" s="173" t="s">
@@ -39206,10 +39206,10 @@
       <c r="M43" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="N43" s="355" t="s">
+      <c r="N43" s="318" t="s">
         <v>132</v>
       </c>
-      <c r="O43" s="354"/>
+      <c r="O43" s="353"/>
       <c r="P43" s="112"/>
       <c r="Q43" s="112"/>
       <c r="R43" s="112"/>
@@ -39230,11 +39230,11 @@
     </row>
     <row r="44" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="112"/>
-      <c r="B44" s="330"/>
+      <c r="B44" s="365"/>
       <c r="C44" s="175" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="275"/>
+      <c r="D44" s="281"/>
       <c r="E44" s="176" t="s">
         <v>137</v>
       </c>
@@ -39247,7 +39247,7 @@
       <c r="H44" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="I44" s="275"/>
+      <c r="I44" s="281"/>
       <c r="J44" s="175" t="s">
         <v>137</v>
       </c>
@@ -39260,8 +39260,8 @@
       <c r="M44" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="N44" s="275"/>
-      <c r="O44" s="354"/>
+      <c r="N44" s="281"/>
+      <c r="O44" s="353"/>
       <c r="P44" s="112"/>
       <c r="Q44" s="112"/>
       <c r="R44" s="112"/>
@@ -39857,15 +39857,15 @@
     </row>
     <row r="54" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A54" s="112"/>
-      <c r="B54" s="337" t="s">
+      <c r="B54" s="372" t="s">
         <v>193</v>
       </c>
-      <c r="C54" s="338"/>
-      <c r="D54" s="338"/>
-      <c r="E54" s="338"/>
-      <c r="F54" s="338"/>
-      <c r="G54" s="338"/>
-      <c r="H54" s="339"/>
+      <c r="C54" s="373"/>
+      <c r="D54" s="373"/>
+      <c r="E54" s="373"/>
+      <c r="F54" s="373"/>
+      <c r="G54" s="373"/>
+      <c r="H54" s="374"/>
       <c r="I54" s="112"/>
       <c r="J54" s="112"/>
       <c r="K54" s="112"/>
@@ -39893,15 +39893,15 @@
     </row>
     <row r="55" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="112"/>
-      <c r="B55" s="331" t="s">
+      <c r="B55" s="366" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="332"/>
-      <c r="D55" s="332"/>
-      <c r="E55" s="332"/>
-      <c r="F55" s="332"/>
-      <c r="G55" s="332"/>
-      <c r="H55" s="333"/>
+      <c r="C55" s="367"/>
+      <c r="D55" s="367"/>
+      <c r="E55" s="367"/>
+      <c r="F55" s="367"/>
+      <c r="G55" s="367"/>
+      <c r="H55" s="368"/>
       <c r="I55" s="112"/>
       <c r="J55" s="112"/>
       <c r="K55" s="112"/>
@@ -39929,15 +39929,15 @@
     </row>
     <row r="56" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="112"/>
-      <c r="B56" s="350" t="s">
+      <c r="B56" s="348" t="s">
         <v>195</v>
       </c>
-      <c r="C56" s="351"/>
-      <c r="D56" s="351"/>
-      <c r="E56" s="351"/>
-      <c r="F56" s="351"/>
-      <c r="G56" s="351"/>
-      <c r="H56" s="352"/>
+      <c r="C56" s="349"/>
+      <c r="D56" s="349"/>
+      <c r="E56" s="349"/>
+      <c r="F56" s="349"/>
+      <c r="G56" s="349"/>
+      <c r="H56" s="350"/>
       <c r="I56" s="112"/>
       <c r="J56" s="112"/>
       <c r="K56" s="112"/>
@@ -39965,15 +39965,15 @@
     </row>
     <row r="57" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="112"/>
-      <c r="B57" s="326" t="s">
+      <c r="B57" s="312" t="s">
         <v>1091</v>
       </c>
-      <c r="C57" s="222"/>
-      <c r="D57" s="222"/>
-      <c r="E57" s="327"/>
-      <c r="F57" s="327"/>
-      <c r="G57" s="327"/>
-      <c r="H57" s="328"/>
+      <c r="C57" s="231"/>
+      <c r="D57" s="231"/>
+      <c r="E57" s="313"/>
+      <c r="F57" s="313"/>
+      <c r="G57" s="313"/>
+      <c r="H57" s="314"/>
       <c r="I57" s="112"/>
       <c r="J57" s="112"/>
       <c r="K57" s="112"/>
@@ -40001,12 +40001,12 @@
     </row>
     <row r="58" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="112"/>
-      <c r="B58" s="221" t="s">
+      <c r="B58" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="221"/>
-      <c r="D58" s="221"/>
-      <c r="E58" s="221"/>
+      <c r="C58" s="218"/>
+      <c r="D58" s="218"/>
+      <c r="E58" s="218"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="H58" s="59" t="s">
@@ -40075,15 +40075,15 @@
     </row>
     <row r="60" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A60" s="112"/>
-      <c r="B60" s="362" t="s">
+      <c r="B60" s="315" t="s">
         <v>198</v>
       </c>
-      <c r="C60" s="363"/>
-      <c r="D60" s="363"/>
-      <c r="E60" s="363"/>
-      <c r="F60" s="363"/>
-      <c r="G60" s="363"/>
-      <c r="H60" s="364"/>
+      <c r="C60" s="316"/>
+      <c r="D60" s="316"/>
+      <c r="E60" s="316"/>
+      <c r="F60" s="316"/>
+      <c r="G60" s="316"/>
+      <c r="H60" s="317"/>
       <c r="I60" s="112"/>
       <c r="J60" s="112"/>
       <c r="K60" s="112"/>
@@ -40111,15 +40111,15 @@
     </row>
     <row r="61" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="112"/>
-      <c r="B61" s="334" t="s">
+      <c r="B61" s="369" t="s">
         <v>199</v>
       </c>
-      <c r="C61" s="335"/>
-      <c r="D61" s="335"/>
-      <c r="E61" s="335"/>
-      <c r="F61" s="335"/>
-      <c r="G61" s="335"/>
-      <c r="H61" s="336"/>
+      <c r="C61" s="370"/>
+      <c r="D61" s="370"/>
+      <c r="E61" s="370"/>
+      <c r="F61" s="370"/>
+      <c r="G61" s="370"/>
+      <c r="H61" s="371"/>
       <c r="I61" s="112"/>
       <c r="J61" s="112"/>
       <c r="K61" s="112"/>
@@ -40147,15 +40147,15 @@
     </row>
     <row r="62" spans="1:32" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="112"/>
-      <c r="B62" s="323" t="s">
+      <c r="B62" s="361" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="324"/>
-      <c r="D62" s="324"/>
-      <c r="E62" s="324"/>
-      <c r="F62" s="324"/>
-      <c r="G62" s="324"/>
-      <c r="H62" s="325"/>
+      <c r="C62" s="362"/>
+      <c r="D62" s="362"/>
+      <c r="E62" s="362"/>
+      <c r="F62" s="362"/>
+      <c r="G62" s="362"/>
+      <c r="H62" s="363"/>
       <c r="I62" s="112"/>
       <c r="J62" s="112"/>
       <c r="K62" s="112"/>
@@ -40183,15 +40183,15 @@
     </row>
     <row r="63" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="112"/>
-      <c r="B63" s="326" t="s">
+      <c r="B63" s="312" t="s">
         <v>1092</v>
       </c>
-      <c r="C63" s="222"/>
-      <c r="D63" s="222"/>
-      <c r="E63" s="327"/>
-      <c r="F63" s="327"/>
-      <c r="G63" s="327"/>
-      <c r="H63" s="328"/>
+      <c r="C63" s="231"/>
+      <c r="D63" s="231"/>
+      <c r="E63" s="313"/>
+      <c r="F63" s="313"/>
+      <c r="G63" s="313"/>
+      <c r="H63" s="314"/>
       <c r="I63" s="112"/>
       <c r="J63" s="112"/>
       <c r="K63" s="112"/>
@@ -40402,41 +40402,41 @@
       <c r="B69" s="178" t="s">
         <v>206</v>
       </c>
-      <c r="C69" s="314" t="s">
+      <c r="C69" s="354" t="s">
         <v>207</v>
       </c>
-      <c r="D69" s="315"/>
-      <c r="E69" s="314" t="s">
+      <c r="D69" s="355"/>
+      <c r="E69" s="354" t="s">
         <v>208</v>
       </c>
-      <c r="F69" s="315"/>
-      <c r="G69" s="316" t="s">
+      <c r="F69" s="355"/>
+      <c r="G69" s="346" t="s">
         <v>209</v>
       </c>
-      <c r="H69" s="317"/>
-      <c r="I69" s="314" t="s">
+      <c r="H69" s="351"/>
+      <c r="I69" s="354" t="s">
         <v>210</v>
       </c>
-      <c r="J69" s="315"/>
+      <c r="J69" s="355"/>
       <c r="K69" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="L69" s="312" t="s">
+      <c r="L69" s="383" t="s">
         <v>212</v>
       </c>
-      <c r="M69" s="313"/>
-      <c r="N69" s="316" t="s">
+      <c r="M69" s="384"/>
+      <c r="N69" s="346" t="s">
         <v>213</v>
       </c>
-      <c r="O69" s="317"/>
-      <c r="P69" s="314" t="s">
+      <c r="O69" s="351"/>
+      <c r="P69" s="354" t="s">
         <v>214</v>
       </c>
-      <c r="Q69" s="315"/>
-      <c r="R69" s="316" t="s">
+      <c r="Q69" s="355"/>
+      <c r="R69" s="346" t="s">
         <v>215</v>
       </c>
-      <c r="S69" s="349"/>
+      <c r="S69" s="347"/>
       <c r="T69" s="112"/>
       <c r="U69" s="112"/>
       <c r="V69" s="112"/>
@@ -40456,41 +40456,41 @@
       <c r="B70" s="123">
         <v>1</v>
       </c>
-      <c r="C70" s="310" t="s">
+      <c r="C70" s="379" t="s">
         <v>423</v>
       </c>
-      <c r="D70" s="310"/>
-      <c r="E70" s="311" t="s">
+      <c r="D70" s="379"/>
+      <c r="E70" s="359" t="s">
         <v>302</v>
       </c>
-      <c r="F70" s="311"/>
-      <c r="G70" s="310" t="s">
+      <c r="F70" s="359"/>
+      <c r="G70" s="379" t="s">
         <v>420</v>
       </c>
-      <c r="H70" s="310"/>
-      <c r="I70" s="311" t="s">
+      <c r="H70" s="379"/>
+      <c r="I70" s="359" t="s">
         <v>305</v>
       </c>
-      <c r="J70" s="311"/>
+      <c r="J70" s="359"/>
       <c r="K70" s="114">
         <v>20</v>
       </c>
-      <c r="L70" s="318" t="s">
+      <c r="L70" s="385" t="s">
         <v>1093</v>
       </c>
-      <c r="M70" s="318"/>
-      <c r="N70" s="321" t="s">
+      <c r="M70" s="385"/>
+      <c r="N70" s="376" t="s">
         <v>1094</v>
       </c>
-      <c r="O70" s="321"/>
-      <c r="P70" s="310" t="s">
+      <c r="O70" s="376"/>
+      <c r="P70" s="379" t="s">
         <v>137</v>
       </c>
-      <c r="Q70" s="310"/>
-      <c r="R70" s="311" t="s">
+      <c r="Q70" s="379"/>
+      <c r="R70" s="359" t="s">
         <v>7</v>
       </c>
-      <c r="S70" s="322"/>
+      <c r="S70" s="378"/>
       <c r="T70" s="112"/>
       <c r="U70" s="112"/>
       <c r="V70" s="112"/>
@@ -40508,45 +40508,45 @@
     <row r="71" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="112"/>
       <c r="B71" s="194"/>
-      <c r="C71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F71" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I71" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J71" s="308" t="s">
+      <c r="C71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I71" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J71" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K71" s="193"/>
-      <c r="L71" s="307"/>
-      <c r="M71" s="307"/>
-      <c r="N71" s="308"/>
-      <c r="O71" s="308"/>
-      <c r="P71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R71" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S71" s="309" t="s">
+      <c r="L71" s="375"/>
+      <c r="M71" s="375"/>
+      <c r="N71" s="360"/>
+      <c r="O71" s="360"/>
+      <c r="P71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R71" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S71" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T71" s="112"/>
@@ -40566,45 +40566,45 @@
     <row r="72" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="112"/>
       <c r="B72" s="194"/>
-      <c r="C72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F72" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I72" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J72" s="308" t="s">
+      <c r="C72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I72" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J72" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K72" s="193"/>
-      <c r="L72" s="307"/>
-      <c r="M72" s="307"/>
-      <c r="N72" s="308"/>
-      <c r="O72" s="308"/>
-      <c r="P72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R72" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S72" s="309" t="s">
+      <c r="L72" s="375"/>
+      <c r="M72" s="375"/>
+      <c r="N72" s="360"/>
+      <c r="O72" s="360"/>
+      <c r="P72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R72" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S72" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T72" s="112"/>
@@ -40624,45 +40624,45 @@
     <row r="73" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="112"/>
       <c r="B73" s="194"/>
-      <c r="C73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E73" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F73" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I73" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J73" s="308" t="s">
+      <c r="C73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I73" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J73" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K73" s="193"/>
-      <c r="L73" s="307"/>
-      <c r="M73" s="307"/>
-      <c r="N73" s="308"/>
-      <c r="O73" s="308"/>
-      <c r="P73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R73" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S73" s="309" t="s">
+      <c r="L73" s="375"/>
+      <c r="M73" s="375"/>
+      <c r="N73" s="360"/>
+      <c r="O73" s="360"/>
+      <c r="P73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R73" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S73" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T73" s="112"/>
@@ -40682,45 +40682,45 @@
     <row r="74" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="112"/>
       <c r="B74" s="194"/>
-      <c r="C74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E74" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F74" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I74" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J74" s="308" t="s">
+      <c r="C74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I74" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J74" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K74" s="193"/>
-      <c r="L74" s="307"/>
-      <c r="M74" s="307"/>
-      <c r="N74" s="308"/>
-      <c r="O74" s="308"/>
-      <c r="P74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R74" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S74" s="309" t="s">
+      <c r="L74" s="375"/>
+      <c r="M74" s="375"/>
+      <c r="N74" s="360"/>
+      <c r="O74" s="360"/>
+      <c r="P74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R74" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S74" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T74" s="112"/>
@@ -40740,45 +40740,45 @@
     <row r="75" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="112"/>
       <c r="B75" s="194"/>
-      <c r="C75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E75" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F75" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I75" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J75" s="308" t="s">
+      <c r="C75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F75" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I75" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J75" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K75" s="193"/>
-      <c r="L75" s="307"/>
-      <c r="M75" s="307"/>
-      <c r="N75" s="308"/>
-      <c r="O75" s="308"/>
-      <c r="P75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R75" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S75" s="309" t="s">
+      <c r="L75" s="375"/>
+      <c r="M75" s="375"/>
+      <c r="N75" s="360"/>
+      <c r="O75" s="360"/>
+      <c r="P75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R75" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S75" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T75" s="112"/>
@@ -40798,45 +40798,45 @@
     <row r="76" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="112"/>
       <c r="B76" s="194"/>
-      <c r="C76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E76" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F76" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I76" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J76" s="308" t="s">
+      <c r="C76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I76" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J76" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K76" s="193"/>
-      <c r="L76" s="307"/>
-      <c r="M76" s="307"/>
-      <c r="N76" s="308"/>
-      <c r="O76" s="308"/>
-      <c r="P76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R76" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S76" s="309" t="s">
+      <c r="L76" s="375"/>
+      <c r="M76" s="375"/>
+      <c r="N76" s="360"/>
+      <c r="O76" s="360"/>
+      <c r="P76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R76" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S76" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T76" s="112"/>
@@ -40856,45 +40856,45 @@
     <row r="77" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="112"/>
       <c r="B77" s="194"/>
-      <c r="C77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F77" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I77" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J77" s="308" t="s">
+      <c r="C77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I77" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J77" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K77" s="193"/>
-      <c r="L77" s="307"/>
-      <c r="M77" s="307"/>
-      <c r="N77" s="308"/>
-      <c r="O77" s="308"/>
-      <c r="P77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R77" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S77" s="309" t="s">
+      <c r="L77" s="375"/>
+      <c r="M77" s="375"/>
+      <c r="N77" s="360"/>
+      <c r="O77" s="360"/>
+      <c r="P77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R77" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S77" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T77" s="112"/>
@@ -40914,45 +40914,45 @@
     <row r="78" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="112"/>
       <c r="B78" s="194"/>
-      <c r="C78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E78" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I78" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J78" s="308" t="s">
+      <c r="C78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I78" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J78" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K78" s="193"/>
-      <c r="L78" s="307"/>
-      <c r="M78" s="307"/>
-      <c r="N78" s="308"/>
-      <c r="O78" s="308"/>
-      <c r="P78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R78" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S78" s="309" t="s">
+      <c r="L78" s="375"/>
+      <c r="M78" s="375"/>
+      <c r="N78" s="360"/>
+      <c r="O78" s="360"/>
+      <c r="P78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R78" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S78" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T78" s="112"/>
@@ -40972,45 +40972,45 @@
     <row r="79" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="112"/>
       <c r="B79" s="194"/>
-      <c r="C79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E79" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F79" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I79" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J79" s="308" t="s">
+      <c r="C79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I79" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J79" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K79" s="193"/>
-      <c r="L79" s="307"/>
-      <c r="M79" s="307"/>
-      <c r="N79" s="308"/>
-      <c r="O79" s="308"/>
-      <c r="P79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R79" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S79" s="309" t="s">
+      <c r="L79" s="375"/>
+      <c r="M79" s="375"/>
+      <c r="N79" s="360"/>
+      <c r="O79" s="360"/>
+      <c r="P79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R79" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S79" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T79" s="112"/>
@@ -41030,45 +41030,45 @@
     <row r="80" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="112"/>
       <c r="B80" s="194"/>
-      <c r="C80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E80" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F80" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I80" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J80" s="308" t="s">
+      <c r="C80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F80" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I80" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J80" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K80" s="193"/>
-      <c r="L80" s="307"/>
-      <c r="M80" s="307"/>
-      <c r="N80" s="308"/>
-      <c r="O80" s="308"/>
-      <c r="P80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R80" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S80" s="309" t="s">
+      <c r="L80" s="375"/>
+      <c r="M80" s="375"/>
+      <c r="N80" s="360"/>
+      <c r="O80" s="360"/>
+      <c r="P80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R80" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S80" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T80" s="112"/>
@@ -41088,45 +41088,45 @@
     <row r="81" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="112"/>
       <c r="B81" s="194"/>
-      <c r="C81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E81" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F81" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I81" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J81" s="308" t="s">
+      <c r="C81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I81" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J81" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K81" s="193"/>
-      <c r="L81" s="307"/>
-      <c r="M81" s="307"/>
-      <c r="N81" s="308"/>
-      <c r="O81" s="308"/>
-      <c r="P81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R81" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S81" s="309" t="s">
+      <c r="L81" s="375"/>
+      <c r="M81" s="375"/>
+      <c r="N81" s="360"/>
+      <c r="O81" s="360"/>
+      <c r="P81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R81" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S81" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T81" s="112"/>
@@ -41146,45 +41146,45 @@
     <row r="82" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="112"/>
       <c r="B82" s="194"/>
-      <c r="C82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E82" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F82" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I82" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J82" s="308" t="s">
+      <c r="C82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I82" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J82" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K82" s="193"/>
-      <c r="L82" s="307"/>
-      <c r="M82" s="307"/>
-      <c r="N82" s="308"/>
-      <c r="O82" s="308"/>
-      <c r="P82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R82" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S82" s="309" t="s">
+      <c r="L82" s="375"/>
+      <c r="M82" s="375"/>
+      <c r="N82" s="360"/>
+      <c r="O82" s="360"/>
+      <c r="P82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R82" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S82" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T82" s="112"/>
@@ -41204,45 +41204,45 @@
     <row r="83" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="112"/>
       <c r="B83" s="194"/>
-      <c r="C83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F83" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I83" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J83" s="308" t="s">
+      <c r="C83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I83" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J83" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K83" s="193"/>
-      <c r="L83" s="307"/>
-      <c r="M83" s="307"/>
-      <c r="N83" s="308"/>
-      <c r="O83" s="308"/>
-      <c r="P83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R83" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S83" s="309" t="s">
+      <c r="L83" s="375"/>
+      <c r="M83" s="375"/>
+      <c r="N83" s="360"/>
+      <c r="O83" s="360"/>
+      <c r="P83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R83" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S83" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T83" s="112"/>
@@ -41262,45 +41262,45 @@
     <row r="84" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="112"/>
       <c r="B84" s="194"/>
-      <c r="C84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E84" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F84" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I84" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J84" s="308" t="s">
+      <c r="C84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F84" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I84" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J84" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K84" s="193"/>
-      <c r="L84" s="307"/>
-      <c r="M84" s="307"/>
-      <c r="N84" s="308"/>
-      <c r="O84" s="308"/>
-      <c r="P84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R84" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S84" s="309" t="s">
+      <c r="L84" s="375"/>
+      <c r="M84" s="375"/>
+      <c r="N84" s="360"/>
+      <c r="O84" s="360"/>
+      <c r="P84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R84" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S84" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T84" s="112"/>
@@ -41320,45 +41320,45 @@
     <row r="85" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="112"/>
       <c r="B85" s="194"/>
-      <c r="C85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E85" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F85" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I85" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J85" s="308" t="s">
+      <c r="C85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I85" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J85" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K85" s="193"/>
-      <c r="L85" s="307"/>
-      <c r="M85" s="307"/>
-      <c r="N85" s="308"/>
-      <c r="O85" s="308"/>
-      <c r="P85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R85" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S85" s="309" t="s">
+      <c r="L85" s="375"/>
+      <c r="M85" s="375"/>
+      <c r="N85" s="360"/>
+      <c r="O85" s="360"/>
+      <c r="P85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R85" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S85" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T85" s="112"/>
@@ -41378,45 +41378,45 @@
     <row r="86" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="112"/>
       <c r="B86" s="194"/>
-      <c r="C86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E86" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F86" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I86" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J86" s="308" t="s">
+      <c r="C86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F86" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I86" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J86" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K86" s="193"/>
-      <c r="L86" s="307"/>
-      <c r="M86" s="307"/>
-      <c r="N86" s="308"/>
-      <c r="O86" s="308"/>
-      <c r="P86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R86" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S86" s="309" t="s">
+      <c r="L86" s="375"/>
+      <c r="M86" s="375"/>
+      <c r="N86" s="360"/>
+      <c r="O86" s="360"/>
+      <c r="P86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R86" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S86" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T86" s="112"/>
@@ -41436,45 +41436,45 @@
     <row r="87" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="112"/>
       <c r="B87" s="195"/>
-      <c r="C87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="E87" s="319" t="s">
-        <v>91</v>
-      </c>
-      <c r="F87" s="319" t="s">
-        <v>91</v>
-      </c>
-      <c r="G87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="H87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="I87" s="319" t="s">
-        <v>91</v>
-      </c>
-      <c r="J87" s="319" t="s">
+      <c r="C87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="380" t="s">
+        <v>91</v>
+      </c>
+      <c r="F87" s="380" t="s">
+        <v>91</v>
+      </c>
+      <c r="G87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="H87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="I87" s="380" t="s">
+        <v>91</v>
+      </c>
+      <c r="J87" s="380" t="s">
         <v>91</v>
       </c>
       <c r="K87" s="196"/>
-      <c r="L87" s="306"/>
-      <c r="M87" s="306"/>
-      <c r="N87" s="319"/>
-      <c r="O87" s="319"/>
-      <c r="P87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="R87" s="319" t="s">
-        <v>91</v>
-      </c>
-      <c r="S87" s="320" t="s">
+      <c r="L87" s="382"/>
+      <c r="M87" s="382"/>
+      <c r="N87" s="380"/>
+      <c r="O87" s="380"/>
+      <c r="P87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="R87" s="380" t="s">
+        <v>91</v>
+      </c>
+      <c r="S87" s="381" t="s">
         <v>91</v>
       </c>
       <c r="T87" s="112"/>
@@ -41597,6 +41597,177 @@
     </row>
   </sheetData>
   <mergeCells count="195">
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B40:O40"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="D43:D44"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B30:H30"/>
     <mergeCell ref="B31:H31"/>
@@ -41621,177 +41792,6 @@
     <mergeCell ref="B22:H22"/>
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B40:O40"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="O42:O44"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="I86:J86"/>
   </mergeCells>
   <conditionalFormatting sqref="C44 E44:H44">
     <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
@@ -41883,12 +41883,12 @@
     <row r="1" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="215"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -41929,12 +41929,12 @@
     <row r="3" spans="1:41" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:41" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="219" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="221"/>
       <c r="F4" s="112"/>
       <c r="G4" s="112"/>
       <c r="H4" s="112"/>
@@ -41974,12 +41974,12 @@
     </row>
     <row r="5" spans="1:41" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="343" t="s">
+      <c r="B5" s="309" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="344"/>
-      <c r="D5" s="344"/>
-      <c r="E5" s="345"/>
+      <c r="C5" s="310"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="311"/>
       <c r="F5" s="112"/>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
@@ -42373,23 +42373,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
-    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42664,23 +42653,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
+    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
-    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
-    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -42707,9 +42702,14 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
+    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
+    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_tests/mock_pf_returns/PF_Round_1_Cross_Table_Validation_Failures.xlsx
+++ b/tests/integration_tests/mock_pf_returns/PF_Round_1_Cross_Table_Validation_Failures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PearceJ\stash\funding-service-design-post-award-data-store\tests\integration_tests\mock_pf_returns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CED9DD-8DFF-4641-8A61-97788A2CDB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07C1649-3385-4540-8E5A-16BE83B5CB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="661" firstSheet="4" activeTab="10" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="661" firstSheet="4" activeTab="7" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="13" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="1125">
   <si>
     <t>Reporting Round</t>
   </si>
@@ -3785,6 +3785,9 @@
   </si>
   <si>
     <t>Enhancing sub-regional and regional connectivity</t>
+  </si>
+  <si>
+    <t>Not allowed</t>
   </si>
 </sst>
 </file>
@@ -7927,7 +7930,7 @@
   </sheetPr>
   <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
@@ -37690,8 +37693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD05DD0-7124-4A36-99BE-80113683F5E3}">
   <dimension ref="A2:AF90"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P74" sqref="P74:Q74"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -40461,7 +40464,7 @@
       </c>
       <c r="D70" s="379"/>
       <c r="E70" s="359" t="s">
-        <v>302</v>
+        <v>1124</v>
       </c>
       <c r="F70" s="359"/>
       <c r="G70" s="379" t="s">
